--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -113,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -220,6 +223,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -317,15 +321,53 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="1"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4301363111972316E-2"/>
+                  <c:y val="4.7908553398334233E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
                 <a:ln>
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -803,16 +845,91 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382929824"/>
-        <c:axId val="382935312"/>
+        <c:axId val="366988392"/>
+        <c:axId val="366984472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382929824"/>
+        <c:axId val="366988392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> since March 3, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -850,7 +967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382935312"/>
+        <c:crossAx val="366984472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -858,7 +975,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382935312"/>
+        <c:axId val="366984472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382929824"/>
+        <c:crossAx val="366988392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,14 +1040,26 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4899564711101253E-2"/>
-          <c:y val="9.4839250689331689E-2"/>
-          <c:w val="0.28329471078773383"/>
-          <c:h val="0.19046408702298218"/>
+          <c:x val="0.10638844397650862"/>
+          <c:y val="9.0100154448203004E-2"/>
+          <c:w val="0.25468315393719454"/>
+          <c:h val="0.1523025100201825"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1594,13 +1723,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1891,13 +2020,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
@@ -1955,7 +2084,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>43893</v>
       </c>
       <c r="C3">
@@ -2002,7 +2131,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>43894</v>
       </c>
       <c r="C4">
@@ -2061,7 +2190,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>43895</v>
       </c>
       <c r="C5">
@@ -2112,7 +2241,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>43896</v>
       </c>
       <c r="C6">
@@ -2150,7 +2279,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>43897</v>
       </c>
       <c r="C7">
@@ -2197,7 +2326,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>43898</v>
       </c>
       <c r="C8">
@@ -2235,7 +2364,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>43899</v>
       </c>
       <c r="C9">
@@ -2273,7 +2402,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>43900</v>
       </c>
       <c r="C10">
@@ -2311,7 +2440,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>43901</v>
       </c>
       <c r="C11">
@@ -2349,7 +2478,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>43902</v>
       </c>
       <c r="C12">
@@ -2387,7 +2516,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>43903</v>
       </c>
       <c r="C13">
@@ -2425,7 +2554,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>43904</v>
       </c>
       <c r="C14">
@@ -2463,7 +2592,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>43905</v>
       </c>
       <c r="C15">
@@ -2504,7 +2633,7 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>43906</v>
       </c>
       <c r="C16">
@@ -2545,7 +2674,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>43907</v>
       </c>
       <c r="C17">
@@ -2586,7 +2715,7 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>43908</v>
       </c>
       <c r="C18">
@@ -2627,7 +2756,7 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>43909</v>
       </c>
       <c r="C19">
@@ -2668,7 +2797,7 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>43910</v>
       </c>
       <c r="J20">
@@ -2684,7 +2813,7 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>43911</v>
       </c>
       <c r="J21">
@@ -2700,7 +2829,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>43912</v>
       </c>
       <c r="J22">
@@ -2716,7 +2845,7 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>43913</v>
       </c>
       <c r="J23">
@@ -2732,7 +2861,7 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>43914</v>
       </c>
       <c r="J24">
@@ -2748,7 +2877,7 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>43915</v>
       </c>
       <c r="J25">
@@ -2764,7 +2893,7 @@
       <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>43916</v>
       </c>
       <c r="J26">
@@ -2780,7 +2909,7 @@
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>43917</v>
       </c>
       <c r="J27">
@@ -2796,7 +2925,7 @@
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>43918</v>
       </c>
       <c r="J28">
@@ -2812,7 +2941,7 @@
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>43919</v>
       </c>
       <c r="J29">
@@ -2828,7 +2957,7 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>43920</v>
       </c>
       <c r="J30">
@@ -2844,7 +2973,7 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>43921</v>
       </c>
       <c r="J31">
@@ -2860,7 +2989,7 @@
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>43922</v>
       </c>
       <c r="J32">
@@ -2876,7 +3005,7 @@
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="13">
         <v>43923</v>
       </c>
       <c r="J33">
@@ -2892,7 +3021,7 @@
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>43924</v>
       </c>
       <c r="J34">
@@ -2908,7 +3037,7 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>43925</v>
       </c>
       <c r="J35">
@@ -2924,7 +3053,7 @@
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <v>43926</v>
       </c>
       <c r="J36">
@@ -2940,7 +3069,7 @@
       <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="13">
         <v>43927</v>
       </c>
       <c r="J37">
@@ -2956,7 +3085,7 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>43928</v>
       </c>
       <c r="J38">
@@ -2972,7 +3101,7 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="13">
         <v>43929</v>
       </c>
       <c r="J39">
@@ -2988,7 +3117,7 @@
       <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="13">
         <v>43930</v>
       </c>
       <c r="J40">
@@ -3004,7 +3133,7 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="13">
         <v>43931</v>
       </c>
       <c r="J41">
@@ -3020,7 +3149,7 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="13">
         <v>43932</v>
       </c>
       <c r="J42">
@@ -3036,7 +3165,7 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="13">
         <v>43933</v>
       </c>
       <c r="J43">
@@ -3052,7 +3181,7 @@
       <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>43934</v>
       </c>
       <c r="J44">
@@ -3068,7 +3197,7 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="13">
         <v>43935</v>
       </c>
       <c r="J45">
@@ -3084,7 +3213,7 @@
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="13">
         <v>43936</v>
       </c>
       <c r="J46">
@@ -3100,7 +3229,7 @@
       <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="13">
         <v>43937</v>
       </c>
       <c r="J47">
@@ -3116,7 +3245,7 @@
       <c r="A48" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="13">
         <v>43938</v>
       </c>
       <c r="J48">
@@ -3132,7 +3261,7 @@
       <c r="A49" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="13">
         <v>43939</v>
       </c>
       <c r="J49">
@@ -3148,7 +3277,7 @@
       <c r="A50" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>43940</v>
       </c>
       <c r="J50">
@@ -3164,7 +3293,7 @@
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="13">
         <v>43941</v>
       </c>
       <c r="J51">
@@ -3180,7 +3309,7 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="13">
         <v>43942</v>
       </c>
       <c r="J52">
@@ -3196,7 +3325,7 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>43943</v>
       </c>
       <c r="J53">
@@ -3212,7 +3341,7 @@
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="13">
         <v>43944</v>
       </c>
       <c r="J54">
@@ -3228,7 +3357,7 @@
       <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="13">
         <v>43945</v>
       </c>
       <c r="J55">
@@ -3244,7 +3373,7 @@
       <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="13">
         <v>43946</v>
       </c>
       <c r="J56">
@@ -3260,7 +3389,7 @@
       <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="13">
         <v>43947</v>
       </c>
       <c r="J57">
@@ -3276,7 +3405,7 @@
       <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="13">
         <v>43948</v>
       </c>
       <c r="J58">
@@ -3292,7 +3421,7 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="13">
         <v>43949</v>
       </c>
       <c r="J59">
@@ -3308,7 +3437,7 @@
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="13">
         <v>43950</v>
       </c>
       <c r="J60">
@@ -3324,7 +3453,7 @@
       <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="13">
         <v>43951</v>
       </c>
       <c r="J61">
@@ -3340,7 +3469,7 @@
       <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="13">
         <v>43952</v>
       </c>
       <c r="J62">
@@ -3356,7 +3485,7 @@
       <c r="A63" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="13">
         <v>43953</v>
       </c>
       <c r="J63">
@@ -3372,7 +3501,7 @@
       <c r="A64" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="13">
         <v>43954</v>
       </c>
       <c r="J64">
@@ -3388,7 +3517,7 @@
       <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="13">
         <v>43955</v>
       </c>
       <c r="J65">
@@ -3404,7 +3533,7 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="13">
         <v>43956</v>
       </c>
       <c r="J66">
@@ -3428,7 +3557,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
   </bookViews>
   <sheets>
-    <sheet name="Dailies" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Screenshots" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -113,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -203,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -223,7 +225,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -263,8 +266,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5358705161854769E-2"/>
-          <c:y val="2.5428331875182269E-2"/>
+          <c:x val="8.9258259502768403E-2"/>
+          <c:y val="6.4798396263459193E-2"/>
           <c:w val="0.89019685039370078"/>
           <c:h val="0.7293237824438612"/>
         </c:manualLayout>
@@ -277,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dailies!$C$2</c:f>
+              <c:f>Summary!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -395,10 +398,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Dailies!$J$3:$J$19</c:f>
+              <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -449,16 +452,31 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$C$3:$C$19</c:f>
+              <c:f>Summary!$C$3:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -509,6 +527,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,11 +541,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dailies!$F$2</c:f>
+              <c:f>Summary!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Deathsx20</c:v>
+                  <c:v>Total Deathsx1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -555,10 +576,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dailies!$J$3:$J$19</c:f>
+              <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -609,66 +630,84 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$F$3:$F$19</c:f>
+              <c:f>Summary!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>340</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>420</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>440</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>560</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>720</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>940</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1080</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1260</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2160</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2360</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,11 +719,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dailies!$G$2</c:f>
+              <c:f>Summary!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Recovx20</c:v>
+                  <c:v>Total Recovx1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -715,10 +754,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dailies!$J$3:$J$19</c:f>
+              <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -769,66 +808,84 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$G$3:$G$19</c:f>
+              <c:f>Summary!$G$3:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>240</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>240</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>340</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>340</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2120</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2160</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,11 +902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366988392"/>
-        <c:axId val="366984472"/>
+        <c:axId val="396241424"/>
+        <c:axId val="396236720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366988392"/>
+        <c:axId val="396241424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366984472"/>
+        <c:crossAx val="396236720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -975,7 +1032,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366984472"/>
+        <c:axId val="396236720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366988392"/>
+        <c:crossAx val="396241424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1730,8 +1787,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1750,6 +1807,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218209</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="6923809" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2018,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,14 +2138,15 @@
     <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2060,11 +2161,11 @@
       </c>
       <c r="F2" s="7" t="str">
         <f>"Total Deathsx"&amp;N7</f>
-        <v>Total Deathsx20</v>
+        <v>Total Deathsx1</v>
       </c>
       <c r="G2" s="7" t="str">
         <f>"Total Recovx"&amp;O7</f>
-        <v>Total Recovx20</v>
+        <v>Total Recovx1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>5</v>
@@ -2083,7 +2184,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="13">
         <v>43893</v>
       </c>
@@ -2097,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F19" si="0">D3*$N$7</f>
-        <v>140</v>
+        <f t="shared" ref="F3:F20" si="0">D3*$N$7</f>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G19" si="1">E3*$N$7</f>
-        <v>160</v>
+        <f t="shared" ref="G3:G20" si="1">E3*$N$7</f>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K34" si="2">M$4*EXP(N$4*J3)</f>
-        <v>92.456999999999994</v>
+        <v>91.9</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>21</v>
@@ -2130,7 +2234,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="13">
         <v>43894</v>
       </c>
@@ -2145,11 +2252,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H11" si="3">C4-C3</f>
@@ -2165,15 +2272,15 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" si="2"/>
-        <v>122.87206247514669</v>
+        <v>122.32739663768561</v>
       </c>
       <c r="M4">
-        <f>Q5</f>
-        <v>92.456999999999994</v>
+        <f>Q4</f>
+        <v>91.9</v>
       </c>
       <c r="N4">
-        <f>R5</f>
-        <v>0.28439999999999999</v>
+        <f>R4</f>
+        <v>0.28599999999999998</v>
       </c>
       <c r="P4" s="1">
         <v>43541</v>
@@ -2188,8 +2295,15 @@
         <f>LN(2)/R4</f>
         <v>2.4235915404193893</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="14">
+        <f>S4*24</f>
+        <v>58.166196970065343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="13">
         <v>43895</v>
       </c>
@@ -2204,11 +2318,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
@@ -2224,7 +2338,7 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="2"/>
-        <v>163.29259803904901</v>
+        <v>162.82907473507788</v>
       </c>
       <c r="P5" s="1">
         <v>43909</v>
@@ -2239,8 +2353,15 @@
         <f t="shared" ref="S5" si="6">LN(2)/R5</f>
         <v>2.4372263732768822</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="14">
+        <f>S5*24</f>
+        <v>58.493432958645172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="13">
         <v>43896</v>
       </c>
@@ -2255,11 +2376,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
@@ -2275,10 +2396,13 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" si="2"/>
-        <v>217.01005124526046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>216.74055287557366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="13">
         <v>43897</v>
       </c>
@@ -2293,11 +2417,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -2313,19 +2437,22 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>288.39863476364616</v>
+        <v>288.50171467988656</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="13">
         <v>43898</v>
       </c>
@@ -2340,11 +2467,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -2360,10 +2487,13 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" si="2"/>
-        <v>383.27152155516347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>384.02245573774633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="13">
         <v>43899</v>
       </c>
@@ -2378,11 +2508,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
@@ -2398,10 +2528,13 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" si="2"/>
-        <v>509.35421159534252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>511.16939347997112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="13">
         <v>43900</v>
       </c>
@@ -2416,11 +2549,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -2436,10 +2569,13 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="2"/>
-        <v>676.91361940277125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>680.41372301707963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="13">
         <v>43901</v>
       </c>
@@ -2454,11 +2590,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -2474,10 +2610,13 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="2"/>
-        <v>899.59410897536134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>905.69357315815739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="13">
         <v>43902</v>
       </c>
@@ -2492,11 +2631,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H14" si="7">C12-C11</f>
@@ -2512,10 +2651,13 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
-        <v>1195.5285544663411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1205.5618820013128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="13">
         <v>43903</v>
       </c>
@@ -2530,11 +2672,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>940</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <f t="shared" si="7"/>
@@ -2550,10 +2692,13 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="2"/>
-        <v>1588.81490028024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1604.7143254717012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" s="13">
         <v>43904</v>
       </c>
@@ -2568,11 +2713,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <f t="shared" si="7"/>
@@ -2588,10 +2733,13 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="2"/>
-        <v>2111.4784568899886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2136.0231314706516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="13">
         <v>43905</v>
       </c>
@@ -2606,11 +2754,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15" si="8">C15-C14</f>
@@ -2626,10 +2774,10 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="2"/>
-        <v>2806.0797221401622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2843.2442745449575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2647,11 +2795,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>85</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16" si="9">C16-C15</f>
@@ -2667,7 +2815,7 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="2"/>
-        <v>3729.180082947189</v>
+        <v>3784.6210022860687</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2688,11 +2836,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17" si="10">C17-C16</f>
@@ -2708,7 +2856,7 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="2"/>
-        <v>4955.9476095153414</v>
+        <v>5037.6804621323517</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2729,11 +2877,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>2360</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>2120</v>
+        <v>106</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18" si="12">C18-C17</f>
@@ -2749,7 +2897,7 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="2"/>
-        <v>6586.2779919305522</v>
+        <v>6705.618455116256</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2770,11 +2918,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>2160</v>
+        <v>108</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="14">C19-C18</f>
@@ -2790,7 +2938,7 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="2"/>
-        <v>8752.929047050784</v>
+        <v>8925.7981334057713</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2800,13 +2948,38 @@
       <c r="B20" s="13">
         <v>43910</v>
       </c>
+      <c r="C20">
+        <v>19101</v>
+      </c>
+      <c r="D20">
+        <v>244</v>
+      </c>
+      <c r="E20">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="16">C20-C19</f>
+        <v>5421</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="17">D20-D19</f>
+        <v>44</v>
+      </c>
       <c r="J20">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="2"/>
-        <v>11632.331188657972</v>
+        <v>11881.062552481404</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2822,7 +2995,7 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" si="2"/>
-        <v>15458.954157547612</v>
+        <v>15814.792723988543</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2838,7 +3011,7 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" si="2"/>
-        <v>20544.399894509017</v>
+        <v>21050.951276279979</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2854,7 +3027,7 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="2"/>
-        <v>27302.776289004716</v>
+        <v>28020.762419739895</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2870,7 +3043,7 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>36284.417988119239</v>
+        <v>37298.225447332705</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2886,7 +3059,7 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="2"/>
-        <v>48220.700151535602</v>
+        <v>49647.386487243617</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2902,7 +3075,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="2"/>
-        <v>64083.594336986898</v>
+        <v>66085.261576164528</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2918,7 +3091,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="2"/>
-        <v>85164.816152440704</v>
+        <v>87965.593087406742</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2934,7 +3107,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="2"/>
-        <v>113181.0096690037</v>
+        <v>117090.33728044033</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2950,7 +3123,7 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="2"/>
-        <v>150413.53376218138</v>
+        <v>155858.06453694019</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2966,7 +3139,7 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="2"/>
-        <v>199894.23318444626</v>
+        <v>207461.49379534597</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2982,7 +3155,7 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="2"/>
-        <v>265652.32170912775</v>
+        <v>276150.42914635502</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2998,7 +3171,7 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="2"/>
-        <v>353042.4810421248</v>
+        <v>367581.75275139557</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3014,7 +3187,7 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="2"/>
-        <v>469180.89259859989</v>
+        <v>489285.29777579667</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3030,7 +3203,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="2"/>
-        <v>623524.70821593003</v>
+        <v>651283.96833523351</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3045,8 +3218,8 @@
         <v>32</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" ref="K35:K66" si="16">M$4*EXP(N$4*J35)</f>
-        <v>828642.14610797842</v>
+        <f t="shared" ref="K35:K66" si="18">M$4*EXP(N$4*J35)</f>
+        <v>866919.17647780152</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3061,8 +3234,8 @@
         <v>33</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="16"/>
-        <v>1101235.9209807711</v>
+        <f t="shared" si="18"/>
+        <v>1153949.575123131</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,8 +3250,8 @@
         <v>34</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="16"/>
-        <v>1463503.346232573</v>
+        <f t="shared" si="18"/>
+        <v>1536013.5731879866</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3093,8 +3266,8 @@
         <v>35</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="16"/>
-        <v>1944943.8613720422</v>
+        <f t="shared" si="18"/>
+        <v>2044576.0784356457</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3109,8 +3282,8 @@
         <v>36</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="16"/>
-        <v>2584761.1716274442</v>
+        <f t="shared" si="18"/>
+        <v>2721519.7921950049</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3125,8 +3298,8 @@
         <v>37</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="16"/>
-        <v>3435055.6059956653</v>
+        <f t="shared" si="18"/>
+        <v>3622594.4622105542</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3141,8 +3314,8 @@
         <v>38</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="16"/>
-        <v>4565066.6474739844</v>
+        <f t="shared" si="18"/>
+        <v>4822008.1570871994</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3157,8 +3330,8 @@
         <v>39</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="16"/>
-        <v>6066811.1047474165</v>
+        <f t="shared" si="18"/>
+        <v>6418538.6770637864</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3173,8 +3346,8 @@
         <v>40</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="16"/>
-        <v>8062576.0416997969</v>
+        <f t="shared" si="18"/>
+        <v>8543668.4067846294</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3189,8 +3362,8 @@
         <v>41</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="16"/>
-        <v>10714876.614062302</v>
+        <f t="shared" si="18"/>
+        <v>11372412.556448383</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3205,8 +3378,8 @@
         <v>42</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="16"/>
-        <v>14239689.679922031</v>
+        <f t="shared" si="18"/>
+        <v>15137732.551904865</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3221,8 +3394,8 @@
         <v>43</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="16"/>
-        <v>18924040.79710656</v>
+        <f t="shared" si="18"/>
+        <v>20149721.589467578</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3237,8 +3410,8 @@
         <v>44</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="16"/>
-        <v>25149376.716790572</v>
+        <f t="shared" si="18"/>
+        <v>26821142.383174539</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3253,8 +3426,8 @@
         <v>45</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="16"/>
-        <v>33422626.59567681</v>
+        <f t="shared" si="18"/>
+        <v>35701420.267491087</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3269,8 +3442,8 @@
         <v>46</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="16"/>
-        <v>44417481.241523087</v>
+        <f t="shared" si="18"/>
+        <v>47521891.159848623</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3285,8 +3458,8 @@
         <v>47</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="16"/>
-        <v>59029251.761327744</v>
+        <f t="shared" si="18"/>
+        <v>63256030.782195054</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3301,8 +3474,8 @@
         <v>48</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="16"/>
-        <v>78447774.752360836</v>
+        <f t="shared" si="18"/>
+        <v>84199625.32338652</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3317,8 +3490,8 @@
         <v>49</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="16"/>
-        <v>104254300.7063642</v>
+        <f t="shared" si="18"/>
+        <v>112077486.00302975</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3333,8 +3506,8 @@
         <v>50</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="16"/>
-        <v>138550255.250496</v>
+        <f t="shared" si="18"/>
+        <v>149185496.02227718</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3349,8 +3522,8 @@
         <v>51</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="16"/>
-        <v>184128358.25396094</v>
+        <f t="shared" si="18"/>
+        <v>198579688.18832383</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3365,8 +3538,8 @@
         <v>52</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="16"/>
-        <v>244700035.03062913</v>
+        <f t="shared" si="18"/>
+        <v>264327924.71383038</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3381,8 +3554,8 @@
         <v>53</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="16"/>
-        <v>325197637.7338016</v>
+        <f t="shared" si="18"/>
+        <v>351844906.2990759</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,8 +3570,8 @@
         <v>54</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="16"/>
-        <v>432176086.83385563</v>
+        <f t="shared" si="18"/>
+        <v>468338100.19364923</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3413,8 +3586,8 @@
         <v>55</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="16"/>
-        <v>574346638.34770679</v>
+        <f t="shared" si="18"/>
+        <v>623401311.67495811</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3429,8 +3602,8 @@
         <v>56</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="16"/>
-        <v>763286241.49009693</v>
+        <f t="shared" si="18"/>
+        <v>829804782.56491876</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3445,8 +3618,8 @@
         <v>57</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="16"/>
-        <v>1014380249.7462722</v>
+        <f t="shared" si="18"/>
+        <v>1104546885.4044335</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3461,8 +3634,8 @@
         <v>58</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="16"/>
-        <v>1348075250.3366868</v>
+        <f t="shared" si="18"/>
+        <v>1470254025.6342556</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3477,8 +3650,8 @@
         <v>59</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="16"/>
-        <v>1791544029.9876494</v>
+        <f t="shared" si="18"/>
+        <v>1957044040.8260698</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3493,8 +3666,8 @@
         <v>60</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="16"/>
-        <v>2380898255.1847768</v>
+        <f t="shared" si="18"/>
+        <v>2605006557.3400431</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3509,8 +3682,8 @@
         <v>61</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="16"/>
-        <v>3164129045.480938</v>
+        <f t="shared" si="18"/>
+        <v>3467504574.3580704</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3525,8 +3698,8 @@
         <v>62</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="16"/>
-        <v>4205014890.7682571</v>
+        <f t="shared" si="18"/>
+        <v>4615569177.4808426</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3541,8 +3714,8 @@
         <v>63</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="16"/>
-        <v>5588315134.2504997</v>
+        <f t="shared" si="18"/>
+        <v>6143749308.8397617</v>
       </c>
     </row>
   </sheetData>
@@ -3565,4 +3738,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>forecast</t>
-  </si>
-  <si>
-    <t>fake date</t>
   </si>
   <si>
     <t>Monday</t>
@@ -109,6 +106,12 @@
   <si>
     <t>doubling factor</t>
   </si>
+  <si>
+    <t>Days since 3/3/2020</t>
+  </si>
+  <si>
+    <t>Date (m/d)</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +119,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -226,7 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -266,14 +269,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9258259502768403E-2"/>
-          <c:y val="6.4798396263459193E-2"/>
+          <c:x val="8.4767569060979736E-2"/>
+          <c:y val="6.151755636844608E-2"/>
           <c:w val="0.89019685039370078"/>
           <c:h val="0.7293237824438612"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -352,7 +355,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="1"/>
+            <c:forward val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -396,7 +399,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
@@ -470,8 +473,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Summary!$C$3:$C$24</c:f>
               <c:numCache>
@@ -531,9 +534,15 @@
                 <c:pt idx="17">
                   <c:v>19101</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>25493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33276</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -545,7 +554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Deathsx1</c:v>
+                  <c:v>Total Deaths x 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,7 +569,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -574,7 +583,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
@@ -648,70 +657,76 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Summary!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>108</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>118</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>244</c:v>
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -723,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Recovx1</c:v>
+                  <c:v>Total Recovered x 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -738,7 +753,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -752,7 +767,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Summary!$J$3:$J$24</c:f>
               <c:numCache>
@@ -826,70 +841,76 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Summary!$G$3:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>147</c:v>
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -900,13 +921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="396241424"/>
-        <c:axId val="396236720"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="396241424"/>
+        <c:axId val="372933656"/>
+        <c:axId val="372932480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="372933656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,15 +1043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396236720"/>
+        <c:crossAx val="372932480"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="396236720"/>
+        <c:axId val="372932480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,9 +1099,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396241424"/>
+        <c:crossAx val="372933656"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1116,7 +1132,7 @@
           <c:x val="0.10638844397650862"/>
           <c:y val="9.0100154448203004E-2"/>
           <c:w val="0.25468315393719454"/>
-          <c:h val="0.1523025100201825"/>
+          <c:h val="0.16609368218736437"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2120,19 +2136,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.21875" customWidth="1"/>
     <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -2148,7 +2167,7 @@
     </row>
     <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -2160,12 +2179,12 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>"Total Deathsx"&amp;N7</f>
-        <v>Total Deathsx1</v>
+        <f>"Total Deaths x "&amp;N7</f>
+        <v>Total Deaths x 50</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>"Total Recovx"&amp;O7</f>
-        <v>Total Recovx1</v>
+        <f>"Total Recovered x "&amp;O7</f>
+        <v>Total Recovered x 50</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>5</v>
@@ -2174,19 +2193,19 @@
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13">
         <v>43893</v>
@@ -2201,42 +2220,42 @@
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F20" si="0">D3*$N$7</f>
-        <v>7</v>
+        <f t="shared" ref="F3:F22" si="0">D3*$N$7</f>
+        <v>350</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G20" si="1">E3*$N$7</f>
-        <v>8</v>
+        <f t="shared" ref="G3:G22" si="1">E3*$N$7</f>
+        <v>400</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K34" si="2">M$4*EXP(N$4*J3)</f>
-        <v>91.9</v>
+        <v>117.55</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13">
         <v>43894</v>
@@ -2252,11 +2271,11 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H11" si="3">C4-C3</f>
@@ -2272,15 +2291,15 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" si="2"/>
-        <v>122.32739663768561</v>
+        <v>157.47453694199237</v>
       </c>
       <c r="M4">
-        <f>Q4</f>
-        <v>91.9</v>
+        <f>Q6</f>
+        <v>117.55</v>
       </c>
       <c r="N4">
-        <f>R4</f>
-        <v>0.28599999999999998</v>
+        <f>R6</f>
+        <v>0.29239999999999999</v>
       </c>
       <c r="P4" s="1">
         <v>43541</v>
@@ -2302,7 +2321,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13">
         <v>43895</v>
@@ -2318,11 +2337,11 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
@@ -2338,7 +2357,7 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="2"/>
-        <v>162.82907473507788</v>
+        <v>210.95899434364034</v>
       </c>
       <c r="P5" s="1">
         <v>43909</v>
@@ -2350,7 +2369,7 @@
         <v>0.28439999999999999</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="6">LN(2)/R5</f>
+        <f t="shared" ref="S5:S6" si="6">LN(2)/R5</f>
         <v>2.4372263732768822</v>
       </c>
       <c r="T5" s="14">
@@ -2360,7 +2379,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="13">
         <v>43896</v>
@@ -2376,11 +2395,11 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
@@ -2396,12 +2415,29 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" si="2"/>
-        <v>216.74055287557366</v>
+        <v>282.60884685676865</v>
+      </c>
+      <c r="P6" s="1">
+        <v>43912</v>
+      </c>
+      <c r="Q6">
+        <v>117.55</v>
+      </c>
+      <c r="R6">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="S6" s="12">
+        <f t="shared" si="6"/>
+        <v>2.3705443931598675</v>
+      </c>
+      <c r="T6" s="14">
+        <f>S6*24</f>
+        <v>56.893065435836817</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13">
         <v>43897</v>
@@ -2417,11 +2453,11 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -2437,21 +2473,21 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>288.50171467988656</v>
+        <v>378.59376686074074</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13">
         <v>43898</v>
@@ -2467,11 +2503,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1050</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -2487,12 +2523,12 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" si="2"/>
-        <v>384.02245573774633</v>
+        <v>507.17888664840297</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13">
         <v>43899</v>
@@ -2508,11 +2544,11 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>1100</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
@@ -2528,12 +2564,12 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" si="2"/>
-        <v>511.16939347997112</v>
+        <v>679.43649784527861</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="13">
         <v>43900</v>
@@ -2549,11 +2585,11 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -2569,12 +2605,12 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="2"/>
-        <v>680.41372301707963</v>
+        <v>910.19947154125293</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="13">
         <v>43901</v>
@@ -2590,11 +2626,11 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>1800</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -2610,12 +2646,12 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="2"/>
-        <v>905.69357315815739</v>
+        <v>1219.3384968592509</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="13">
         <v>43902</v>
@@ -2631,11 +2667,11 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H14" si="7">C12-C11</f>
@@ -2651,12 +2687,12 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
-        <v>1205.5618820013128</v>
+        <v>1633.4731192552574</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="13">
         <v>43903</v>
@@ -2672,11 +2708,11 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>2350</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H13">
         <f t="shared" si="7"/>
@@ -2692,12 +2728,12 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="2"/>
-        <v>1604.7143254717012</v>
+        <v>2188.2639137551137</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="13">
         <v>43904</v>
@@ -2713,11 +2749,11 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H14">
         <f t="shared" si="7"/>
@@ -2733,12 +2769,12 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="2"/>
-        <v>2136.0231314706516</v>
+        <v>2931.4831690808892</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="13">
         <v>43905</v>
@@ -2754,11 +2790,11 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>3150</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15" si="8">C15-C14</f>
@@ -2774,12 +2810,12 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="2"/>
-        <v>2843.2442745449575</v>
+        <v>3927.1284951446814</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="13">
         <v>43906</v>
@@ -2795,11 +2831,11 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>4250</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16" si="9">C16-C15</f>
@@ -2815,12 +2851,12 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="2"/>
-        <v>3784.6210022860687</v>
+        <v>5260.9335711153717</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="13">
         <v>43907</v>
@@ -2836,11 +2872,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>5400</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17" si="10">C17-C16</f>
@@ -2856,12 +2892,12 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="2"/>
-        <v>5037.6804621323517</v>
+        <v>7047.7505571584525</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="13">
         <v>43908</v>
@@ -2877,11 +2913,11 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>5900</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>5300</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18" si="12">C18-C17</f>
@@ -2897,12 +2933,12 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="2"/>
-        <v>6705.618455116256</v>
+        <v>9441.4398593891601</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="13">
         <v>43909</v>
@@ -2918,11 +2954,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>5400</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="14">C19-C18</f>
@@ -2938,12 +2974,12 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="2"/>
-        <v>8925.7981334057713</v>
+        <v>12648.118842390279</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="13">
         <v>43910</v>
@@ -2959,18 +2995,18 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>12200</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>7350</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="16">C20-C19</f>
+        <f t="shared" ref="H20:H21" si="16">C20-C19</f>
         <v>5421</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="17">D20-D19</f>
+        <f t="shared" ref="I20:I21" si="17">D20-D19</f>
         <v>44</v>
       </c>
       <c r="J20">
@@ -2979,44 +3015,94 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" si="2"/>
-        <v>11881.062552481404</v>
+        <v>16943.910318100363</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="13">
         <v>43911</v>
       </c>
+      <c r="C21">
+        <v>25493</v>
+      </c>
+      <c r="D21">
+        <v>307</v>
+      </c>
+      <c r="E21">
+        <v>171</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>15350</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>8550</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="16"/>
+        <v>6392</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
       <c r="J21">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="2"/>
-        <v>15814.792723988543</v>
+        <v>22698.719109566147</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="13">
         <v>43912</v>
       </c>
+      <c r="C22">
+        <v>33276</v>
+      </c>
+      <c r="D22">
+        <v>417</v>
+      </c>
+      <c r="E22">
+        <v>178</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>20850</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>8900</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="18">C22-C21</f>
+        <v>7783</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="19">D22-D21</f>
+        <v>110</v>
+      </c>
       <c r="J22">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="2"/>
-        <v>21050.951276279979</v>
+        <v>30408.084057467331</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="13">
         <v>43913</v>
@@ -3027,12 +3113,12 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="2"/>
-        <v>28020.762419739895</v>
+        <v>40735.848202831541</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="13">
         <v>43914</v>
@@ -3043,12 +3129,12 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>37298.225447332705</v>
+        <v>54571.321417951411</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="13">
         <v>43915</v>
@@ -3059,12 +3145,12 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="2"/>
-        <v>49647.386487243617</v>
+        <v>73105.857682726797</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="13">
         <v>43916</v>
@@ -3075,12 +3161,12 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="2"/>
-        <v>66085.261576164528</v>
+        <v>97935.440972646495</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="13">
         <v>43917</v>
@@ -3091,12 +3177,12 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="2"/>
-        <v>87965.593087406742</v>
+        <v>131198.11329117254</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="13">
         <v>43918</v>
@@ -3107,12 +3193,12 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="2"/>
-        <v>117090.33728044033</v>
+        <v>175758.07858945508</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="13">
         <v>43919</v>
@@ -3123,12 +3209,12 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="2"/>
-        <v>155858.06453694019</v>
+        <v>235452.33551415344</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="13">
         <v>43920</v>
@@ -3139,12 +3225,12 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="2"/>
-        <v>207461.49379534597</v>
+        <v>315421.0761973795</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="13">
         <v>43921</v>
@@ -3155,12 +3241,12 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="2"/>
-        <v>276150.42914635502</v>
+        <v>422550.30128394108</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="13">
         <v>43922</v>
@@ -3171,12 +3257,12 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="2"/>
-        <v>367581.75275139557</v>
+        <v>566064.76418024604</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="13">
         <v>43923</v>
@@ -3187,12 +3273,12 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="2"/>
-        <v>489285.29777579667</v>
+        <v>758322.30215620936</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="13">
         <v>43924</v>
@@ -3203,12 +3289,12 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="2"/>
-        <v>651283.96833523351</v>
+        <v>1015877.9530823868</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="13">
         <v>43925</v>
@@ -3218,13 +3304,13 @@
         <v>32</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" ref="K35:K66" si="18">M$4*EXP(N$4*J35)</f>
-        <v>866919.17647780152</v>
+        <f t="shared" ref="K35:K66" si="20">M$4*EXP(N$4*J35)</f>
+        <v>1360909.4874625946</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="13">
         <v>43926</v>
@@ -3234,13 +3320,13 @@
         <v>33</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="18"/>
-        <v>1153949.575123131</v>
+        <f t="shared" si="20"/>
+        <v>1823127.1064069455</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="13">
         <v>43927</v>
@@ -3250,13 +3336,13 @@
         <v>34</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="18"/>
-        <v>1536013.5731879866</v>
+        <f t="shared" si="20"/>
+        <v>2442331.7470678678</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="13">
         <v>43928</v>
@@ -3266,13 +3352,13 @@
         <v>35</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="18"/>
-        <v>2044576.0784356457</v>
+        <f t="shared" si="20"/>
+        <v>3271842.2877774565</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="13">
         <v>43929</v>
@@ -3282,13 +3368,13 @@
         <v>36</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="18"/>
-        <v>2721519.7921950049</v>
+        <f t="shared" si="20"/>
+        <v>4383086.7649084078</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="13">
         <v>43930</v>
@@ -3298,13 +3384,13 @@
         <v>37</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="18"/>
-        <v>3622594.4622105542</v>
+        <f t="shared" si="20"/>
+        <v>5871752.9449640783</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="13">
         <v>43931</v>
@@ -3314,13 +3400,13 @@
         <v>38</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="18"/>
-        <v>4822008.1570871994</v>
+        <f t="shared" si="20"/>
+        <v>7866027.8693832317</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="13">
         <v>43932</v>
@@ -3330,13 +3416,13 @@
         <v>39</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="18"/>
-        <v>6418538.6770637864</v>
+        <f t="shared" si="20"/>
+        <v>10537635.868174648</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="13">
         <v>43933</v>
@@ -3346,13 +3432,13 @@
         <v>40</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="18"/>
-        <v>8543668.4067846294</v>
+        <f t="shared" si="20"/>
+        <v>14116625.510881616</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="13">
         <v>43934</v>
@@ -3362,13 +3448,13 @@
         <v>41</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="18"/>
-        <v>11372412.556448383</v>
+        <f t="shared" si="20"/>
+        <v>18911178.779324546</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="13">
         <v>43935</v>
@@ -3378,13 +3464,13 @@
         <v>42</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="18"/>
-        <v>15137732.551904865</v>
+        <f t="shared" si="20"/>
+        <v>25334148.203329325</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="13">
         <v>43936</v>
@@ -3394,13 +3480,13 @@
         <v>43</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="18"/>
-        <v>20149721.589467578</v>
+        <f t="shared" si="20"/>
+        <v>33938607.036487415</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="13">
         <v>43937</v>
@@ -3410,13 +3496,13 @@
         <v>44</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="18"/>
-        <v>26821142.383174539</v>
+        <f t="shared" si="20"/>
+        <v>45465473.649741426</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="13">
         <v>43938</v>
@@ -3426,13 +3512,13 @@
         <v>45</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="18"/>
-        <v>35701420.267491087</v>
+        <f t="shared" si="20"/>
+        <v>60907311.015239298</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="13">
         <v>43939</v>
@@ -3442,13 +3528,13 @@
         <v>46</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="18"/>
-        <v>47521891.159848623</v>
+        <f t="shared" si="20"/>
+        <v>81593794.968155891</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="13">
         <v>43940</v>
@@ -3458,13 +3544,13 @@
         <v>47</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="18"/>
-        <v>63256030.782195054</v>
+        <f t="shared" si="20"/>
+        <v>109306210.80348961</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="13">
         <v>43941</v>
@@ -3474,13 +3560,13 @@
         <v>48</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="18"/>
-        <v>84199625.32338652</v>
+        <f t="shared" si="20"/>
+        <v>146430837.35570687</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="13">
         <v>43942</v>
@@ -3490,13 +3576,13 @@
         <v>49</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="18"/>
-        <v>112077486.00302975</v>
+        <f t="shared" si="20"/>
+        <v>196164426.25791708</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="13">
         <v>43943</v>
@@ -3506,13 +3592,13 @@
         <v>50</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="18"/>
-        <v>149185496.02227718</v>
+        <f t="shared" si="20"/>
+        <v>262789469.92307162</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="13">
         <v>43944</v>
@@ -3522,13 +3608,13 @@
         <v>51</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="18"/>
-        <v>198579688.18832383</v>
+        <f t="shared" si="20"/>
+        <v>352042961.20261478</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="13">
         <v>43945</v>
@@ -3538,13 +3624,13 @@
         <v>52</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="18"/>
-        <v>264327924.71383038</v>
+        <f t="shared" si="20"/>
+        <v>471610398.12054008</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="13">
         <v>43946</v>
@@ -3554,13 +3640,13 @@
         <v>53</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="18"/>
-        <v>351844906.2990759</v>
+        <f t="shared" si="20"/>
+        <v>631787571.76572323</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="13">
         <v>43947</v>
@@ -3570,13 +3656,13 @@
         <v>54</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="18"/>
-        <v>468338100.19364923</v>
+        <f t="shared" si="20"/>
+        <v>846367123.00734258</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="13">
         <v>43948</v>
@@ -3586,13 +3672,13 @@
         <v>55</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="18"/>
-        <v>623401311.67495811</v>
+        <f t="shared" si="20"/>
+        <v>1133826208.2391124</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="13">
         <v>43949</v>
@@ -3602,13 +3688,13 @@
         <v>56</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="18"/>
-        <v>829804782.56491876</v>
+        <f t="shared" si="20"/>
+        <v>1518917542.4512918</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="13">
         <v>43950</v>
@@ -3618,13 +3704,13 @@
         <v>57</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="18"/>
-        <v>1104546885.4044335</v>
+        <f t="shared" si="20"/>
+        <v>2034800822.2082989</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="13">
         <v>43951</v>
@@ -3634,13 +3720,13 @@
         <v>58</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="18"/>
-        <v>1470254025.6342556</v>
+        <f t="shared" si="20"/>
+        <v>2725898062.4962783</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="13">
         <v>43952</v>
@@ -3650,13 +3736,13 @@
         <v>59</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="18"/>
-        <v>1957044040.8260698</v>
+        <f t="shared" si="20"/>
+        <v>3651718716.6539841</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="13">
         <v>43953</v>
@@ -3666,13 +3752,13 @@
         <v>60</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="18"/>
-        <v>2605006557.3400431</v>
+        <f t="shared" si="20"/>
+        <v>4891983955.3168287</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="13">
         <v>43954</v>
@@ -3682,13 +3768,13 @@
         <v>61</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="18"/>
-        <v>3467504574.3580704</v>
+        <f t="shared" si="20"/>
+        <v>6553491349.1380224</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="13">
         <v>43955</v>
@@ -3698,13 +3784,13 @@
         <v>62</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="18"/>
-        <v>4615569177.4808426</v>
+        <f t="shared" si="20"/>
+        <v>8779311063.8780098</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="13">
         <v>43956</v>
@@ -3714,8 +3800,8 @@
         <v>63</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="18"/>
-        <v>6143749308.8397617</v>
+        <f t="shared" si="20"/>
+        <v>11761105439.846031</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3816,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3745,7 +3831,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
     <sheet name="Screenshots" sheetId="3" r:id="rId3"/>
+    <sheet name="Death Projection" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -52,9 +53,6 @@
     <t>Scale factor -&gt;</t>
   </si>
   <si>
-    <t>forecast</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -74,9 +72,6 @@
   </si>
   <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <t>History of exponential components</t>
   </si>
   <si>
     <t>growth constant</t>
@@ -112,16 +107,113 @@
   <si>
     <t>Date (m/d)</t>
   </si>
+  <si>
+    <t>probable number of cases today</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>current deaths</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Time to double</t>
+  </si>
+  <si>
+    <t>1 = always fatal, .5 = even odds, 0.01 = 1% mortality</t>
+  </si>
+  <si>
+    <t>Mortality Rate</t>
+  </si>
+  <si>
+    <t>Time from infection to death</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>better forecast</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>History of exponential components from MS Trendline</t>
+  </si>
+  <si>
+    <t>doubling time (hrs)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Generally</t>
+  </si>
+  <si>
+    <t>f/c error</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>todo resolve step</t>
+  </si>
+  <si>
+    <t>day of doubling</t>
+  </si>
+  <si>
+    <t>Day of Week</t>
+  </si>
+  <si>
+    <t>poor forecast, for exponential</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +252,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -180,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -203,14 +309,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,18 +417,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,6 +482,78 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US Covid-19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cases since March 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27461460631788026"/>
+          <c:y val="6.8897637795275593E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -269,10 +561,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4767569060979736E-2"/>
-          <c:y val="6.151755636844608E-2"/>
+          <c:x val="8.6843137447171537E-2"/>
+          <c:y val="1.5824385588165117E-2"/>
           <c:w val="0.89019685039370078"/>
-          <c:h val="0.7293237824438612"/>
+          <c:h val="0.78509801186269035"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -326,46 +618,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="2"/>
+            <c:trendlineType val="linear"/>
+            <c:forward val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.4301363111972316E-2"/>
-                  <c:y val="4.7908553398334233E-2"/>
+                  <c:x val="-5.3854149302321019E-2"/>
+                  <c:y val="7.0124274238447484E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
@@ -401,144 +665,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$24</c:f>
+              <c:f>Summary!$J$25:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$24</c:f>
+              <c:f>Summary!$C$25:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>65778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153</c:v>
+                  <c:v>83836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221</c:v>
+                  <c:v>101657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278</c:v>
+                  <c:v>121478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417</c:v>
+                  <c:v>140886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1663</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2726</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4632</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7786</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13680</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25493</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33276</c:v>
+                  <c:v>161807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,7 +728,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Deaths x 50</c:v>
+                  <c:v>Total Deaths x 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -585,10 +759,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$24</c:f>
+              <c:f>Summary!$J$3:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -654,75 +828,117 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$F$3:$F$24</c:f>
+              <c:f>Summary!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10000</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>12200</c:v>
+                  <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15350</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20850</c:v>
+                  <c:v>4170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7060</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12090</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15810</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24670</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +954,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Recovered x 50</c:v>
+                  <c:v>Total Recovered x 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -753,7 +969,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -769,10 +985,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$24</c:f>
+              <c:f>Summary!$J$3:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,75 +1054,302 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$G$3:$G$24</c:f>
+              <c:f>Summary!$G$3:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>600</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>850</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>850</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5300</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5400</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7350</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8550</c:v>
+                  <c:v>1710</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8900</c:v>
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3610</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6810</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8690</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10720</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26650</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>First Total Cases Reported</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$3:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$3:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2726</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33276</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53740</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,11 +1364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372933656"/>
-        <c:axId val="372932480"/>
+        <c:axId val="385912416"/>
+        <c:axId val="385912808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372933656"/>
+        <c:axId val="385912416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,13 +1388,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr algn="ctr">
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -972,11 +1429,17 @@
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> since March 3, 2020</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40239815913421773"/>
+              <c:y val="0.85456335003579098"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -989,7 +1452,7 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr algn="ctr">
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
@@ -1043,12 +1506,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372932480"/>
+        <c:crossAx val="385912808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372932480"/>
+        <c:axId val="385912808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,8 +1531,22 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1099,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372933656"/>
+        <c:crossAx val="385912416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1117,22 +1594,14 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10638844397650862"/>
-          <c:y val="9.0100154448203004E-2"/>
-          <c:w val="0.25468315393719454"/>
-          <c:h val="0.16609368218736437"/>
+          <c:x val="0.10549383381871788"/>
+          <c:y val="0.1907722898274079"/>
+          <c:w val="0.285295790392328"/>
+          <c:h val="0.17045573848723458"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1202,10 +1671,671 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>New Cases per Cases</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4632</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13680</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33276</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53740</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121478</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>140886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>161807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$H$4:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7783</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19821</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385913592"/>
+        <c:axId val="371057064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385913592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371057064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="371057064"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385913592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1748,20 +2878,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25011</xdr:rowOff>
+      <xdr:rowOff>17391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>300945</xdr:rowOff>
+      <xdr:rowOff>293325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1778,8 +3424,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8816340" y="840351"/>
+          <a:off x="12847320" y="466971"/>
           <a:ext cx="1234440" cy="275934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>32017</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13533120" y="4922520"/>
+          <a:ext cx="2942857" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>176654</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13571220" y="7071360"/>
+          <a:ext cx="4085714" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,19 +3518,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2" descr="Richard Pellessier" title="Exponential fit to Covid-19 Cases"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1825,10 +3547,132 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11861</cdr:x>
+      <cdr:y>0.60037</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50685</cdr:x>
+      <cdr:y>0.72273</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="725770" y="3019361"/>
+          <a:ext cx="2375570" cy="615379"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data from JHU viaGitHub,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://github.com/CSSEGISandData/COVID-19,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>linear fit by Richard Pellessier</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2134,81 +3978,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" customWidth="1"/>
-    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:29" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f>" y = b*m^x or y=m*ln(x)+b"</f>
+        <v xml:space="preserve"> y = b*m^x or y=m*ln(x)+b</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="str">
-        <f>"Total Deaths x "&amp;N7</f>
-        <v>Total Deaths x 50</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>"Total Recovered x "&amp;O7</f>
-        <v>Total Recovered x 50</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="6" t="str">
+        <f>"Total Deaths x "&amp;W7</f>
+        <v>Total Deaths x 10</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>"Total Recovered x "&amp;X7</f>
+        <v>Total Recovered x 10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="P2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="18"/>
+    </row>
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>43893</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>122</v>
@@ -2219,46 +4120,52 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F22" si="0">D3*$N$7</f>
-        <v>350</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G22" si="1">E3*$N$7</f>
-        <v>400</v>
+      <c r="F3" s="1">
+        <f>D3*$W$7</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3*$W$7</f>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K34" si="2">M$4*EXP(N$4*J3)</f>
+      <c r="K3" s="4">
+        <f>W$4*EXP(X$4*J3)</f>
         <v>117.55</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="L3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="AC3" s="23"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>43894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>153</v>
@@ -2269,16 +4176,16 @@
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
+      <c r="F4" s="1">
+        <f>D4*$W$7</f>
+        <v>110</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*$W$7</f>
+        <v>80</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="3">C4-C3</f>
+        <f t="shared" ref="H4:H11" si="0">C4-C3</f>
         <v>31</v>
       </c>
       <c r="I4">
@@ -2289,42 +4196,47 @@
         <f>J3+1</f>
         <v>1</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
+      <c r="K4" s="4">
+        <f>W$4*EXP(X$4*J4)</f>
         <v>157.47453694199237</v>
       </c>
-      <c r="M4">
-        <f>Q6</f>
+      <c r="L4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="22">
+        <f>Z6</f>
         <v>117.55</v>
       </c>
-      <c r="N4">
-        <f>R6</f>
+      <c r="X4" s="22">
+        <f>AA6</f>
         <v>0.29239999999999999</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Y4" s="24">
         <v>43541</v>
       </c>
-      <c r="Q4">
+      <c r="Z4" s="22">
         <v>91.9</v>
       </c>
-      <c r="R4">
+      <c r="AA4" s="22">
         <v>0.28599999999999998</v>
       </c>
-      <c r="S4" s="12">
-        <f>LN(2)/R4</f>
+      <c r="AB4" s="25">
+        <f>LN(2)/AA4</f>
         <v>2.4235915404193893</v>
       </c>
-      <c r="T4" s="14">
-        <f>S4*24</f>
+      <c r="AC4" s="26">
+        <f>AB4*24</f>
         <v>58.166196970065343</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>43895</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>221</v>
@@ -2335,54 +4247,61 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
+        <f>D5*$W$7</f>
+        <v>120</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I16" si="4">D5-D4</f>
+        <f t="shared" ref="I5:I16" si="1">D5-D4</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J66" si="5">J4+1</f>
+        <f t="shared" ref="J5:J66" si="2">J4+1</f>
         <v>2</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="2"/>
+      <c r="K5" s="4">
+        <f>W$4*EXP(X$4*J5)</f>
         <v>210.95899434364034</v>
       </c>
-      <c r="P5" s="1">
+      <c r="L5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="24">
         <v>43909</v>
       </c>
-      <c r="Q5">
+      <c r="Z5" s="22">
         <v>92.456999999999994</v>
       </c>
-      <c r="R5">
+      <c r="AA5" s="22">
         <v>0.28439999999999999</v>
       </c>
-      <c r="S5" s="12">
-        <f t="shared" ref="S5:S6" si="6">LN(2)/R5</f>
+      <c r="AB5" s="25">
+        <f t="shared" ref="AB5:AB6" si="3">LN(2)/AA5</f>
         <v>2.4372263732768822</v>
       </c>
-      <c r="T5" s="14">
-        <f>S5*24</f>
+      <c r="AC5" s="26">
+        <f>AB5*24</f>
         <v>58.493432958645172</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>43896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
         <v>278</v>
@@ -2393,54 +4312,80 @@
       <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
+        <f>D6*$W$7</f>
+        <v>140</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="G6" s="2">
+        <v>57</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>W$4*EXP(X$4*J6)</f>
+        <v>282.60884685676865</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="array" ref="M6:N6">LOGEST(C3:C6,J3:J6,1,1)</f>
+        <v>1.3282369996186119</v>
+      </c>
+      <c r="N6">
+        <v>120.21501694494958</v>
+      </c>
+      <c r="P6" s="4">
+        <f>N6*EXP((J6*LN(M6)))</f>
+        <v>281.69908968814934</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>P6-C6</f>
+        <v>3.6990896881493427</v>
+      </c>
+      <c r="R6" s="9">
+        <f>24*LN(2)/(M6-1)</f>
+        <v>50.681465991853436</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="24">
+        <v>43912</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>117.55</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="AB6" s="25">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>282.60884685676865</v>
-      </c>
-      <c r="P6" s="1">
-        <v>43912</v>
-      </c>
-      <c r="Q6">
-        <v>117.55</v>
-      </c>
-      <c r="R6">
-        <v>0.29239999999999999</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" si="6"/>
         <v>2.3705443931598675</v>
       </c>
-      <c r="T6" s="14">
-        <f>S6*24</f>
+      <c r="AC6" s="26">
+        <f>AB6*24</f>
         <v>56.893065435836817</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>43897</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>417</v>
@@ -2451,46 +4396,86 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
+        <f>D7*$W$7</f>
+        <v>170</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="G7" s="2">
+        <v>139</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="2"/>
+      <c r="K7" s="4">
+        <f>W$4*EXP(X$4*J7)</f>
         <v>378.59376686074074</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="array" ref="M7:N7">LOGEST(C4:C7,J4:J7,1,1)</f>
+        <v>1.3822883235552865</v>
+      </c>
+      <c r="N7">
+        <v>111.38316135347172</v>
+      </c>
+      <c r="P7" s="4">
+        <f>N7*EXP((J7*LN(M7)))</f>
+        <v>406.6437465827234</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>P7-C7</f>
+        <v>-10.356253417276605</v>
+      </c>
+      <c r="R7" s="9">
+        <f>24*LN(2)/(M7-1)</f>
+        <v>43.515669478805975</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="V7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="2">
-        <v>50</v>
-      </c>
-      <c r="O7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="W7" s="28">
+        <v>10</v>
+      </c>
+      <c r="X7" s="28">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>43914</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>116.95</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="AB7" s="25">
+        <f>LN(2)/AA7</f>
+        <v>2.3640763320598404</v>
+      </c>
+      <c r="AC7" s="26">
+        <f>AB7*24</f>
+        <v>56.737831969436172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>43898</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8">
         <v>537</v>
@@ -2501,37 +4486,80 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
+        <f>D8*$W$7</f>
+        <v>210</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="G8" s="2">
+        <v>120</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
+      <c r="K8" s="4">
+        <f>W$4*EXP(X$4*J8)</f>
         <v>507.17888664840297</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="L8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="array" ref="M8:N8">LOGEST(C5:C8,J5:J8,1,1)</f>
+        <v>1.3592011381028988</v>
+      </c>
+      <c r="N8">
+        <v>116.98866881825454</v>
+      </c>
+      <c r="P8" s="4">
+        <f>N8*EXP((J8*LN(M8)))</f>
+        <v>542.70328056188441</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>P8-C8</f>
+        <v>5.7032805618844122</v>
+      </c>
+      <c r="R8" s="9">
+        <f>24*LN(2)/(M8-1)</f>
+        <v>46.312582474817155</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31">
+        <v>43916</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>119.42</v>
+      </c>
+      <c r="AA8" s="30">
+        <v>0.2903</v>
+      </c>
+      <c r="AB8" s="32">
+        <f>LN(2)/AA8</f>
+        <v>2.3876926646915098</v>
+      </c>
+      <c r="AC8" s="33">
+        <f>AB8*24</f>
+        <v>57.304623952596231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>43899</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>605</v>
@@ -2542,37 +4570,61 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
+        <f>D9*$W$7</f>
+        <v>220</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="G9" s="2">
+        <v>68</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="2"/>
+      <c r="K9" s="4">
+        <f>W$4*EXP(X$4*J9)</f>
         <v>679.43649784527861</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="L9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="array" ref="M9:N9">LOGEST(C6:C9,J6:J9,1,1)</f>
+        <v>1.2950811931161206</v>
+      </c>
+      <c r="N9">
+        <v>137.60719514477469</v>
+      </c>
+      <c r="P9" s="4">
+        <f>N9*EXP((J9*LN(M9)))</f>
+        <v>649.26669069466197</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>P9-C9</f>
+        <v>44.266690694661975</v>
+      </c>
+      <c r="R9" s="9">
+        <f>24*LN(2)/(M9-1)</f>
+        <v>56.376118578632216</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>43900</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>959</v>
@@ -2583,37 +4635,61 @@
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
+        <f>D10*$W$7</f>
+        <v>280</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E10*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="G10" s="2">
+        <v>354</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>354</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
+      <c r="K10" s="4">
+        <f>W$4*EXP(X$4*J10)</f>
         <v>910.19947154125293</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="L10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="array" ref="M10:N10">LOGEST(C7:C10,J7:J10,1,1)</f>
+        <v>1.2992205299287292</v>
+      </c>
+      <c r="N10">
+        <v>142.28701567230362</v>
+      </c>
+      <c r="P10" s="4">
+        <f>N10*EXP((J10*LN(M10)))</f>
+        <v>889.08931805648433</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>P10-C10</f>
+        <v>-69.910681943515669</v>
+      </c>
+      <c r="R10" s="9">
+        <f>24*LN(2)/(M10-1)</f>
+        <v>55.596226426713017</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>43901</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1281</v>
@@ -2624,37 +4700,61 @@
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
+        <f>D11*$W$7</f>
+        <v>360</v>
+      </c>
+      <c r="G11" s="1">
+        <f>E11*$W$7</f>
+        <v>80</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="G11" s="2">
+        <v>322</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>322</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="2"/>
+      <c r="K11" s="4">
+        <f>W$4*EXP(X$4*J11)</f>
         <v>1219.3384968592509</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="L11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="array" ref="M11:N11">LOGEST(C8:C11,J8:J11,1,1)</f>
+        <v>1.3591856367652786</v>
+      </c>
+      <c r="N11">
+        <v>108.13400845469288</v>
+      </c>
+      <c r="P11" s="4">
+        <f>N11*EXP((J11*LN(M11)))</f>
+        <v>1259.4835918317506</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>P11-C11</f>
+        <v>-21.516408168249427</v>
+      </c>
+      <c r="R11" s="9">
+        <f>24*LN(2)/(M11-1)</f>
+        <v>46.314581182180483</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>43902</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1663</v>
@@ -2665,37 +4765,61 @@
       <c r="E12">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="1">
+        <f>D12*$W$7</f>
+        <v>400</v>
+      </c>
+      <c r="G12" s="1">
+        <f>E12*$W$7</f>
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="4">C12-C11</f>
+        <v>382</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H14" si="7">C12-C11</f>
-        <v>382</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
+      <c r="K12" s="4">
+        <f>W$4*EXP(X$4*J12)</f>
         <v>1633.4731192552574</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="L12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="array" ref="M12:N12">LOGEST(C9:C12,J9:J12,1,1)</f>
+        <v>1.3941648038370946</v>
+      </c>
+      <c r="N12">
+        <v>87.226406388290542</v>
+      </c>
+      <c r="P12" s="4">
+        <f>N12*EXP((J12*LN(M12)))</f>
+        <v>1735.7013935057123</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>P12-C12</f>
+        <v>72.701393505712304</v>
+      </c>
+      <c r="R12" s="9">
+        <f>24*LN(2)/(M12-1)</f>
+        <v>42.204509817964436</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>43903</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
       <c r="C13">
         <v>2179</v>
@@ -2706,37 +4830,61 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>2350</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="1">
+        <f>D13*$W$7</f>
+        <v>470</v>
+      </c>
+      <c r="G13" s="1">
+        <f>E13*$W$7</f>
+        <v>120</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>516</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>516</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f>W$4*EXP(X$4*J13)</f>
         <v>2188.2639137551137</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="L13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="array" ref="M13:N13">LOGEST(C10:C13,J10:J13,1,1)</f>
+        <v>1.3130035456658515</v>
+      </c>
+      <c r="N13">
+        <v>143.50570404779202</v>
+      </c>
+      <c r="P13" s="4">
+        <f>N13*EXP((J13*LN(M13)))</f>
+        <v>2185.3859789878825</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>P13-C13</f>
+        <v>6.3859789878824813</v>
+      </c>
+      <c r="R13" s="9">
+        <f>24*LN(2)/(M13-1)</f>
+        <v>53.148063540462353</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>43904</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
       <c r="C14">
         <v>2726</v>
@@ -2747,37 +4895,61 @@
       <c r="E14">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="1">
+        <f>D14*$W$7</f>
+        <v>540</v>
+      </c>
+      <c r="G14" s="1">
+        <f>E14*$W$7</f>
+        <v>120</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>547</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
+      <c r="K14" s="4">
+        <f>W$4*EXP(X$4*J14)</f>
         <v>2931.4831690808892</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="L14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="array" ref="M14:N14">LOGEST(C11:C14,J11:J14,1,1)</f>
+        <v>1.2886337887729267</v>
+      </c>
+      <c r="N14">
+        <v>169.56090513046144</v>
+      </c>
+      <c r="P14" s="4">
+        <f>N14*EXP((J14*LN(M14)))</f>
+        <v>2758.9916564656523</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>P14-C14</f>
+        <v>32.991656465652341</v>
+      </c>
+      <c r="R14" s="9">
+        <f>24*LN(2)/(M14-1)</f>
+        <v>57.635429324340663</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>43905</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3499</v>
@@ -2788,37 +4960,61 @@
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1">
+        <f>D15*$W$7</f>
+        <v>630</v>
+      </c>
+      <c r="G15" s="1">
+        <f>E15*$W$7</f>
+        <v>120</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="5">C15-C14</f>
+        <v>773</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15" si="8">C15-C14</f>
-        <v>773</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
+      <c r="K15" s="4">
+        <f>W$4*EXP(X$4*J15)</f>
         <v>3927.1284951446814</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="L15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="array" ref="M15:N15">LOGEST(C12:C15,J12:J15,1,1)</f>
+        <v>1.2783282015160184</v>
+      </c>
+      <c r="N15">
+        <v>184.03902858887233</v>
+      </c>
+      <c r="P15" s="4">
+        <f>N15*EXP((J15*LN(M15)))</f>
+        <v>3504.4379403243852</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>P15-C15</f>
+        <v>5.4379403243851812</v>
+      </c>
+      <c r="R15" s="9">
+        <f>24*LN(2)/(M15-1)</f>
+        <v>59.769481650896495</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>43906</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16">
         <v>4632</v>
@@ -2829,37 +5025,61 @@
       <c r="E16">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>4250</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1">
+        <f>D16*$W$7</f>
+        <v>850</v>
+      </c>
+      <c r="G16" s="1">
+        <f>E16*$W$7</f>
+        <v>170</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="6">C16-C15</f>
+        <v>1133</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>850</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16" si="9">C16-C15</f>
-        <v>1133</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
+      <c r="K16" s="4">
+        <f>W$4*EXP(X$4*J16)</f>
         <v>5260.9335711153717</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="L16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="array" ref="M16:N16">LOGEST(C13:C16,J13:J16,1,1)</f>
+        <v>1.2855684490150912</v>
+      </c>
+      <c r="N16">
+        <v>174.29263409615066</v>
+      </c>
+      <c r="P16" s="4">
+        <f>N16*EXP((J16*LN(M16)))</f>
+        <v>4565.7980848539937</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>P16-C16</f>
+        <v>-66.201915146006286</v>
+      </c>
+      <c r="R16" s="9">
+        <f>24*LN(2)/(M16-1)</f>
+        <v>58.254097715674341</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>43907</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17">
         <v>6428</v>
@@ -2870,37 +5090,61 @@
       <c r="E17">
         <v>17</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>850</v>
+      <c r="F17" s="1">
+        <f>D17*$W$7</f>
+        <v>1080</v>
+      </c>
+      <c r="G17" s="1">
+        <f>E17*$W$7</f>
+        <v>170</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="10">C17-C16</f>
+        <f t="shared" ref="H17" si="7">C17-C16</f>
         <v>1796</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="11">D17-D16</f>
+        <f t="shared" ref="I17" si="8">D17-D16</f>
         <v>23</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
+      <c r="K17" s="4">
+        <f>W$4*EXP(X$4*J17)</f>
         <v>7047.7505571584525</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="L17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="array" ref="M17:N17">LOGEST(C14:C17,J14:J17,1,1)</f>
+        <v>1.3302934900080587</v>
+      </c>
+      <c r="N17">
+        <v>115.87379495698254</v>
+      </c>
+      <c r="P17" s="4">
+        <f>N17*EXP((J17*LN(M17)))</f>
+        <v>6298.6830023916846</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>P17-C17</f>
+        <v>-129.31699760831543</v>
+      </c>
+      <c r="R17" s="9">
+        <f>24*LN(2)/(M17-1)</f>
+        <v>50.365910430244327</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>43908</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
       <c r="C18">
         <v>7786</v>
@@ -2911,37 +5155,61 @@
       <c r="E18">
         <v>106</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>5300</v>
+      <c r="F18" s="1">
+        <f>D18*$W$7</f>
+        <v>1180</v>
+      </c>
+      <c r="G18" s="1">
+        <f>E18*$W$7</f>
+        <v>1060</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="12">C18-C17</f>
+        <f t="shared" ref="H18" si="9">C18-C17</f>
         <v>1358</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18" si="13">D18-D17</f>
+        <f t="shared" ref="I18" si="10">D18-D17</f>
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
+      <c r="K18" s="4">
+        <f>W$4*EXP(X$4*J18)</f>
         <v>9441.4398593891601</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="L18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="array" ref="M18:N18">LOGEST(C15:C18,J15:J18,1,1)</f>
+        <v>1.3135356637926463</v>
+      </c>
+      <c r="N18">
+        <v>134.37251979807269</v>
+      </c>
+      <c r="P18" s="4">
+        <f>N18*EXP((J18*LN(M18)))</f>
+        <v>8034.1233147702906</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>P18-C18</f>
+        <v>248.12331477029056</v>
+      </c>
+      <c r="R18" s="9">
+        <f>24*LN(2)/(M18-1)</f>
+        <v>53.057863122201084</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>43909</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
         <v>13680</v>
@@ -2952,37 +5220,61 @@
       <c r="E19">
         <v>108</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>5400</v>
+      <c r="F19" s="1">
+        <f>D19*$W$7</f>
+        <v>2000</v>
+      </c>
+      <c r="G19" s="1">
+        <f>E19*$W$7</f>
+        <v>1080</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="14">C19-C18</f>
+        <f t="shared" ref="H19" si="11">C19-C18</f>
         <v>5894</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19" si="15">D19-D18</f>
+        <f t="shared" ref="I19" si="12">D19-D18</f>
         <v>82</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="2"/>
+      <c r="K19" s="4">
+        <f>W$4*EXP(X$4*J19)</f>
         <v>12648.118842390279</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="L19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="array" ref="M19:N19">LOGEST(C16:C19,J16:J19,1,1)</f>
+        <v>1.4106494930620239</v>
+      </c>
+      <c r="N19">
+        <v>51.136856864929328</v>
+      </c>
+      <c r="P19" s="4">
+        <f>N19*EXP((J19*LN(M19)))</f>
+        <v>12573.028632949627</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>P19-C19</f>
+        <v>-1106.9713670503734</v>
+      </c>
+      <c r="R19" s="9">
+        <f>24*LN(2)/(M19-1)</f>
+        <v>40.510295554963896</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>43910</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
       </c>
       <c r="C20">
         <v>19101</v>
@@ -2993,37 +5285,61 @@
       <c r="E20">
         <v>147</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>12200</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>7350</v>
+      <c r="F20" s="1">
+        <f>D20*$W$7</f>
+        <v>2440</v>
+      </c>
+      <c r="G20" s="1">
+        <f>E20*$W$7</f>
+        <v>1470</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="16">C20-C19</f>
+        <f t="shared" ref="H20:H21" si="13">C20-C19</f>
         <v>5421</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="17">D20-D19</f>
+        <f t="shared" ref="I20:I21" si="14">D20-D19</f>
         <v>44</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="2"/>
+      <c r="K20" s="4">
+        <f>W$4*EXP(X$4*J20)</f>
         <v>16943.910318100363</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="L20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="array" ref="M20:N20">LOGEST(C17:C20,J17:J20,1,1)</f>
+        <v>1.4668011465010524</v>
+      </c>
+      <c r="N20">
+        <v>28.208428085271915</v>
+      </c>
+      <c r="P20" s="4">
+        <f>N20*EXP((J20*LN(M20)))</f>
+        <v>18997.216776967372</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>P20-C20</f>
+        <v>-103.78322303262757</v>
+      </c>
+      <c r="R20" s="9">
+        <f>24*LN(2)/(M20-1)</f>
+        <v>35.637299647037565</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>43911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21">
         <v>25493</v>
@@ -3034,37 +5350,61 @@
       <c r="E21">
         <v>171</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>15350</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>8550</v>
+      <c r="F21" s="1">
+        <f>D21*$W$7</f>
+        <v>3070</v>
+      </c>
+      <c r="G21" s="1">
+        <f>E21*$W$7</f>
+        <v>1710</v>
       </c>
       <c r="H21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>6392</v>
       </c>
       <c r="I21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K21" s="5">
-        <f t="shared" si="2"/>
+      <c r="K21" s="4">
+        <f>W$4*EXP(X$4*J21)</f>
         <v>22698.719109566147</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="L21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="array" ref="M21:N21">LOGEST(C18:C21,J18:J21,1,1)</f>
+        <v>1.4758049568589158</v>
+      </c>
+      <c r="N21">
+        <v>24.532480895857049</v>
+      </c>
+      <c r="P21" s="4">
+        <f>N21*EXP((J21*LN(M21)))</f>
+        <v>27055.952878764441</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>P21-C21</f>
+        <v>1562.9528787644413</v>
+      </c>
+      <c r="R21" s="9">
+        <f>24*LN(2)/(M21-1)</f>
+        <v>34.962923554349189</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>43912</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
       <c r="C22">
         <v>33276</v>
@@ -3075,738 +5415,1379 @@
       <c r="E22">
         <v>178</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>20850</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>8900</v>
+      <c r="F22" s="1">
+        <f>D22*$W$7</f>
+        <v>4170</v>
+      </c>
+      <c r="G22" s="1">
+        <f>E22*$W$7</f>
+        <v>1780</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="18">C22-C21</f>
+        <f t="shared" ref="H22" si="15">C22-C21</f>
         <v>7783</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="19">D22-D21</f>
+        <f t="shared" ref="I22" si="16">D22-D21</f>
         <v>110</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
+        <f>W$4*EXP(X$4*J22)</f>
+        <v>30408.084057467331</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="array" ref="M22:N22">LOGEST(C19:C22,J19:J22,1,1)</f>
+        <v>1.3438475058649393</v>
+      </c>
+      <c r="N22">
+        <v>123.11153539760852</v>
+      </c>
+      <c r="P22" s="4">
+        <f>N22*EXP((J22*LN(M22)))</f>
+        <v>33802.478895283573</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>P22-C22</f>
+        <v>526.47889528357337</v>
+      </c>
+      <c r="R22" s="9">
+        <f>24*LN(2)/(M22-1)</f>
+        <v>48.380552569641139</v>
+      </c>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>43913</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>43667</v>
+      </c>
+      <c r="D23">
+        <v>552</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23*$W$7</f>
+        <v>5520</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <f t="shared" ref="H23:H24" si="17">C23-C22</f>
+        <v>10391</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I24" si="18">D23-D22</f>
+        <v>135</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="2"/>
-        <v>30408.084057467331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4">
+        <f>W$4*EXP(X$4*J23)</f>
+        <v>40735.848202831541</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="array" ref="M23:N23">LOGEST(C20:C23,J20:J23,1,1)</f>
+        <v>1.3161342543607504</v>
+      </c>
+      <c r="N23">
+        <v>180.04738602122725</v>
+      </c>
+      <c r="P23" s="4">
+        <f>N23*EXP((J23*LN(M23)))</f>
+        <v>43791.585487099568</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>P23-C23</f>
+        <v>124.58548709956813</v>
+      </c>
+      <c r="R23" s="9">
+        <f>24*LN(2)/(M23-1)</f>
+        <v>52.621733026296404</v>
+      </c>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>43914</v>
+      </c>
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
-        <v>43913</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="C24">
+        <v>53740</v>
+      </c>
+      <c r="D24">
+        <v>706</v>
+      </c>
+      <c r="E24">
+        <v>348</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24*$W$7</f>
+        <v>7060</v>
+      </c>
+      <c r="G24" s="1">
+        <f>E24*$W$7</f>
+        <v>3480</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="17"/>
+        <v>10073</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="18"/>
+        <v>154</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="2"/>
-        <v>40735.848202831541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
+        <f>W$4*EXP(X$4*J24)</f>
+        <v>54571.321417951411</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="array" ref="M24:N24">LOGEST(C21:C24,J21:J24,1,1)</f>
+        <v>1.2851837891818108</v>
+      </c>
+      <c r="N24">
+        <v>281.79196897287</v>
+      </c>
+      <c r="P24" s="4">
+        <f>N24*EXP((J24*LN(M24)))</f>
+        <v>54726.620254249363</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>P24-C24</f>
+        <v>986.62025424936292</v>
+      </c>
+      <c r="R24" s="9">
+        <f>24*LN(2)/(M24-1)</f>
+        <v>58.332671647171288</v>
+      </c>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>43915</v>
+      </c>
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="13">
-        <v>43914</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="C25">
+        <v>65778</v>
+      </c>
+      <c r="D25">
+        <v>942</v>
+      </c>
+      <c r="E25">
+        <v>361</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25*$W$7</f>
+        <v>9420</v>
+      </c>
+      <c r="G25" s="1">
+        <f>E25*$W$7</f>
+        <v>3610</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="19">C25-C24</f>
+        <v>12038</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="20">D25-D24</f>
+        <v>236</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="2"/>
-        <v>54571.321417951411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="4">
+        <f>W$4*EXP(X$4*J25)</f>
+        <v>73105.857682726797</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="array" ref="M25:N25">LOGEST(C22:C25,J22:J25,1,1)</f>
+        <v>1.2525621823848867</v>
+      </c>
+      <c r="N25">
+        <v>470.73896362456867</v>
+      </c>
+      <c r="P25" s="4">
+        <f>N25*EXP((J25*LN(M25)))</f>
+        <v>66736.686883114759</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>P25-C25</f>
+        <v>958.68688311475853</v>
+      </c>
+      <c r="R25" s="9">
+        <f>24*LN(2)/(M25-1)</f>
+        <v>65.867075491481643</v>
+      </c>
+      <c r="W25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>43916</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13">
-        <v>43915</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="C26">
+        <v>83836</v>
+      </c>
+      <c r="D26">
+        <v>1209</v>
+      </c>
+      <c r="E26">
+        <v>681</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26*$W$7</f>
+        <v>12090</v>
+      </c>
+      <c r="G26" s="1">
+        <f>E26*$W$7</f>
+        <v>6810</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="21">C26-C25</f>
+        <v>18058</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="22">D26-D25</f>
+        <v>267</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="2"/>
-        <v>73105.857682726797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="4">
+        <f>W$4*EXP(X$4*J26)</f>
+        <v>97935.440972646495</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="4">
+        <f>SLOPE($C$25:C26,$J$25:J26)</f>
+        <v>18058</v>
+      </c>
+      <c r="N26" s="4">
+        <f>INTERCEPT($C$25:C26,$J$25:J26)</f>
+        <v>-331498</v>
+      </c>
+      <c r="O26" s="14">
+        <f>INDEX(LINEST($C$25:C26,$J$25:J26,1,1),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <f>M26*J26+N26</f>
+        <v>83836</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>P26-C26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <f>24*((2*J26+N26/M26)-J26)</f>
+        <v>111.42230590320082</v>
+      </c>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26">
+        <f>2*J26+N26/M26</f>
+        <v>27.642596079300034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>43917</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="13">
-        <v>43916</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="C27">
+        <v>101657</v>
+      </c>
+      <c r="D27">
+        <v>1581</v>
+      </c>
+      <c r="E27">
+        <v>869</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27*$W$7</f>
+        <v>15810</v>
+      </c>
+      <c r="G27" s="1">
+        <f>E27*$W$7</f>
+        <v>8690</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="23">C27-C26</f>
+        <v>17821</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="24">D27-D26</f>
+        <v>372</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="2"/>
-        <v>97935.440972646495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="4">
+        <f>W$4*EXP(X$4*J27)</f>
+        <v>131198.11329117254</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="4">
+        <f>SLOPE($C$25:C27,$J$25:J27)</f>
+        <v>17939.5</v>
+      </c>
+      <c r="N27" s="4">
+        <f>INTERCEPT($C$25:C27,$J$25:J27)</f>
+        <v>-328851.5</v>
+      </c>
+      <c r="O27" s="14">
+        <f>INDEX(LINEST($C$25:C27,$J$25:J27,1,1),3,1)</f>
+        <v>0.99998545584612852</v>
+      </c>
+      <c r="P27" s="4">
+        <f>M27*J27+N27</f>
+        <v>101696.5</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>P27-C27</f>
+        <v>39.5</v>
+      </c>
+      <c r="R27" s="9">
+        <f>24*((2*J27+N27/M27)-J27)</f>
+        <v>136.05262131051592</v>
+      </c>
+      <c r="T27">
+        <f>2*J27+N27/M27</f>
+        <v>29.668859221271497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>43918</v>
+      </c>
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="13">
-        <v>43917</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="C28">
+        <v>121478</v>
+      </c>
+      <c r="D28">
+        <v>2026</v>
+      </c>
+      <c r="E28">
+        <v>1072</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28*$W$7</f>
+        <v>20260</v>
+      </c>
+      <c r="G28" s="1">
+        <f>E28*$W$7</f>
+        <v>10720</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="25">C28-C27</f>
+        <v>19821</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="26">D28-D27</f>
+        <v>445</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="2"/>
-        <v>131198.11329117254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="4">
+        <f>W$4*EXP(X$4*J28)</f>
+        <v>175758.07858945508</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="4">
+        <f>SLOPE($C$25:C28,$J$25:J28)</f>
+        <v>18492.099999999999</v>
+      </c>
+      <c r="N28" s="4">
+        <f>INTERCEPT($C$25:C28,$J$25:J28)</f>
+        <v>-341377.1</v>
+      </c>
+      <c r="O28" s="14">
+        <f>INDEX(LINEST($C$25:C28,$J$25:J28,1,1),3,1)</f>
+        <v>0.99939955514659551</v>
+      </c>
+      <c r="P28" s="4">
+        <f>M28*J28+N28</f>
+        <v>120925.39999999997</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>P28-C28</f>
+        <v>-552.60000000003492</v>
+      </c>
+      <c r="R28" s="9">
+        <f>24*((2*J28+N28/M28)-J28)</f>
+        <v>156.94321358850536</v>
+      </c>
+      <c r="T28">
+        <f>2*J28+N28/M28</f>
+        <v>31.539300566187723</v>
+      </c>
+      <c r="W28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" t="str">
+        <f>" y = b*m^x "</f>
+        <v xml:space="preserve"> y = b*m^x </v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>43919</v>
+      </c>
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="13">
-        <v>43918</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="C29">
+        <v>140886</v>
+      </c>
+      <c r="D29">
+        <v>2467</v>
+      </c>
+      <c r="E29">
+        <v>2665</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29*$W$7</f>
+        <v>24670</v>
+      </c>
+      <c r="G29" s="1">
+        <f>E29*$W$7</f>
+        <v>26650</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="27">C29-C28</f>
+        <v>19408</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29" si="28">D29-D28</f>
+        <v>441</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="2"/>
-        <v>175758.07858945508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="13">
-        <v>43919</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
+        <f>W$4*EXP(X$4*J29)</f>
+        <v>235452.33551415344</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="4">
+        <f>SLOPE($C$25:C29,$J$25:J29)</f>
+        <v>18785.8</v>
+      </c>
+      <c r="N29" s="4">
+        <f>INTERCEPT($C$25:C29,$J$25:J29)</f>
+        <v>-348132.19999999995</v>
+      </c>
+      <c r="O29" s="14">
+        <f>INDEX(LINEST($C$25:C29,$J$25:J29,1,1),3,1)</f>
+        <v>0.99946477685207513</v>
+      </c>
+      <c r="P29" s="4">
+        <f>M29*J29+N29</f>
+        <v>140298.60000000003</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>P29-C29</f>
+        <v>-587.39999999996508</v>
+      </c>
+      <c r="R29" s="9">
+        <f>24*((2*J29+N29/M29)-J29)</f>
+        <v>179.23997913317498</v>
+      </c>
+      <c r="T29">
+        <f>2*J29+N29/M29</f>
+        <v>33.468332463882291</v>
+      </c>
+      <c r="W29">
+        <f t="array" ref="W29:X33">LINEST(C25:C29,LN(J25:J29),TRUE,FALSE)</f>
+        <v>449460.73754286527</v>
+      </c>
+      <c r="X29">
+        <v>-1324900.7915047815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>43920</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>161807</v>
+      </c>
+      <c r="D30">
+        <v>2978</v>
+      </c>
+      <c r="E30">
+        <v>5644</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30*$W$7</f>
+        <v>29780</v>
+      </c>
+      <c r="G30" s="1">
+        <f>E30*$W$7</f>
+        <v>56440</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30" si="29">C30-C29</f>
+        <v>20921</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="30">D30-D29</f>
+        <v>511</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="2"/>
-        <v>235452.33551415344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
+        <f>W$4*EXP(X$4*J30)</f>
+        <v>315421.0761973795</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="4">
+        <f>SLOPE($C$25:C30,$J$25:J30)</f>
+        <v>19174.742857142857</v>
+      </c>
+      <c r="N30" s="4">
+        <f>INTERCEPT($C$25:C30,$J$25:J30)</f>
+        <v>-357207.53333333333</v>
+      </c>
+      <c r="O30" s="14">
+        <f>INDEX(LINEST($C$25:C30,$J$25:J30,1,1),3,1)</f>
+        <v>0.99915839728158939</v>
+      </c>
+      <c r="P30" s="4">
+        <f>M30*J30+N30</f>
+        <v>160510.52380952385</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>P30-C30</f>
+        <v>-1296.4761904761544</v>
+      </c>
+      <c r="R30" s="9">
+        <f>24*((2*J30+N30/M30)-J30)</f>
+        <v>200.90243713456397</v>
+      </c>
+      <c r="T30">
+        <f>2*J30+N30/M30</f>
+        <v>35.370934880606832</v>
+      </c>
+      <c r="W30">
+        <v>449460.73754286527</v>
+      </c>
+      <c r="X30">
+        <v>-1324900.7915047815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>43921</v>
+      </c>
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="13">
-        <v>43920</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="C31">
+        <v>188172</v>
+      </c>
+      <c r="D31">
+        <v>3873</v>
+      </c>
+      <c r="E31">
+        <v>7024</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31*$W$7</f>
+        <v>38730</v>
+      </c>
+      <c r="G31" s="1">
+        <f>E31*$W$7</f>
+        <v>70240</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="31">C31-C30</f>
+        <v>26365</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="32">D31-D30</f>
+        <v>895</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="2"/>
-        <v>315421.0761973795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="4">
+        <f>W$4*EXP(X$4*J31)</f>
+        <v>422550.30128394108</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="4">
+        <f>SLOPE($C$25:C31,$J$25:J31)</f>
+        <v>20084.035714285714</v>
+      </c>
+      <c r="N31" s="4">
+        <f>INTERCEPT($C$25:C31,$J$25:J31)</f>
+        <v>-378727.46428571426</v>
+      </c>
+      <c r="O31" s="14">
+        <f>INDEX(LINEST($C$25:C31,$J$25:J31,1,1),3,1)</f>
+        <v>0.99611897918583714</v>
+      </c>
+      <c r="P31" s="4">
+        <f>M31*J31+N31</f>
+        <v>183625.53571428574</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>P31-C31</f>
+        <v>-4546.4642857142608</v>
+      </c>
+      <c r="R31" s="9">
+        <f>24*((2*J31+N31/M31)-J31)</f>
+        <v>219.42865068737962</v>
+      </c>
+      <c r="T31">
+        <f>2*J31+N31/M31</f>
+        <v>37.142860445307484</v>
+      </c>
+      <c r="W31">
+        <v>449460.73754286527</v>
+      </c>
+      <c r="X31">
+        <v>-1324900.7915047815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>43922</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13">
-        <v>43921</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="J32">
         <f t="shared" si="2"/>
-        <v>422550.30128394108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="4">
+        <f>W$4*EXP(X$4*J32)</f>
+        <v>566064.76418024604</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="9"/>
+      <c r="W32">
+        <v>449460.73754286527</v>
+      </c>
+      <c r="X32">
+        <v>-1324900.7915047815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>43923</v>
+      </c>
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="13">
-        <v>43922</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="J33">
         <f t="shared" si="2"/>
-        <v>566064.76418024604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="4">
+        <f>W$4*EXP(X$4*J33)</f>
+        <v>758322.30215620936</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="9"/>
+      <c r="W33">
+        <v>449460.73754286527</v>
+      </c>
+      <c r="X33">
+        <v>-1324900.7915047815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>43924</v>
+      </c>
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="13">
-        <v>43923</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="J34">
         <f t="shared" si="2"/>
-        <v>758322.30215620936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="4">
+        <f>W$4*EXP(X$4*J34)</f>
+        <v>1015877.9530823868</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>43925</v>
+      </c>
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13">
-        <v>43924</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="J35">
         <f t="shared" si="2"/>
-        <v>1015877.9530823868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="4">
+        <f>W$4*EXP(X$4*J35)</f>
+        <v>1360909.4874625946</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>43926</v>
+      </c>
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="13">
-        <v>43925</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" ref="K35:K66" si="20">M$4*EXP(N$4*J35)</f>
-        <v>1360909.4874625946</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="13">
-        <v>43926</v>
-      </c>
       <c r="J36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" si="20"/>
+      <c r="K36" s="4">
+        <f>W$4*EXP(X$4*J36)</f>
         <v>1823127.1064069455</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="K37" s="4">
+        <f>W$4*EXP(X$4*J37)</f>
+        <v>2442331.7470678678</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="13">
-        <v>43927</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="20"/>
-        <v>2442331.7470678678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="F38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="K38" s="4">
+        <f>W$4*EXP(X$4*J38)</f>
+        <v>3271842.2877774565</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="13">
-        <v>43928</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="20"/>
-        <v>3271842.2877774565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="K39" s="4">
+        <f>W$4*EXP(X$4*J39)</f>
+        <v>4383086.7649084078</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="V39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="13">
-        <v>43929</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="K39" s="5">
-        <f t="shared" si="20"/>
-        <v>4383086.7649084078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="K40" s="4">
+        <f>W$4*EXP(X$4*J40)</f>
+        <v>5871752.9449640783</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="13">
-        <v>43930</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="20"/>
-        <v>5871752.9449640783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="K41" s="4">
+        <f>W$4*EXP(X$4*J41)</f>
+        <v>7866027.8693832317</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>43932</v>
+      </c>
+      <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="13">
-        <v>43931</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="20"/>
-        <v>7866027.8693832317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="K42" s="4">
+        <f>W$4*EXP(X$4*J42)</f>
+        <v>10537635.868174648</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="13">
-        <v>43932</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="20"/>
-        <v>10537635.868174648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="13">
-        <v>43933</v>
-      </c>
       <c r="J43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K43" s="5">
-        <f t="shared" si="20"/>
+      <c r="K43" s="4">
+        <f>W$4*EXP(X$4*J43)</f>
         <v>14116625.510881616</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="K44" s="4">
+        <f>W$4*EXP(X$4*J44)</f>
+        <v>18911178.779324546</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="13">
-        <v>43934</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="20"/>
-        <v>18911178.779324546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="K45" s="4">
+        <f>W$4*EXP(X$4*J45)</f>
+        <v>25334148.203329325</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="13">
-        <v>43935</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="20"/>
-        <v>25334148.203329325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="K46" s="4">
+        <f>W$4*EXP(X$4*J46)</f>
+        <v>33938607.036487415</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>43937</v>
+      </c>
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="13">
-        <v>43936</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="20"/>
-        <v>33938607.036487415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="K47" s="4">
+        <f>W$4*EXP(X$4*J47)</f>
+        <v>45465473.649741426</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="13">
-        <v>43937</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="20"/>
-        <v>45465473.649741426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K48" s="4">
+        <f>W$4*EXP(X$4*J48)</f>
+        <v>60907311.015239298</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>43939</v>
+      </c>
+      <c r="B49" t="s">
         <v>13</v>
-      </c>
-      <c r="B48" s="13">
-        <v>43938</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="20"/>
-        <v>60907311.015239298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="13">
-        <v>43939</v>
       </c>
       <c r="J49">
         <f>J48+1</f>
         <v>46</v>
       </c>
-      <c r="K49" s="5">
-        <f t="shared" si="20"/>
+      <c r="K49" s="4">
+        <f>W$4*EXP(X$4*J49)</f>
         <v>81593794.968155891</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="13">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>43940</v>
       </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
       <c r="J50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="K50" s="5">
-        <f t="shared" si="20"/>
+      <c r="K50" s="4">
+        <f>W$4*EXP(X$4*J50)</f>
         <v>109306210.80348961</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="K51" s="4">
+        <f>W$4*EXP(X$4*J51)</f>
+        <v>146430837.35570687</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>43942</v>
+      </c>
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="13">
-        <v>43941</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" si="20"/>
-        <v>146430837.35570687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="K52" s="4">
+        <f>W$4*EXP(X$4*J52)</f>
+        <v>196164426.25791708</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="13">
-        <v>43942</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="K52" s="5">
-        <f t="shared" si="20"/>
-        <v>196164426.25791708</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K53" s="4">
+        <f>W$4*EXP(X$4*J53)</f>
+        <v>262789469.92307162</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>43944</v>
+      </c>
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="13">
-        <v>43943</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="20"/>
-        <v>262789469.92307162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="K54" s="4">
+        <f>W$4*EXP(X$4*J54)</f>
+        <v>352042961.20261478</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>43945</v>
+      </c>
+      <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="13">
-        <v>43944</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="K54" s="5">
-        <f t="shared" si="20"/>
-        <v>352042961.20261478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="K55" s="4">
+        <f>W$4*EXP(X$4*J55)</f>
+        <v>471610398.12054008</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>43946</v>
+      </c>
+      <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="13">
-        <v>43945</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="20"/>
-        <v>471610398.12054008</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="K56" s="4">
+        <f>W$4*EXP(X$4*J56)</f>
+        <v>631787571.76572323</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>43947</v>
+      </c>
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="13">
-        <v>43946</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="20"/>
-        <v>631787571.76572323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="13">
-        <v>43947</v>
-      </c>
       <c r="J57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="K57" s="5">
-        <f t="shared" si="20"/>
+      <c r="K57" s="4">
+        <f>W$4*EXP(X$4*J57)</f>
         <v>846367123.00734258</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="K58" s="4">
+        <f>W$4*EXP(X$4*J58)</f>
+        <v>1133826208.2391124</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>43949</v>
+      </c>
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="13">
-        <v>43948</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="K58" s="5">
-        <f t="shared" si="20"/>
-        <v>1133826208.2391124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K59" s="4">
+        <f>W$4*EXP(X$4*J59)</f>
+        <v>1518917542.4512918</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>43950</v>
+      </c>
+      <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="13">
-        <v>43949</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="K59" s="5">
-        <f t="shared" si="20"/>
-        <v>1518917542.4512918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="K60" s="4">
+        <f>W$4*EXP(X$4*J60)</f>
+        <v>2034800822.2082989</v>
+      </c>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="13">
-        <v>43950</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="20"/>
-        <v>2034800822.2082989</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="K61" s="4">
+        <f>W$4*EXP(X$4*J61)</f>
+        <v>2725898062.4962783</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>43952</v>
+      </c>
+      <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="13">
-        <v>43951</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="20"/>
-        <v>2725898062.4962783</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="K62" s="4">
+        <f>W$4*EXP(X$4*J62)</f>
+        <v>3651718716.6539841</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>43953</v>
+      </c>
+      <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="13">
-        <v>43952</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="K62" s="5">
-        <f t="shared" si="20"/>
-        <v>3651718716.6539841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K63" s="4">
+        <f>W$4*EXP(X$4*J63)</f>
+        <v>4891983955.3168287</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>43954</v>
+      </c>
+      <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="13">
-        <v>43953</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="K63" s="5">
-        <f t="shared" si="20"/>
-        <v>4891983955.3168287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="13">
-        <v>43954</v>
-      </c>
       <c r="J64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="K64" s="5">
-        <f t="shared" si="20"/>
+      <c r="K64" s="4">
+        <f>W$4*EXP(X$4*J64)</f>
         <v>6553491349.1380224</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="K65" s="4">
+        <f>W$4*EXP(X$4*J65)</f>
+        <v>8779311063.8780098</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>43956</v>
+      </c>
+      <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="13">
-        <v>43955</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" si="20"/>
-        <v>8779311063.8780098</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="13">
-        <v>43956</v>
-      </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="K66" s="5">
-        <f t="shared" si="20"/>
+      <c r="K66" s="4">
+        <f>W$4*EXP(X$4*J66)</f>
         <v>11761105439.846031</v>
       </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N26:N27 N28:N31 O26:O30" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3816,7 +6797,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3839,4 +6820,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>"probable cases " &amp; B3 &amp; " days ago."</f>
+        <v>probable cases 18 days ago.</v>
+      </c>
+      <c r="B8">
+        <f>B6/B4</f>
+        <v>387300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>"number of doubles in " &amp; B3 &amp; " days"</f>
+        <v>number of doubles in 18 days</v>
+      </c>
+      <c r="B9">
+        <f>B3/B5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="12">
+        <f>$B$8 * (2^$B$9)</f>
+        <v>1549200</v>
+      </c>
+      <c r="C11" s="12">
+        <f>B8*2^(INT(B9))</f>
+        <v>1549200</v>
+      </c>
+      <c r="D11" s="12">
+        <f>B8*2^(1+INT(B9))</f>
+        <v>3098400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>"number of deaths in " &amp; B3 &amp; " days."</f>
+        <v>number of deaths in 18 days.</v>
+      </c>
+      <c r="B12" s="13">
+        <f>B11*$B$4</f>
+        <v>15492</v>
+      </c>
+      <c r="C12" s="13">
+        <f>C11*$B$4</f>
+        <v>15492</v>
+      </c>
+      <c r="D12" s="13">
+        <f>D11*$B$4</f>
+        <v>30984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>poor forecast, for exponential</t>
+  </si>
+  <si>
+    <t>prediction was 24000, on Friday, 3/28</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,6 +451,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -665,54 +669,63 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$25:$J$30</c:f>
+              <c:f>Summary!$J$28:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$25:$C$30</c:f>
+              <c:f>Summary!$C$28:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>65778</c:v>
+                  <c:v>121478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83836</c:v>
+                  <c:v>140886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101657</c:v>
+                  <c:v>161807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121478</c:v>
+                  <c:v>188172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140886</c:v>
+                  <c:v>215417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161807</c:v>
+                  <c:v>243453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,10 +772,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$30</c:f>
+              <c:f>Summary!$J$3:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -846,16 +859,34 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$F$3:$F$30</c:f>
+              <c:f>Summary!$F$3:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -939,6 +970,15 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38730</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51160</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,10 +1025,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$30</c:f>
+              <c:f>Summary!$J$3:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1072,16 +1112,34 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$G$3:$G$30</c:f>
+              <c:f>Summary!$G$3:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -1162,6 +1220,15 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56440</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70240</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85660</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,10 +1267,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$25</c:f>
+              <c:f>Summary!$J$3:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1272,16 +1339,25 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$25</c:f>
+              <c:f>Summary!$C$3:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -1350,6 +1426,15 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>65778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,11 +1449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385912416"/>
-        <c:axId val="385912808"/>
+        <c:axId val="370627160"/>
+        <c:axId val="153024416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385912416"/>
+        <c:axId val="370627160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,12 +1591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385912808"/>
+        <c:crossAx val="153024416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385912808"/>
+        <c:axId val="153024416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385912416"/>
+        <c:crossAx val="370627160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,10 +1876,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$C$4:$C$30</c:f>
+              <c:f>Summary!$C$4:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>153</c:v>
                 </c:pt>
@@ -1875,16 +1960,25 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>161807</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>215417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>243453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$H$4:$H$30</c:f>
+              <c:f>Summary!$H$4:$H$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -1965,6 +2059,15 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20921</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27245</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,11 +2082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385913592"/>
-        <c:axId val="371057064"/>
+        <c:axId val="372446776"/>
+        <c:axId val="372452656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385913592"/>
+        <c:axId val="372446776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2112,12 +2215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371057064"/>
+        <c:crossAx val="372452656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371057064"/>
+        <c:axId val="372452656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2246,7 +2349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385913592"/>
+        <c:crossAx val="372446776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3980,11 +4083,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4121,18 +4224,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*$W$7</f>
+        <f t="shared" ref="F3:F22" si="0">D3*$W$7</f>
         <v>70</v>
       </c>
       <c r="G3" s="1">
-        <f>E3*$W$7</f>
+        <f t="shared" ref="G3:G22" si="1">E3*$W$7</f>
         <v>80</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>W$4*EXP(X$4*J3)</f>
+        <f t="shared" ref="K3:K34" si="2">W$4*EXP(X$4*J3)</f>
         <v>117.55</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -4177,15 +4280,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*$W$7</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="G4" s="1">
-        <f>E4*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="0">C4-C3</f>
+        <f t="shared" ref="H4:H11" si="3">C4-C3</f>
         <v>31</v>
       </c>
       <c r="I4">
@@ -4197,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <f>W$4*EXP(X$4*J4)</f>
+        <f t="shared" si="2"/>
         <v>157.47453694199237</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -4248,27 +4351,27 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <f>D5*$W$7</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G5" s="1">
-        <f>E5*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I16" si="1">D5-D4</f>
+        <f t="shared" ref="I5:I16" si="4">D5-D4</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J66" si="2">J4+1</f>
+        <f t="shared" ref="J5:J66" si="5">J4+1</f>
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <f>W$4*EXP(X$4*J5)</f>
+        <f t="shared" si="2"/>
         <v>210.95899434364034</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -4288,7 +4391,7 @@
         <v>0.28439999999999999</v>
       </c>
       <c r="AB5" s="25">
-        <f t="shared" ref="AB5:AB6" si="3">LN(2)/AA5</f>
+        <f t="shared" ref="AB5:AB6" si="6">LN(2)/AA5</f>
         <v>2.4372263732768822</v>
       </c>
       <c r="AC5" s="26">
@@ -4313,27 +4416,27 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*$W$7</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="G6" s="1">
-        <f>E6*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="4">
-        <f>W$4*EXP(X$4*J6)</f>
         <v>282.60884685676865</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -4347,15 +4450,15 @@
         <v>120.21501694494958</v>
       </c>
       <c r="P6" s="4">
-        <f>N6*EXP((J6*LN(M6)))</f>
+        <f t="shared" ref="P6:P25" si="7">N6*EXP((J6*LN(M6)))</f>
         <v>281.69908968814934</v>
       </c>
       <c r="Q6" s="4">
-        <f>P6-C6</f>
+        <f t="shared" ref="Q6:Q31" si="8">P6-C6</f>
         <v>3.6990896881493427</v>
       </c>
       <c r="R6" s="9">
-        <f>24*LN(2)/(M6-1)</f>
+        <f t="shared" ref="R6:R25" si="9">24*LN(2)/(M6-1)</f>
         <v>50.681465991853436</v>
       </c>
       <c r="S6" s="9"/>
@@ -4372,7 +4475,7 @@
         <v>0.29239999999999999</v>
       </c>
       <c r="AB6" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3705443931598675</v>
       </c>
       <c r="AC6" s="26">
@@ -4397,27 +4500,27 @@
         <v>8</v>
       </c>
       <c r="F7" s="1">
-        <f>D7*$W$7</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="4">
-        <f>W$4*EXP(X$4*J7)</f>
         <v>378.59376686074074</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -4431,15 +4534,15 @@
         <v>111.38316135347172</v>
       </c>
       <c r="P7" s="4">
-        <f>N7*EXP((J7*LN(M7)))</f>
+        <f t="shared" si="7"/>
         <v>406.6437465827234</v>
       </c>
       <c r="Q7" s="4">
-        <f>P7-C7</f>
+        <f t="shared" si="8"/>
         <v>-10.356253417276605</v>
       </c>
       <c r="R7" s="9">
-        <f>24*LN(2)/(M7-1)</f>
+        <f t="shared" si="9"/>
         <v>43.515669478805975</v>
       </c>
       <c r="S7" s="9"/>
@@ -4487,27 +4590,27 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <f>D8*$W$7</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="G8" s="1">
-        <f>E8*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <f>W$4*EXP(X$4*J8)</f>
         <v>507.17888664840297</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -4521,15 +4624,15 @@
         <v>116.98866881825454</v>
       </c>
       <c r="P8" s="4">
-        <f>N8*EXP((J8*LN(M8)))</f>
+        <f t="shared" si="7"/>
         <v>542.70328056188441</v>
       </c>
       <c r="Q8" s="4">
-        <f>P8-C8</f>
+        <f t="shared" si="8"/>
         <v>5.7032805618844122</v>
       </c>
       <c r="R8" s="9">
-        <f>24*LN(2)/(M8-1)</f>
+        <f t="shared" si="9"/>
         <v>46.312582474817155</v>
       </c>
       <c r="S8" s="9"/>
@@ -4571,27 +4674,27 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <f>D9*$W$7</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="G9" s="1">
-        <f>E9*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K9" s="4">
-        <f>W$4*EXP(X$4*J9)</f>
         <v>679.43649784527861</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -4605,15 +4708,15 @@
         <v>137.60719514477469</v>
       </c>
       <c r="P9" s="4">
-        <f>N9*EXP((J9*LN(M9)))</f>
+        <f t="shared" si="7"/>
         <v>649.26669069466197</v>
       </c>
       <c r="Q9" s="4">
-        <f>P9-C9</f>
+        <f t="shared" si="8"/>
         <v>44.266690694661975</v>
       </c>
       <c r="R9" s="9">
-        <f>24*LN(2)/(M9-1)</f>
+        <f t="shared" si="9"/>
         <v>56.376118578632216</v>
       </c>
       <c r="S9" s="9"/>
@@ -4636,27 +4739,27 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <f>D10*$W$7</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="G10" s="1">
-        <f>E10*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>354</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K10" s="4">
-        <f>W$4*EXP(X$4*J10)</f>
         <v>910.19947154125293</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -4670,15 +4773,15 @@
         <v>142.28701567230362</v>
       </c>
       <c r="P10" s="4">
-        <f>N10*EXP((J10*LN(M10)))</f>
+        <f t="shared" si="7"/>
         <v>889.08931805648433</v>
       </c>
       <c r="Q10" s="4">
-        <f>P10-C10</f>
+        <f t="shared" si="8"/>
         <v>-69.910681943515669</v>
       </c>
       <c r="R10" s="9">
-        <f>24*LN(2)/(M10-1)</f>
+        <f t="shared" si="9"/>
         <v>55.596226426713017</v>
       </c>
       <c r="S10" s="9"/>
@@ -4701,27 +4804,27 @@
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <f>D11*$W$7</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="G11" s="1">
-        <f>E11*$W$7</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>322</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K11" s="4">
-        <f>W$4*EXP(X$4*J11)</f>
         <v>1219.3384968592509</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -4735,15 +4838,15 @@
         <v>108.13400845469288</v>
       </c>
       <c r="P11" s="4">
-        <f>N11*EXP((J11*LN(M11)))</f>
+        <f t="shared" si="7"/>
         <v>1259.4835918317506</v>
       </c>
       <c r="Q11" s="4">
-        <f>P11-C11</f>
+        <f t="shared" si="8"/>
         <v>-21.516408168249427</v>
       </c>
       <c r="R11" s="9">
-        <f>24*LN(2)/(M11-1)</f>
+        <f t="shared" si="9"/>
         <v>46.314581182180483</v>
       </c>
       <c r="S11" s="9"/>
@@ -4766,27 +4869,27 @@
         <v>12</v>
       </c>
       <c r="F12" s="1">
-        <f>D12*$W$7</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G12" s="1">
-        <f>E12*$W$7</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H14" si="4">C12-C11</f>
+        <f t="shared" ref="H12:H14" si="10">C12-C11</f>
         <v>382</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J12">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K12" s="4">
-        <f>W$4*EXP(X$4*J12)</f>
         <v>1633.4731192552574</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -4800,15 +4903,15 @@
         <v>87.226406388290542</v>
       </c>
       <c r="P12" s="4">
-        <f>N12*EXP((J12*LN(M12)))</f>
+        <f t="shared" si="7"/>
         <v>1735.7013935057123</v>
       </c>
       <c r="Q12" s="4">
-        <f>P12-C12</f>
+        <f t="shared" si="8"/>
         <v>72.701393505712304</v>
       </c>
       <c r="R12" s="9">
-        <f>24*LN(2)/(M12-1)</f>
+        <f t="shared" si="9"/>
         <v>42.204509817964436</v>
       </c>
       <c r="S12" s="9"/>
@@ -4831,27 +4934,27 @@
         <v>12</v>
       </c>
       <c r="F13" s="1">
-        <f>D13*$W$7</f>
+        <f t="shared" si="0"/>
         <v>470</v>
       </c>
       <c r="G13" s="1">
-        <f>E13*$W$7</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H13">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="4"/>
-        <v>516</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K13" s="4">
-        <f>W$4*EXP(X$4*J13)</f>
         <v>2188.2639137551137</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -4865,15 +4968,15 @@
         <v>143.50570404779202</v>
       </c>
       <c r="P13" s="4">
-        <f>N13*EXP((J13*LN(M13)))</f>
+        <f t="shared" si="7"/>
         <v>2185.3859789878825</v>
       </c>
       <c r="Q13" s="4">
-        <f>P13-C13</f>
+        <f t="shared" si="8"/>
         <v>6.3859789878824813</v>
       </c>
       <c r="R13" s="9">
-        <f>24*LN(2)/(M13-1)</f>
+        <f t="shared" si="9"/>
         <v>53.148063540462353</v>
       </c>
       <c r="S13" s="9"/>
@@ -4896,27 +4999,27 @@
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <f>D14*$W$7</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="G14" s="1">
-        <f>E14*$W$7</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H14">
+        <f t="shared" si="10"/>
+        <v>547</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="4"/>
-        <v>547</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J14">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K14" s="4">
-        <f>W$4*EXP(X$4*J14)</f>
         <v>2931.4831690808892</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -4930,15 +5033,15 @@
         <v>169.56090513046144</v>
       </c>
       <c r="P14" s="4">
-        <f>N14*EXP((J14*LN(M14)))</f>
+        <f t="shared" si="7"/>
         <v>2758.9916564656523</v>
       </c>
       <c r="Q14" s="4">
-        <f>P14-C14</f>
+        <f t="shared" si="8"/>
         <v>32.991656465652341</v>
       </c>
       <c r="R14" s="9">
-        <f>24*LN(2)/(M14-1)</f>
+        <f t="shared" si="9"/>
         <v>57.635429324340663</v>
       </c>
       <c r="S14" s="9"/>
@@ -4961,27 +5064,27 @@
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <f>D15*$W$7</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="G15" s="1">
-        <f>E15*$W$7</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="5">C15-C14</f>
+        <f t="shared" ref="H15" si="11">C15-C14</f>
         <v>773</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K15" s="4">
-        <f>W$4*EXP(X$4*J15)</f>
         <v>3927.1284951446814</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -4995,15 +5098,15 @@
         <v>184.03902858887233</v>
       </c>
       <c r="P15" s="4">
-        <f>N15*EXP((J15*LN(M15)))</f>
+        <f t="shared" si="7"/>
         <v>3504.4379403243852</v>
       </c>
       <c r="Q15" s="4">
-        <f>P15-C15</f>
+        <f t="shared" si="8"/>
         <v>5.4379403243851812</v>
       </c>
       <c r="R15" s="9">
-        <f>24*LN(2)/(M15-1)</f>
+        <f t="shared" si="9"/>
         <v>59.769481650896495</v>
       </c>
       <c r="S15" s="9"/>
@@ -5026,27 +5129,27 @@
         <v>17</v>
       </c>
       <c r="F16" s="1">
-        <f>D16*$W$7</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="G16" s="1">
-        <f>E16*$W$7</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="6">C16-C15</f>
+        <f t="shared" ref="H16" si="12">C16-C15</f>
         <v>1133</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K16" s="4">
-        <f>W$4*EXP(X$4*J16)</f>
         <v>5260.9335711153717</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -5060,15 +5163,15 @@
         <v>174.29263409615066</v>
       </c>
       <c r="P16" s="4">
-        <f>N16*EXP((J16*LN(M16)))</f>
+        <f t="shared" si="7"/>
         <v>4565.7980848539937</v>
       </c>
       <c r="Q16" s="4">
-        <f>P16-C16</f>
+        <f t="shared" si="8"/>
         <v>-66.201915146006286</v>
       </c>
       <c r="R16" s="9">
-        <f>24*LN(2)/(M16-1)</f>
+        <f t="shared" si="9"/>
         <v>58.254097715674341</v>
       </c>
       <c r="S16" s="9"/>
@@ -5091,27 +5194,27 @@
         <v>17</v>
       </c>
       <c r="F17" s="1">
-        <f>D17*$W$7</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="G17" s="1">
-        <f>E17*$W$7</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="7">C17-C16</f>
+        <f t="shared" ref="H17" si="13">C17-C16</f>
         <v>1796</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="8">D17-D16</f>
+        <f t="shared" ref="I17" si="14">D17-D16</f>
         <v>23</v>
       </c>
       <c r="J17">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K17" s="4">
-        <f>W$4*EXP(X$4*J17)</f>
         <v>7047.7505571584525</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -5125,15 +5228,15 @@
         <v>115.87379495698254</v>
       </c>
       <c r="P17" s="4">
-        <f>N17*EXP((J17*LN(M17)))</f>
+        <f t="shared" si="7"/>
         <v>6298.6830023916846</v>
       </c>
       <c r="Q17" s="4">
-        <f>P17-C17</f>
+        <f t="shared" si="8"/>
         <v>-129.31699760831543</v>
       </c>
       <c r="R17" s="9">
-        <f>24*LN(2)/(M17-1)</f>
+        <f t="shared" si="9"/>
         <v>50.365910430244327</v>
       </c>
       <c r="S17" s="9"/>
@@ -5156,27 +5259,27 @@
         <v>106</v>
       </c>
       <c r="F18" s="1">
-        <f>D18*$W$7</f>
+        <f t="shared" si="0"/>
         <v>1180</v>
       </c>
       <c r="G18" s="1">
-        <f>E18*$W$7</f>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="9">C18-C17</f>
+        <f t="shared" ref="H18" si="15">C18-C17</f>
         <v>1358</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18" si="10">D18-D17</f>
+        <f t="shared" ref="I18" si="16">D18-D17</f>
         <v>10</v>
       </c>
       <c r="J18">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K18" s="4">
-        <f>W$4*EXP(X$4*J18)</f>
         <v>9441.4398593891601</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -5190,15 +5293,15 @@
         <v>134.37251979807269</v>
       </c>
       <c r="P18" s="4">
-        <f>N18*EXP((J18*LN(M18)))</f>
+        <f t="shared" si="7"/>
         <v>8034.1233147702906</v>
       </c>
       <c r="Q18" s="4">
-        <f>P18-C18</f>
+        <f t="shared" si="8"/>
         <v>248.12331477029056</v>
       </c>
       <c r="R18" s="9">
-        <f>24*LN(2)/(M18-1)</f>
+        <f t="shared" si="9"/>
         <v>53.057863122201084</v>
       </c>
       <c r="S18" s="9"/>
@@ -5221,27 +5324,27 @@
         <v>108</v>
       </c>
       <c r="F19" s="1">
-        <f>D19*$W$7</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G19" s="1">
-        <f>E19*$W$7</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="11">C19-C18</f>
+        <f t="shared" ref="H19" si="17">C19-C18</f>
         <v>5894</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19" si="12">D19-D18</f>
+        <f t="shared" ref="I19" si="18">D19-D18</f>
         <v>82</v>
       </c>
       <c r="J19">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K19" s="4">
-        <f>W$4*EXP(X$4*J19)</f>
         <v>12648.118842390279</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -5255,15 +5358,15 @@
         <v>51.136856864929328</v>
       </c>
       <c r="P19" s="4">
-        <f>N19*EXP((J19*LN(M19)))</f>
+        <f t="shared" si="7"/>
         <v>12573.028632949627</v>
       </c>
       <c r="Q19" s="4">
-        <f>P19-C19</f>
+        <f t="shared" si="8"/>
         <v>-1106.9713670503734</v>
       </c>
       <c r="R19" s="9">
-        <f>24*LN(2)/(M19-1)</f>
+        <f t="shared" si="9"/>
         <v>40.510295554963896</v>
       </c>
       <c r="S19" s="9"/>
@@ -5286,27 +5389,27 @@
         <v>147</v>
       </c>
       <c r="F20" s="1">
-        <f>D20*$W$7</f>
+        <f t="shared" si="0"/>
         <v>2440</v>
       </c>
       <c r="G20" s="1">
-        <f>E20*$W$7</f>
+        <f t="shared" si="1"/>
         <v>1470</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="13">C20-C19</f>
+        <f t="shared" ref="H20:H21" si="19">C20-C19</f>
         <v>5421</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="14">D20-D19</f>
+        <f t="shared" ref="I20:I21" si="20">D20-D19</f>
         <v>44</v>
       </c>
       <c r="J20">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K20" s="4">
-        <f>W$4*EXP(X$4*J20)</f>
         <v>16943.910318100363</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -5320,15 +5423,15 @@
         <v>28.208428085271915</v>
       </c>
       <c r="P20" s="4">
-        <f>N20*EXP((J20*LN(M20)))</f>
+        <f t="shared" si="7"/>
         <v>18997.216776967372</v>
       </c>
       <c r="Q20" s="4">
-        <f>P20-C20</f>
+        <f t="shared" si="8"/>
         <v>-103.78322303262757</v>
       </c>
       <c r="R20" s="9">
-        <f>24*LN(2)/(M20-1)</f>
+        <f t="shared" si="9"/>
         <v>35.637299647037565</v>
       </c>
       <c r="S20" s="9"/>
@@ -5351,27 +5454,27 @@
         <v>171</v>
       </c>
       <c r="F21" s="1">
-        <f>D21*$W$7</f>
+        <f t="shared" si="0"/>
         <v>3070</v>
       </c>
       <c r="G21" s="1">
-        <f>E21*$W$7</f>
+        <f t="shared" si="1"/>
         <v>1710</v>
       </c>
       <c r="H21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6392</v>
       </c>
       <c r="I21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="J21">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K21" s="4">
-        <f>W$4*EXP(X$4*J21)</f>
         <v>22698.719109566147</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -5385,15 +5488,15 @@
         <v>24.532480895857049</v>
       </c>
       <c r="P21" s="4">
-        <f>N21*EXP((J21*LN(M21)))</f>
+        <f t="shared" si="7"/>
         <v>27055.952878764441</v>
       </c>
       <c r="Q21" s="4">
-        <f>P21-C21</f>
+        <f t="shared" si="8"/>
         <v>1562.9528787644413</v>
       </c>
       <c r="R21" s="9">
-        <f>24*LN(2)/(M21-1)</f>
+        <f t="shared" si="9"/>
         <v>34.962923554349189</v>
       </c>
       <c r="S21" s="9"/>
@@ -5416,27 +5519,27 @@
         <v>178</v>
       </c>
       <c r="F22" s="1">
-        <f>D22*$W$7</f>
+        <f t="shared" si="0"/>
         <v>4170</v>
       </c>
       <c r="G22" s="1">
-        <f>E22*$W$7</f>
+        <f t="shared" si="1"/>
         <v>1780</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="15">C22-C21</f>
+        <f t="shared" ref="H22" si="21">C22-C21</f>
         <v>7783</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="16">D22-D21</f>
+        <f t="shared" ref="I22" si="22">D22-D21</f>
         <v>110</v>
       </c>
       <c r="J22">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K22" s="4">
-        <f>W$4*EXP(X$4*J22)</f>
         <v>30408.084057467331</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -5450,15 +5553,15 @@
         <v>123.11153539760852</v>
       </c>
       <c r="P22" s="4">
-        <f>N22*EXP((J22*LN(M22)))</f>
+        <f t="shared" si="7"/>
         <v>33802.478895283573</v>
       </c>
       <c r="Q22" s="4">
-        <f>P22-C22</f>
+        <f t="shared" si="8"/>
         <v>526.47889528357337</v>
       </c>
       <c r="R22" s="9">
-        <f>24*LN(2)/(M22-1)</f>
+        <f t="shared" si="9"/>
         <v>48.380552569641139</v>
       </c>
       <c r="S22" s="9"/>
@@ -5477,24 +5580,24 @@
         <v>552</v>
       </c>
       <c r="F23" s="1">
-        <f>D23*$W$7</f>
+        <f t="shared" ref="F23:F33" si="23">D23*$W$7</f>
         <v>5520</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23">
-        <f t="shared" ref="H23:H24" si="17">C23-C22</f>
+        <f t="shared" ref="H23:H24" si="24">C23-C22</f>
         <v>10391</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I24" si="18">D23-D22</f>
+        <f t="shared" ref="I23:I24" si="25">D23-D22</f>
         <v>135</v>
       </c>
       <c r="J23">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K23" s="4">
-        <f>W$4*EXP(X$4*J23)</f>
         <v>40735.848202831541</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -5508,15 +5611,15 @@
         <v>180.04738602122725</v>
       </c>
       <c r="P23" s="4">
-        <f>N23*EXP((J23*LN(M23)))</f>
+        <f t="shared" si="7"/>
         <v>43791.585487099568</v>
       </c>
       <c r="Q23" s="4">
-        <f>P23-C23</f>
+        <f t="shared" si="8"/>
         <v>124.58548709956813</v>
       </c>
       <c r="R23" s="9">
-        <f>24*LN(2)/(M23-1)</f>
+        <f t="shared" si="9"/>
         <v>52.621733026296404</v>
       </c>
       <c r="S23" s="9"/>
@@ -5538,27 +5641,27 @@
         <v>348</v>
       </c>
       <c r="F24" s="1">
-        <f>D24*$W$7</f>
+        <f t="shared" si="23"/>
         <v>7060</v>
       </c>
       <c r="G24" s="1">
-        <f>E24*$W$7</f>
+        <f t="shared" ref="G24:G33" si="26">E24*$W$7</f>
         <v>3480</v>
       </c>
       <c r="H24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10073</v>
       </c>
       <c r="I24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>154</v>
       </c>
       <c r="J24">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K24" s="4">
-        <f>W$4*EXP(X$4*J24)</f>
         <v>54571.321417951411</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -5572,15 +5675,15 @@
         <v>281.79196897287</v>
       </c>
       <c r="P24" s="4">
-        <f>N24*EXP((J24*LN(M24)))</f>
+        <f t="shared" si="7"/>
         <v>54726.620254249363</v>
       </c>
       <c r="Q24" s="4">
-        <f>P24-C24</f>
+        <f t="shared" si="8"/>
         <v>986.62025424936292</v>
       </c>
       <c r="R24" s="9">
-        <f>24*LN(2)/(M24-1)</f>
+        <f t="shared" si="9"/>
         <v>58.332671647171288</v>
       </c>
       <c r="S24" s="9"/>
@@ -5602,27 +5705,27 @@
         <v>361</v>
       </c>
       <c r="F25" s="1">
-        <f>D25*$W$7</f>
+        <f t="shared" si="23"/>
         <v>9420</v>
       </c>
       <c r="G25" s="1">
-        <f>E25*$W$7</f>
+        <f t="shared" si="26"/>
         <v>3610</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="19">C25-C24</f>
+        <f t="shared" ref="H25" si="27">C25-C24</f>
         <v>12038</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="20">D25-D24</f>
+        <f t="shared" ref="I25" si="28">D25-D24</f>
         <v>236</v>
       </c>
       <c r="J25">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K25" s="4">
-        <f>W$4*EXP(X$4*J25)</f>
         <v>73105.857682726797</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -5636,15 +5739,15 @@
         <v>470.73896362456867</v>
       </c>
       <c r="P25" s="4">
-        <f>N25*EXP((J25*LN(M25)))</f>
+        <f t="shared" si="7"/>
         <v>66736.686883114759</v>
       </c>
       <c r="Q25" s="4">
-        <f>P25-C25</f>
+        <f t="shared" si="8"/>
         <v>958.68688311475853</v>
       </c>
       <c r="R25" s="9">
-        <f>24*LN(2)/(M25-1)</f>
+        <f t="shared" si="9"/>
         <v>65.867075491481643</v>
       </c>
       <c r="W25" t="s">
@@ -5668,27 +5771,27 @@
         <v>681</v>
       </c>
       <c r="F26" s="1">
-        <f>D26*$W$7</f>
+        <f t="shared" si="23"/>
         <v>12090</v>
       </c>
       <c r="G26" s="1">
-        <f>E26*$W$7</f>
+        <f t="shared" si="26"/>
         <v>6810</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="21">C26-C25</f>
+        <f t="shared" ref="H26" si="29">C26-C25</f>
         <v>18058</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="22">D26-D25</f>
+        <f t="shared" ref="I26" si="30">D26-D25</f>
         <v>267</v>
       </c>
       <c r="J26">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K26" s="4">
-        <f>W$4*EXP(X$4*J26)</f>
         <v>97935.440972646495</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -5707,22 +5810,22 @@
         <v>1</v>
       </c>
       <c r="P26" s="4">
-        <f>M26*J26+N26</f>
+        <f t="shared" ref="P26:P31" si="31">M26*J26+N26</f>
         <v>83836</v>
       </c>
       <c r="Q26" s="4">
-        <f>P26-C26</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R26" s="9">
-        <f>24*((2*J26+N26/M26)-J26)</f>
+        <f t="shared" ref="R26:R31" si="32">24*((2*J26+N26/M26)-J26)</f>
         <v>111.42230590320082</v>
       </c>
       <c r="S26" t="s">
         <v>49</v>
       </c>
       <c r="T26">
-        <f>2*J26+N26/M26</f>
+        <f t="shared" ref="T26:T31" si="33">2*J26+N26/M26</f>
         <v>27.642596079300034</v>
       </c>
     </row>
@@ -5743,27 +5846,27 @@
         <v>869</v>
       </c>
       <c r="F27" s="1">
-        <f>D27*$W$7</f>
+        <f t="shared" si="23"/>
         <v>15810</v>
       </c>
       <c r="G27" s="1">
-        <f>E27*$W$7</f>
+        <f t="shared" si="26"/>
         <v>8690</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="23">C27-C26</f>
+        <f t="shared" ref="H27" si="34">C27-C26</f>
         <v>17821</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="24">D27-D26</f>
+        <f t="shared" ref="I27" si="35">D27-D26</f>
         <v>372</v>
       </c>
       <c r="J27">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K27" s="4">
-        <f>W$4*EXP(X$4*J27)</f>
         <v>131198.11329117254</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -5782,19 +5885,19 @@
         <v>0.99998545584612852</v>
       </c>
       <c r="P27" s="4">
-        <f>M27*J27+N27</f>
+        <f t="shared" si="31"/>
         <v>101696.5</v>
       </c>
       <c r="Q27" s="4">
-        <f>P27-C27</f>
+        <f t="shared" si="8"/>
         <v>39.5</v>
       </c>
       <c r="R27" s="9">
-        <f>24*((2*J27+N27/M27)-J27)</f>
+        <f t="shared" si="32"/>
         <v>136.05262131051592</v>
       </c>
       <c r="T27">
-        <f>2*J27+N27/M27</f>
+        <f t="shared" si="33"/>
         <v>29.668859221271497</v>
       </c>
     </row>
@@ -5815,27 +5918,27 @@
         <v>1072</v>
       </c>
       <c r="F28" s="1">
-        <f>D28*$W$7</f>
+        <f t="shared" si="23"/>
         <v>20260</v>
       </c>
       <c r="G28" s="1">
-        <f>E28*$W$7</f>
+        <f t="shared" si="26"/>
         <v>10720</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="25">C28-C27</f>
+        <f t="shared" ref="H28" si="36">C28-C27</f>
         <v>19821</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="26">D28-D27</f>
+        <f t="shared" ref="I28" si="37">D28-D27</f>
         <v>445</v>
       </c>
       <c r="J28">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K28" s="4">
-        <f>W$4*EXP(X$4*J28)</f>
         <v>175758.07858945508</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -5854,19 +5957,19 @@
         <v>0.99939955514659551</v>
       </c>
       <c r="P28" s="4">
-        <f>M28*J28+N28</f>
+        <f t="shared" si="31"/>
         <v>120925.39999999997</v>
       </c>
       <c r="Q28" s="4">
-        <f>P28-C28</f>
+        <f t="shared" si="8"/>
         <v>-552.60000000003492</v>
       </c>
       <c r="R28" s="9">
-        <f>24*((2*J28+N28/M28)-J28)</f>
+        <f t="shared" si="32"/>
         <v>156.94321358850536</v>
       </c>
       <c r="T28">
-        <f>2*J28+N28/M28</f>
+        <f t="shared" si="33"/>
         <v>31.539300566187723</v>
       </c>
       <c r="W28" t="s">
@@ -5894,27 +5997,27 @@
         <v>2665</v>
       </c>
       <c r="F29" s="1">
-        <f>D29*$W$7</f>
+        <f t="shared" si="23"/>
         <v>24670</v>
       </c>
       <c r="G29" s="1">
-        <f>E29*$W$7</f>
+        <f t="shared" si="26"/>
         <v>26650</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="27">C29-C28</f>
+        <f t="shared" ref="H29" si="38">C29-C28</f>
         <v>19408</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="28">D29-D28</f>
+        <f t="shared" ref="I29" si="39">D29-D28</f>
         <v>441</v>
       </c>
       <c r="J29">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="K29" s="4">
-        <f>W$4*EXP(X$4*J29)</f>
         <v>235452.33551415344</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -5933,19 +6036,19 @@
         <v>0.99946477685207513</v>
       </c>
       <c r="P29" s="4">
-        <f>M29*J29+N29</f>
+        <f t="shared" si="31"/>
         <v>140298.60000000003</v>
       </c>
       <c r="Q29" s="4">
-        <f>P29-C29</f>
+        <f t="shared" si="8"/>
         <v>-587.39999999996508</v>
       </c>
       <c r="R29" s="9">
-        <f>24*((2*J29+N29/M29)-J29)</f>
+        <f t="shared" si="32"/>
         <v>179.23997913317498</v>
       </c>
       <c r="T29">
-        <f>2*J29+N29/M29</f>
+        <f t="shared" si="33"/>
         <v>33.468332463882291</v>
       </c>
       <c r="W29">
@@ -5973,27 +6076,27 @@
         <v>5644</v>
       </c>
       <c r="F30" s="1">
-        <f>D30*$W$7</f>
+        <f t="shared" si="23"/>
         <v>29780</v>
       </c>
       <c r="G30" s="1">
-        <f>E30*$W$7</f>
+        <f t="shared" si="26"/>
         <v>56440</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30" si="29">C30-C29</f>
+        <f t="shared" ref="H30" si="40">C30-C29</f>
         <v>20921</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="30">D30-D29</f>
+        <f t="shared" ref="I30" si="41">D30-D29</f>
         <v>511</v>
       </c>
       <c r="J30">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="K30" s="4">
-        <f>W$4*EXP(X$4*J30)</f>
         <v>315421.0761973795</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -6012,19 +6115,19 @@
         <v>0.99915839728158939</v>
       </c>
       <c r="P30" s="4">
-        <f>M30*J30+N30</f>
+        <f t="shared" si="31"/>
         <v>160510.52380952385</v>
       </c>
       <c r="Q30" s="4">
-        <f>P30-C30</f>
+        <f t="shared" si="8"/>
         <v>-1296.4761904761544</v>
       </c>
       <c r="R30" s="9">
-        <f>24*((2*J30+N30/M30)-J30)</f>
+        <f t="shared" si="32"/>
         <v>200.90243713456397</v>
       </c>
       <c r="T30">
-        <f>2*J30+N30/M30</f>
+        <f t="shared" si="33"/>
         <v>35.370934880606832</v>
       </c>
       <c r="W30">
@@ -6051,27 +6154,27 @@
         <v>7024</v>
       </c>
       <c r="F31" s="1">
-        <f>D31*$W$7</f>
+        <f t="shared" si="23"/>
         <v>38730</v>
       </c>
       <c r="G31" s="1">
-        <f>E31*$W$7</f>
+        <f t="shared" si="26"/>
         <v>70240</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="31">C31-C30</f>
+        <f t="shared" ref="H31" si="42">C31-C30</f>
         <v>26365</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31" si="32">D31-D30</f>
+        <f t="shared" ref="I31" si="43">D31-D30</f>
         <v>895</v>
       </c>
       <c r="J31">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K31" s="4">
-        <f>W$4*EXP(X$4*J31)</f>
         <v>422550.30128394108</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -6090,19 +6193,19 @@
         <v>0.99611897918583714</v>
       </c>
       <c r="P31" s="4">
-        <f>M31*J31+N31</f>
+        <f t="shared" si="31"/>
         <v>183625.53571428574</v>
       </c>
       <c r="Q31" s="4">
-        <f>P31-C31</f>
+        <f t="shared" si="8"/>
         <v>-4546.4642857142608</v>
       </c>
       <c r="R31" s="9">
-        <f>24*((2*J31+N31/M31)-J31)</f>
+        <f t="shared" si="32"/>
         <v>219.42865068737962</v>
       </c>
       <c r="T31">
-        <f>2*J31+N31/M31</f>
+        <f t="shared" si="33"/>
         <v>37.142860445307484</v>
       </c>
       <c r="W31">
@@ -6119,21 +6222,70 @@
       <c r="B32" t="s">
         <v>10</v>
       </c>
+      <c r="C32">
+        <v>215417</v>
+      </c>
+      <c r="D32">
+        <v>5116</v>
+      </c>
+      <c r="E32">
+        <v>8566</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="23"/>
+        <v>51160</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="26"/>
+        <v>85660</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="44">C32-C31</f>
+        <v>27245</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="45">D32-D31</f>
+        <v>1243</v>
+      </c>
       <c r="J32">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="K32" s="4">
-        <f>W$4*EXP(X$4*J32)</f>
         <v>566064.76418024604</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="9"/>
+      <c r="L32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="4">
+        <f>SLOPE($C$25:C32,$J$25:J32)</f>
+        <v>21059.654761904763</v>
+      </c>
+      <c r="N32" s="4">
+        <f>INTERCEPT($C$25:C32,$J$25:J32)</f>
+        <v>-402142.32142857148</v>
+      </c>
+      <c r="O32" s="14">
+        <f>INDEX(LINEST($C$25:C32,$J$25:J32,1,1),3,1)</f>
+        <v>0.99338936818800627</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" ref="P32" si="46">M32*J32+N32</f>
+        <v>208587.66666666663</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" ref="Q32" si="47">P32-C32</f>
+        <v>-6829.3333333333721</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" ref="R32" si="48">24*((2*J32+N32/M32)-J32)</f>
+        <v>237.71063944769134</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T32:T33" si="49">2*J32+N32/M32</f>
+        <v>38.904609976987139</v>
+      </c>
       <c r="W32">
         <v>449460.73754286527</v>
       </c>
@@ -6148,21 +6300,68 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
+      <c r="C33">
+        <v>243453</v>
+      </c>
+      <c r="D33">
+        <v>5926</v>
+      </c>
+      <c r="E33">
+        <v>9001</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="23"/>
+        <v>59260</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="26"/>
+        <v>90010</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="50">C33-C32</f>
+        <v>28036</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="51">D33-D32</f>
+        <v>810</v>
+      </c>
       <c r="J33">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K33" s="4">
-        <f>W$4*EXP(X$4*J33)</f>
         <v>758322.30215620936</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="9"/>
+      <c r="M33" s="4">
+        <f>SLOPE($C$25:C33,$J$25:J33)</f>
+        <v>21980.033333333333</v>
+      </c>
+      <c r="N33" s="4">
+        <f>INTERCEPT($C$25:C33,$J$25:J33)</f>
+        <v>-424538.20000000007</v>
+      </c>
+      <c r="O33" s="14">
+        <f>INDEX(LINEST($C$25:C33,$J$25:J33,1,1),3,1)</f>
+        <v>0.99170192037883331</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" ref="P33" si="52">M33*J33+N33</f>
+        <v>234862.79999999993</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" ref="Q33" si="53">P33-C33</f>
+        <v>-8590.2000000000698</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" ref="R33" si="54">24*((2*J33+N33/M33)-J33)</f>
+        <v>256.44670845206463</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="49"/>
+        <v>40.685279518836026</v>
+      </c>
       <c r="W33">
         <v>449460.73754286527</v>
       </c>
@@ -6178,11 +6377,11 @@
         <v>12</v>
       </c>
       <c r="J34">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="K34" s="4">
-        <f>W$4*EXP(X$4*J34)</f>
         <v>1015877.9530823868</v>
       </c>
       <c r="L34" s="4"/>
@@ -6201,11 +6400,11 @@
         <v>13</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K35" s="4">
-        <f>W$4*EXP(X$4*J35)</f>
+        <f t="shared" ref="K35:K66" si="55">W$4*EXP(X$4*J35)</f>
         <v>1360909.4874625946</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -6226,11 +6425,11 @@
         <v>14</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="K36" s="4">
-        <f>W$4*EXP(X$4*J36)</f>
+        <f t="shared" si="55"/>
         <v>1823127.1064069455</v>
       </c>
       <c r="L36" s="4"/>
@@ -6244,11 +6443,11 @@
         <v>8</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K37" s="4">
-        <f>W$4*EXP(X$4*J37)</f>
+        <f t="shared" si="55"/>
         <v>2442331.7470678678</v>
       </c>
       <c r="L37" s="4"/>
@@ -6265,11 +6464,11 @@
         <v>42</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K38" s="4">
-        <f>W$4*EXP(X$4*J38)</f>
+        <f t="shared" si="55"/>
         <v>3271842.2877774565</v>
       </c>
       <c r="L38" s="4"/>
@@ -6283,11 +6482,11 @@
         <v>10</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K39" s="4">
-        <f>W$4*EXP(X$4*J39)</f>
+        <f t="shared" si="55"/>
         <v>4383086.7649084078</v>
       </c>
       <c r="L39" s="4"/>
@@ -6304,11 +6503,11 @@
         <v>11</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="K40" s="4">
-        <f>W$4*EXP(X$4*J40)</f>
+        <f t="shared" si="55"/>
         <v>5871752.9449640783</v>
       </c>
       <c r="L40" s="4"/>
@@ -6322,11 +6521,11 @@
         <v>12</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K41" s="4">
-        <f>W$4*EXP(X$4*J41)</f>
+        <f t="shared" si="55"/>
         <v>7866027.8693832317</v>
       </c>
       <c r="L41" s="4"/>
@@ -6340,11 +6539,11 @@
         <v>13</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="K42" s="4">
-        <f>W$4*EXP(X$4*J42)</f>
+        <f t="shared" si="55"/>
         <v>10537635.868174648</v>
       </c>
       <c r="L42" s="4"/>
@@ -6358,11 +6557,11 @@
         <v>14</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K43" s="4">
-        <f>W$4*EXP(X$4*J43)</f>
+        <f t="shared" si="55"/>
         <v>14116625.510881616</v>
       </c>
       <c r="L43" s="4"/>
@@ -6376,11 +6575,11 @@
         <v>8</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="K44" s="4">
-        <f>W$4*EXP(X$4*J44)</f>
+        <f t="shared" si="55"/>
         <v>18911178.779324546</v>
       </c>
       <c r="L44" s="4"/>
@@ -6394,11 +6593,11 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="K45" s="4">
-        <f>W$4*EXP(X$4*J45)</f>
+        <f t="shared" si="55"/>
         <v>25334148.203329325</v>
       </c>
       <c r="L45" s="4"/>
@@ -6412,11 +6611,11 @@
         <v>10</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="K46" s="4">
-        <f>W$4*EXP(X$4*J46)</f>
+        <f t="shared" si="55"/>
         <v>33938607.036487415</v>
       </c>
       <c r="L46" s="4"/>
@@ -6430,11 +6629,11 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="K47" s="4">
-        <f>W$4*EXP(X$4*J47)</f>
+        <f t="shared" si="55"/>
         <v>45465473.649741426</v>
       </c>
       <c r="L47" s="4"/>
@@ -6448,11 +6647,11 @@
         <v>12</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="K48" s="4">
-        <f>W$4*EXP(X$4*J48)</f>
+        <f t="shared" si="55"/>
         <v>60907311.015239298</v>
       </c>
       <c r="L48" s="4"/>
@@ -6470,7 +6669,7 @@
         <v>46</v>
       </c>
       <c r="K49" s="4">
-        <f>W$4*EXP(X$4*J49)</f>
+        <f t="shared" si="55"/>
         <v>81593794.968155891</v>
       </c>
       <c r="L49" s="4"/>
@@ -6484,11 +6683,11 @@
         <v>14</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="K50" s="4">
-        <f>W$4*EXP(X$4*J50)</f>
+        <f t="shared" si="55"/>
         <v>109306210.80348961</v>
       </c>
       <c r="L50" s="4"/>
@@ -6502,11 +6701,11 @@
         <v>8</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="K51" s="4">
-        <f>W$4*EXP(X$4*J51)</f>
+        <f t="shared" si="55"/>
         <v>146430837.35570687</v>
       </c>
       <c r="L51" s="4"/>
@@ -6520,11 +6719,11 @@
         <v>9</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="K52" s="4">
-        <f>W$4*EXP(X$4*J52)</f>
+        <f t="shared" si="55"/>
         <v>196164426.25791708</v>
       </c>
       <c r="L52" s="4"/>
@@ -6538,11 +6737,11 @@
         <v>10</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K53" s="4">
-        <f>W$4*EXP(X$4*J53)</f>
+        <f t="shared" si="55"/>
         <v>262789469.92307162</v>
       </c>
       <c r="L53" s="4"/>
@@ -6556,11 +6755,11 @@
         <v>11</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="K54" s="4">
-        <f>W$4*EXP(X$4*J54)</f>
+        <f t="shared" si="55"/>
         <v>352042961.20261478</v>
       </c>
       <c r="L54" s="4"/>
@@ -6574,11 +6773,11 @@
         <v>12</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K55" s="4">
-        <f>W$4*EXP(X$4*J55)</f>
+        <f t="shared" si="55"/>
         <v>471610398.12054008</v>
       </c>
       <c r="L55" s="4"/>
@@ -6592,11 +6791,11 @@
         <v>13</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="K56" s="4">
-        <f>W$4*EXP(X$4*J56)</f>
+        <f t="shared" si="55"/>
         <v>631787571.76572323</v>
       </c>
       <c r="L56" s="4"/>
@@ -6610,11 +6809,11 @@
         <v>14</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="K57" s="4">
-        <f>W$4*EXP(X$4*J57)</f>
+        <f t="shared" si="55"/>
         <v>846367123.00734258</v>
       </c>
       <c r="L57" s="4"/>
@@ -6628,11 +6827,11 @@
         <v>8</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="K58" s="4">
-        <f>W$4*EXP(X$4*J58)</f>
+        <f t="shared" si="55"/>
         <v>1133826208.2391124</v>
       </c>
       <c r="L58" s="4"/>
@@ -6646,11 +6845,11 @@
         <v>9</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="K59" s="4">
-        <f>W$4*EXP(X$4*J59)</f>
+        <f t="shared" si="55"/>
         <v>1518917542.4512918</v>
       </c>
       <c r="L59" s="4"/>
@@ -6664,11 +6863,11 @@
         <v>10</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="K60" s="4">
-        <f>W$4*EXP(X$4*J60)</f>
+        <f t="shared" si="55"/>
         <v>2034800822.2082989</v>
       </c>
       <c r="L60" s="4"/>
@@ -6682,11 +6881,11 @@
         <v>11</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="K61" s="4">
-        <f>W$4*EXP(X$4*J61)</f>
+        <f t="shared" si="55"/>
         <v>2725898062.4962783</v>
       </c>
       <c r="L61" s="4"/>
@@ -6700,11 +6899,11 @@
         <v>12</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="K62" s="4">
-        <f>W$4*EXP(X$4*J62)</f>
+        <f t="shared" si="55"/>
         <v>3651718716.6539841</v>
       </c>
       <c r="L62" s="4"/>
@@ -6718,11 +6917,11 @@
         <v>13</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K63" s="4">
-        <f>W$4*EXP(X$4*J63)</f>
+        <f t="shared" si="55"/>
         <v>4891983955.3168287</v>
       </c>
       <c r="L63" s="4"/>
@@ -6736,11 +6935,11 @@
         <v>14</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="K64" s="4">
-        <f>W$4*EXP(X$4*J64)</f>
+        <f t="shared" si="55"/>
         <v>6553491349.1380224</v>
       </c>
       <c r="L64" s="4"/>
@@ -6754,11 +6953,11 @@
         <v>8</v>
       </c>
       <c r="J65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="K65" s="4">
-        <f>W$4*EXP(X$4*J65)</f>
+        <f t="shared" si="55"/>
         <v>8779311063.8780098</v>
       </c>
       <c r="L65" s="4"/>
@@ -6772,11 +6971,11 @@
         <v>9</v>
       </c>
       <c r="J66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="K66" s="4">
-        <f>W$4*EXP(X$4*J66)</f>
+        <f t="shared" si="55"/>
         <v>11761105439.846031</v>
       </c>
       <c r="L66" s="4"/>
@@ -6796,8 +6995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6824,10 +7023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6837,12 +7036,12 @@
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6853,7 +7052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6864,7 +7063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6875,7 +7074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -6883,8 +7082,8 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>"probable cases " &amp; B3 &amp; " days ago."</f>
         <v>probable cases 18 days ago.</v>
@@ -6893,8 +7092,12 @@
         <f>B6/B4</f>
         <v>387300</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="34">
+        <f ca="1">TODAY()-18</f>
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>"number of doubles in " &amp; B3 &amp; " days"</f>
         <v>number of doubles in 18 days</v>
@@ -6904,7 +7107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -6915,7 +7118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6932,7 +7135,7 @@
         <v>3098400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>"number of deaths in " &amp; B3 &amp; " days."</f>
         <v>number of deaths in 18 days.</v>
@@ -6948,6 +7151,9 @@
       <c r="D12" s="13">
         <f>D11*$B$4</f>
         <v>30984</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
     <sheet name="Screenshots" sheetId="3" r:id="rId3"/>
     <sheet name="Death Projection" sheetId="4" r:id="rId4"/>
+    <sheet name="Incubation" sheetId="5" r:id="rId5"/>
+    <sheet name="Mortality" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -168,24 +170,15 @@
     <t>f/c error</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>exp</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>lin</t>
-  </si>
-  <si>
     <t>R^2</t>
   </si>
   <si>
@@ -202,6 +195,111 @@
   </si>
   <si>
     <t>prediction was 24000, on Friday, 3/28</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>actuals</t>
+  </si>
+  <si>
+    <t>From Github:</t>
+  </si>
+  <si>
+    <t>Incubation Period</t>
+  </si>
+  <si>
+    <t>Peer Review</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>excluding Wuhan</t>
+  </si>
+  <si>
+    <t>Linton NM. et al.</t>
+  </si>
+  <si>
+    <t>including Wuhan</t>
+  </si>
+  <si>
+    <t>Mainland China</t>
+  </si>
+  <si>
+    <t>Famulare et al.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Lauer SA. et al.</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Sanche S. et al.</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Tindale LC. et al.</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Qin J. et al.</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Qifang Bi et al.</t>
+  </si>
+  <si>
+    <t>https://github.com/midas-network/COVID-19/tree/master/parameter_estimates/2019_novel_coronavirus</t>
+  </si>
+  <si>
+    <t>Time From Symptom Onset To Death</t>
+  </si>
+  <si>
+    <t>Dorigatt I. et al.</t>
+  </si>
+  <si>
+    <t>Jung S. et al.</t>
   </si>
 </sst>
 </file>
@@ -212,11 +310,11 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +363,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,13 +516,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -425,11 +540,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -452,10 +566,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -622,8 +755,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="3"/>
+            <c:trendlineType val="exp"/>
+            <c:forward val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -669,10 +802,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$28:$J$36</c:f>
+              <c:f>Summary!$J$28:$J$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -699,16 +832,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$28:$C$36</c:f>
+              <c:f>Summary!$C$28:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>121478</c:v>
                 </c:pt>
@@ -726,6 +862,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>243453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,10 +920,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$36</c:f>
+              <c:f>Summary!$J$3:$J$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -877,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$F$3:$F$36</c:f>
+              <c:f>Summary!$F$3:$F$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -979,6 +1130,18 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>59260</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70870</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84070</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96190</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,10 +1188,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$36</c:f>
+              <c:f>Summary!$J$3:$J$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1130,16 +1293,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$G$3:$G$36</c:f>
+              <c:f>Summary!$G$3:$G$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -1229,6 +1395,18 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>90010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97070</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>174480</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370627160"/>
-        <c:axId val="153024416"/>
+        <c:axId val="484147176"/>
+        <c:axId val="484147960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370627160"/>
+        <c:axId val="484147176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,12 +1769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153024416"/>
+        <c:crossAx val="484147960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153024416"/>
+        <c:axId val="484147960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370627160"/>
+        <c:crossAx val="484147176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1970,6 +2148,18 @@
                 <c:pt idx="29">
                   <c:v>243453</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>275586</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>308850</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337072</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>366614</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2068,6 +2258,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>28036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32133</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33264</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,11 +2284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372446776"/>
-        <c:axId val="372452656"/>
+        <c:axId val="484150312"/>
+        <c:axId val="484147568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372446776"/>
+        <c:axId val="484150312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2215,12 +2417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372452656"/>
+        <c:crossAx val="484147568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372452656"/>
+        <c:axId val="484147568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2349,7 +2551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372446776"/>
+        <c:crossAx val="484150312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3540,13 +3742,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>32017</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>573037</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>146603</xdr:rowOff>
     </xdr:to>
@@ -3565,7 +3767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13533120" y="4922520"/>
+          <a:off x="15011400" y="5105400"/>
           <a:ext cx="2942857" cy="657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3605,6 +3807,44 @@
         <a:xfrm>
           <a:off x="13571220" y="7071360"/>
           <a:ext cx="4085714" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>550044</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12504420" y="4015740"/>
+          <a:ext cx="4009524" cy="2314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3760,7 +4000,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>linear fit by Richard Pellessier</a:t>
+            <a:t>exponential fit by Richard Pellessier</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900">
             <a:effectLst/>
@@ -4083,11 +4323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4106,7 +4346,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="10.44140625" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" customWidth="1"/>
@@ -4141,7 +4381,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -4170,17 +4410,17 @@
         <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>33</v>
@@ -4193,19 +4433,19 @@
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U2" s="2"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="18"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
@@ -4239,29 +4479,29 @@
         <v>117.55</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="18"/>
+      <c r="W3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="23"/>
+      <c r="AC3" s="22"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -4304,32 +4544,32 @@
         <v>157.47453694199237</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="22">
+      <c r="V4" s="18"/>
+      <c r="W4" s="21">
         <f>Z6</f>
         <v>117.55</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="21">
         <f>AA6</f>
         <v>0.29239999999999999</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="23">
         <v>43541</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="21">
         <v>91.9</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="21">
         <v>0.28599999999999998</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AB4" s="24">
         <f>LN(2)/AA4</f>
         <v>2.4235915404193893</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="25">
         <f>AB4*24</f>
         <v>58.166196970065343</v>
       </c>
@@ -4375,26 +4615,26 @@
         <v>210.95899434364034</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="24">
+      <c r="V5" s="18"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23">
         <v>43909</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="21">
         <v>92.456999999999994</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="21">
         <v>0.28439999999999999</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AB5" s="24">
         <f t="shared" ref="AB5:AB6" si="6">LN(2)/AA5</f>
         <v>2.4372263732768822</v>
       </c>
-      <c r="AC5" s="26">
+      <c r="AC5" s="25">
         <f>AB5*24</f>
         <v>58.493432958645172</v>
       </c>
@@ -4440,45 +4680,49 @@
         <v>282.60884685676865</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="array" ref="M6:N6">LOGEST(C3:C6,J3:J6,1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="M6" s="34">
+        <f t="array" ref="M6:N6">LOGEST($C$3:C6,$J$3:J6,1,0)</f>
         <v>1.3282369996186119</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="35">
         <v>120.21501694494958</v>
       </c>
+      <c r="O6" s="13">
+        <f>INDEX(LOGEST($C$3:C6,$J$3:J6,1,1),3,1)</f>
+        <v>0.99038673955071954</v>
+      </c>
       <c r="P6" s="4">
-        <f t="shared" ref="P6:P25" si="7">N6*EXP((J6*LN(M6)))</f>
-        <v>281.69908968814934</v>
+        <f>N6*EXP(LN(2/J6))</f>
+        <v>80.143344629966379</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q31" si="8">P6-C6</f>
-        <v>3.6990896881493427</v>
+        <f t="shared" ref="Q6:Q29" si="7">P6-C6</f>
+        <v>-197.85665537003362</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" ref="R6:R25" si="9">24*LN(2)/(M6-1)</f>
+        <f t="shared" ref="R6:R28" si="8">24*LN(2)/(M6-1)</f>
         <v>50.681465991853436</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="24">
+      <c r="V6" s="18"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23">
         <v>43912</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="21">
         <v>117.55</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="21">
         <v>0.29239999999999999</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="24">
         <f t="shared" si="6"/>
         <v>2.3705443931598675</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="25">
         <f>AB6*24</f>
         <v>56.893065435836817</v>
       </c>
@@ -4524,51 +4768,55 @@
         <v>378.59376686074074</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="array" ref="M7:N7">LOGEST(C4:C7,J4:J7,1,1)</f>
-        <v>1.3822883235552865</v>
-      </c>
-      <c r="N7">
-        <v>111.38316135347172</v>
+        <v>42</v>
+      </c>
+      <c r="M7" s="34">
+        <f t="array" ref="M7:N7">LOGEST($C$3:C7,$J$3:J7,1,1)</f>
+        <v>1.35734604354744</v>
+      </c>
+      <c r="N7" s="35">
+        <v>117.63693877115561</v>
+      </c>
+      <c r="O7" s="13">
+        <f>INDEX(LOGEST($C$3:C7,$J$3:J7,1,1),3,1)</f>
+        <v>0.99086074640158084</v>
       </c>
       <c r="P7" s="4">
+        <f t="shared" ref="P7:P12" si="9">N7*EXP(LN(2/J7))</f>
+        <v>58.818469385577806</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>406.6437465827234</v>
-      </c>
-      <c r="Q7" s="4">
+        <v>-358.18153061442217</v>
+      </c>
+      <c r="R7" s="9">
         <f t="shared" si="8"/>
-        <v>-10.356253417276605</v>
-      </c>
-      <c r="R7" s="9">
-        <f t="shared" si="9"/>
-        <v>43.515669478805975</v>
+        <v>46.553005507755707</v>
       </c>
       <c r="S7" s="9"/>
-      <c r="V7" s="27" t="s">
+      <c r="V7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <v>10</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="27">
         <v>10</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="23">
         <v>43914</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="21">
         <v>116.95</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA7" s="21">
         <v>0.29320000000000002</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AB7" s="24">
         <f>LN(2)/AA7</f>
         <v>2.3640763320598404</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="25">
         <f>AB7*24</f>
         <v>56.737831969436172</v>
       </c>
@@ -4614,45 +4862,49 @@
         <v>507.17888664840297</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="array" ref="M8:N8">LOGEST(C5:C8,J5:J8,1,1)</f>
-        <v>1.3592011381028988</v>
-      </c>
-      <c r="N8">
-        <v>116.98866881825454</v>
+        <v>42</v>
+      </c>
+      <c r="M8" s="34">
+        <f t="array" ref="M8:N8">LOGEST($C$3:C8,$J$3:J8,1,1)</f>
+        <v>1.35555131298955</v>
+      </c>
+      <c r="N8" s="35">
+        <v>117.84465074893465</v>
+      </c>
+      <c r="O8" s="13">
+        <f>INDEX(LOGEST($C$3:C8,$J$3:J8,1,1),3,1)</f>
+        <v>0.99468661324196472</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" si="9"/>
+        <v>47.137860299573866</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>542.70328056188441</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>-489.86213970042616</v>
+      </c>
+      <c r="R8" s="9">
         <f t="shared" si="8"/>
-        <v>5.7032805618844122</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="9"/>
-        <v>46.312582474817155</v>
+        <v>46.787992972276328</v>
       </c>
       <c r="S8" s="9"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31">
+      <c r="V8" s="28"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="30">
         <v>43916</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="29">
         <v>119.42</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="29">
         <v>0.2903</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AB8" s="31">
         <f>LN(2)/AA8</f>
         <v>2.3876926646915098</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="32">
         <f>AB8*24</f>
         <v>57.304623952596231</v>
       </c>
@@ -4698,26 +4950,30 @@
         <v>679.43649784527861</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="10">
-        <f t="array" ref="M9:N9">LOGEST(C6:C9,J6:J9,1,1)</f>
-        <v>1.2950811931161206</v>
-      </c>
-      <c r="N9">
-        <v>137.60719514477469</v>
+        <v>42</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="array" ref="M9:N9">LOGEST($C$3:C9,$J$3:J9,1,1)</f>
+        <v>1.3283222060422724</v>
+      </c>
+      <c r="N9" s="35">
+        <v>121.89823630186045</v>
+      </c>
+      <c r="O9" s="13">
+        <f>INDEX(LOGEST($C$3:C9,$J$3:J9,1,1),3,1)</f>
+        <v>0.98780435696510238</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="9"/>
+        <v>40.632745433953481</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>649.26669069466197</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>-564.36725456604654</v>
+      </c>
+      <c r="R9" s="9">
         <f t="shared" si="8"/>
-        <v>44.266690694661975</v>
-      </c>
-      <c r="R9" s="9">
-        <f t="shared" si="9"/>
-        <v>56.376118578632216</v>
+        <v>50.668313100018636</v>
       </c>
       <c r="S9" s="9"/>
       <c r="V9" s="8"/>
@@ -4763,26 +5019,30 @@
         <v>910.19947154125293</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="array" ref="M10:N10">LOGEST(C7:C10,J7:J10,1,1)</f>
-        <v>1.2992205299287292</v>
-      </c>
-      <c r="N10">
-        <v>142.28701567230362</v>
+        <v>42</v>
+      </c>
+      <c r="M10" s="34">
+        <f t="array" ref="M10:N10">LOGEST($C$3:C10,$J$3:J10,1,1)</f>
+        <v>1.336682295553125</v>
+      </c>
+      <c r="N10" s="35">
+        <v>120.37821419336248</v>
+      </c>
+      <c r="O10" s="13">
+        <f>INDEX(LOGEST($C$3:C10,$J$3:J10,1,1),3,1)</f>
+        <v>0.99126337810614773</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="9"/>
+        <v>34.393775483817848</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>889.08931805648433</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>-924.60622451618212</v>
+      </c>
+      <c r="R10" s="9">
         <f t="shared" si="8"/>
-        <v>-69.910681943515669</v>
-      </c>
-      <c r="R10" s="9">
-        <f t="shared" si="9"/>
-        <v>55.596226426713017</v>
+        <v>49.410178536737966</v>
       </c>
       <c r="S10" s="9"/>
       <c r="V10" s="8"/>
@@ -4828,26 +5088,30 @@
         <v>1219.3384968592509</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="array" ref="M11:N11">LOGEST(C8:C11,J8:J11,1,1)</f>
-        <v>1.3591856367652786</v>
-      </c>
-      <c r="N11">
-        <v>108.13400845469288</v>
+        <v>42</v>
+      </c>
+      <c r="M11" s="34">
+        <f t="array" ref="M11:N11">LOGEST($C$3:C11,$J$3:J11,1,1)</f>
+        <v>1.3405404001808567</v>
+      </c>
+      <c r="N11" s="35">
+        <v>119.57137874685516</v>
+      </c>
+      <c r="O11" s="13">
+        <f>INDEX(LOGEST($C$3:C11,$J$3:J11,1,1),3,1)</f>
+        <v>0.9937646711556668</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="9"/>
+        <v>29.89284468671379</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="7"/>
-        <v>1259.4835918317506</v>
-      </c>
-      <c r="Q11" s="4">
+        <v>-1251.1071553132863</v>
+      </c>
+      <c r="R11" s="9">
         <f t="shared" si="8"/>
-        <v>-21.516408168249427</v>
-      </c>
-      <c r="R11" s="9">
-        <f t="shared" si="9"/>
-        <v>46.314581182180483</v>
+        <v>48.850392859712869</v>
       </c>
       <c r="S11" s="9"/>
       <c r="V11" s="8"/>
@@ -4893,26 +5157,30 @@
         <v>1633.4731192552574</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="array" ref="M12:N12">LOGEST(C9:C12,J9:J12,1,1)</f>
-        <v>1.3941648038370946</v>
-      </c>
-      <c r="N12">
-        <v>87.226406388290542</v>
+        <v>42</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="array" ref="M12:N12">LOGEST($C$3:C12,$J$3:J12,1,1)</f>
+        <v>1.3401609318252559</v>
+      </c>
+      <c r="N12" s="35">
+        <v>119.66168483947355</v>
+      </c>
+      <c r="O12" s="13">
+        <f>INDEX(LOGEST($C$3:C12,$J$3:J12,1,1),3,1)</f>
+        <v>0.99544627106466532</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>26.591485519883008</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>1735.7013935057123</v>
-      </c>
-      <c r="Q12" s="4">
+        <v>-1636.408514480117</v>
+      </c>
+      <c r="R12" s="9">
         <f t="shared" si="8"/>
-        <v>72.701393505712304</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" si="9"/>
-        <v>42.204509817964436</v>
+        <v>48.904888178000782</v>
       </c>
       <c r="S12" s="9"/>
       <c r="V12" s="8"/>
@@ -4958,26 +5226,30 @@
         <v>2188.2639137551137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="array" ref="M13:N13">LOGEST(C10:C13,J10:J13,1,1)</f>
-        <v>1.3130035456658515</v>
-      </c>
-      <c r="N13">
-        <v>143.50570404779202</v>
+        <v>42</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="array" ref="M13:N13">LOGEST($C$3:C13,$J$3:J13,1,1)</f>
+        <v>1.3385814368708706</v>
+      </c>
+      <c r="N13" s="35">
+        <v>120.08577887995615</v>
+      </c>
+      <c r="O13" s="13">
+        <f>INDEX(LOGEST($C$3:C13,$J$3:J13,1,1),3,1)</f>
+        <v>0.99650447327222935</v>
       </c>
       <c r="P13" s="4">
+        <f t="shared" ref="P13:P22" si="11">N13*EXP(J13*(M13-1))</f>
+        <v>3547.5790075758232</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="7"/>
-        <v>2185.3859789878825</v>
-      </c>
-      <c r="Q13" s="4">
+        <v>1368.5790075758232</v>
+      </c>
+      <c r="R13" s="9">
         <f t="shared" si="8"/>
-        <v>6.3859789878824813</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" si="9"/>
-        <v>53.148063540462353</v>
+        <v>49.133031294279739</v>
       </c>
       <c r="S13" s="9"/>
       <c r="V13" s="8"/>
@@ -5023,26 +5295,30 @@
         <v>2931.4831690808892</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="10">
-        <f t="array" ref="M14:N14">LOGEST(C11:C14,J11:J14,1,1)</f>
-        <v>1.2886337887729267</v>
-      </c>
-      <c r="N14">
-        <v>169.56090513046144</v>
+        <v>42</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="array" ref="M14:N14">LOGEST($C$3:C14,$J$3:J14,1,1)</f>
+        <v>1.3341954979800561</v>
+      </c>
+      <c r="N14" s="35">
+        <v>121.40670425316706</v>
+      </c>
+      <c r="O14" s="13">
+        <f>INDEX(LOGEST($C$3:C14,$J$3:J14,1,1),3,1)</f>
+        <v>0.99681819936143901</v>
       </c>
       <c r="P14" s="4">
+        <f t="shared" si="11"/>
+        <v>4794.84460641851</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="7"/>
-        <v>2758.9916564656523</v>
-      </c>
-      <c r="Q14" s="4">
+        <v>2068.84460641851</v>
+      </c>
+      <c r="R14" s="9">
         <f t="shared" si="8"/>
-        <v>32.991656465652341</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="9"/>
-        <v>57.635429324340663</v>
+        <v>49.77784690095212</v>
       </c>
       <c r="S14" s="9"/>
       <c r="V14" s="8"/>
@@ -5072,7 +5348,7 @@
         <v>120</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15" si="11">C15-C14</f>
+        <f t="shared" ref="H15" si="12">C15-C14</f>
         <v>773</v>
       </c>
       <c r="I15">
@@ -5088,26 +5364,30 @@
         <v>3927.1284951446814</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="array" ref="M15:N15">LOGEST(C12:C15,J12:J15,1,1)</f>
-        <v>1.2783282015160184</v>
-      </c>
-      <c r="N15">
-        <v>184.03902858887233</v>
+        <v>42</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="array" ref="M15:N15">LOGEST($C$3:C15,$J$3:J15,1,1)</f>
+        <v>1.3298544710637625</v>
+      </c>
+      <c r="N15" s="35">
+        <v>122.86616355990432</v>
+      </c>
+      <c r="O15" s="13">
+        <f>INDEX(LOGEST($C$3:C15,$J$3:J15,1,1),3,1)</f>
+        <v>0.99696439051242258</v>
       </c>
       <c r="P15" s="4">
+        <f t="shared" si="11"/>
+        <v>6433.9846020910509</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="7"/>
-        <v>3504.4379403243852</v>
-      </c>
-      <c r="Q15" s="4">
+        <v>2934.9846020910509</v>
+      </c>
+      <c r="R15" s="9">
         <f t="shared" si="8"/>
-        <v>5.4379403243851812</v>
-      </c>
-      <c r="R15" s="9">
-        <f t="shared" si="9"/>
-        <v>59.769481650896495</v>
+        <v>50.432944806811349</v>
       </c>
       <c r="S15" s="9"/>
       <c r="V15" s="8"/>
@@ -5137,7 +5417,7 @@
         <v>170</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="12">C16-C15</f>
+        <f t="shared" ref="H16" si="13">C16-C15</f>
         <v>1133</v>
       </c>
       <c r="I16">
@@ -5153,26 +5433,30 @@
         <v>5260.9335711153717</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="array" ref="M16:N16">LOGEST(C13:C16,J13:J16,1,1)</f>
-        <v>1.2855684490150912</v>
-      </c>
-      <c r="N16">
-        <v>174.29263409615066</v>
+        <v>42</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="array" ref="M16:N16">LOGEST($C$3:C16,$J$3:J16,1,1)</f>
+        <v>1.3269602388244586</v>
+      </c>
+      <c r="N16" s="35">
+        <v>123.94160893589539</v>
+      </c>
+      <c r="O16" s="13">
+        <f>INDEX(LOGEST($C$3:C16,$J$3:J16,1,1),3,1)</f>
+        <v>0.99729652025021154</v>
       </c>
       <c r="P16" s="4">
+        <f t="shared" si="11"/>
+        <v>8693.1763015606339</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="7"/>
-        <v>4565.7980848539937</v>
-      </c>
-      <c r="Q16" s="4">
+        <v>4061.1763015606339</v>
+      </c>
+      <c r="R16" s="9">
         <f t="shared" si="8"/>
-        <v>-66.201915146006286</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="9"/>
-        <v>58.254097715674341</v>
+        <v>50.879374180938633</v>
       </c>
       <c r="S16" s="9"/>
       <c r="V16" s="8"/>
@@ -5202,11 +5486,11 @@
         <v>170</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="13">C17-C16</f>
+        <f t="shared" ref="H17" si="14">C17-C16</f>
         <v>1796</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="14">D17-D16</f>
+        <f t="shared" ref="I17" si="15">D17-D16</f>
         <v>23</v>
       </c>
       <c r="J17">
@@ -5218,26 +5502,30 @@
         <v>7047.7505571584525</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="array" ref="M17:N17">LOGEST(C14:C17,J14:J17,1,1)</f>
-        <v>1.3302934900080587</v>
-      </c>
-      <c r="N17">
-        <v>115.87379495698254</v>
+        <v>42</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="array" ref="M17:N17">LOGEST($C$3:C17,$J$3:J17,1,1)</f>
+        <v>1.3265667567330717</v>
+      </c>
+      <c r="N17" s="35">
+        <v>124.10099479339539</v>
+      </c>
+      <c r="O17" s="13">
+        <f>INDEX(LOGEST($C$3:C17,$J$3:J17,1,1),3,1)</f>
+        <v>0.99779295201240903</v>
       </c>
       <c r="P17" s="4">
+        <f t="shared" si="11"/>
+        <v>12004.421299104612</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="7"/>
-        <v>6298.6830023916846</v>
-      </c>
-      <c r="Q17" s="4">
+        <v>5576.4212991046115</v>
+      </c>
+      <c r="R17" s="9">
         <f t="shared" si="8"/>
-        <v>-129.31699760831543</v>
-      </c>
-      <c r="R17" s="9">
-        <f t="shared" si="9"/>
-        <v>50.365910430244327</v>
+        <v>50.940679020296592</v>
       </c>
       <c r="S17" s="9"/>
       <c r="V17" s="8"/>
@@ -5267,11 +5555,11 @@
         <v>1060</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="15">C18-C17</f>
+        <f t="shared" ref="H18" si="16">C18-C17</f>
         <v>1358</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18" si="16">D18-D17</f>
+        <f t="shared" ref="I18" si="17">D18-D17</f>
         <v>10</v>
       </c>
       <c r="J18">
@@ -5283,26 +5571,30 @@
         <v>9441.4398593891601</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="array" ref="M18:N18">LOGEST(C15:C18,J15:J18,1,1)</f>
-        <v>1.3135356637926463</v>
-      </c>
-      <c r="N18">
-        <v>134.37251979807269</v>
+        <v>42</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="array" ref="M18:N18">LOGEST($C$3:C18,$J$3:J18,1,1)</f>
+        <v>1.3236458788095431</v>
+      </c>
+      <c r="N18" s="35">
+        <v>125.38415390284506</v>
+      </c>
+      <c r="O18" s="13">
+        <f>INDEX(LOGEST($C$3:C18,$J$3:J18,1,1),3,1)</f>
+        <v>0.99786581394518703</v>
       </c>
       <c r="P18" s="4">
+        <f t="shared" si="11"/>
+        <v>16091.885825677822</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="7"/>
-        <v>8034.1233147702906</v>
-      </c>
-      <c r="Q18" s="4">
+        <v>8305.8858256778221</v>
+      </c>
+      <c r="R18" s="9">
         <f t="shared" si="8"/>
-        <v>248.12331477029056</v>
-      </c>
-      <c r="R18" s="9">
-        <f t="shared" si="9"/>
-        <v>53.057863122201084</v>
+        <v>51.400414535258918</v>
       </c>
       <c r="S18" s="9"/>
       <c r="V18" s="8"/>
@@ -5332,11 +5624,11 @@
         <v>1080</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="17">C19-C18</f>
+        <f t="shared" ref="H19" si="18">C19-C18</f>
         <v>5894</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19" si="18">D19-D18</f>
+        <f t="shared" ref="I19" si="19">D19-D18</f>
         <v>82</v>
       </c>
       <c r="J19">
@@ -5348,26 +5640,30 @@
         <v>12648.118842390279</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="array" ref="M19:N19">LOGEST(C16:C19,J16:J19,1,1)</f>
-        <v>1.4106494930620239</v>
-      </c>
-      <c r="N19">
-        <v>51.136856864929328</v>
+        <v>42</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="array" ref="M19:N19">LOGEST($C$3:C19,$J$3:J19,1,1)</f>
+        <v>1.3290049699552959</v>
+      </c>
+      <c r="N19" s="35">
+        <v>122.8764589822846</v>
+      </c>
+      <c r="O19" s="13">
+        <f>INDEX(LOGEST($C$3:C19,$J$3:J19,1,1),3,1)</f>
+        <v>0.99726645608596087</v>
       </c>
       <c r="P19" s="4">
+        <f t="shared" si="11"/>
+        <v>23748.127669647642</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>12573.028632949627</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>10068.127669647642</v>
+      </c>
+      <c r="R19" s="9">
         <f t="shared" si="8"/>
-        <v>-1106.9713670503734</v>
-      </c>
-      <c r="R19" s="9">
-        <f t="shared" si="9"/>
-        <v>40.510295554963896</v>
+        <v>50.563164245509924</v>
       </c>
       <c r="S19" s="9"/>
       <c r="V19" s="8"/>
@@ -5397,11 +5693,11 @@
         <v>1470</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="19">C20-C19</f>
+        <f t="shared" ref="H20:H21" si="20">C20-C19</f>
         <v>5421</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="20">D20-D19</f>
+        <f t="shared" ref="I20:I21" si="21">D20-D19</f>
         <v>44</v>
       </c>
       <c r="J20">
@@ -5413,26 +5709,30 @@
         <v>16943.910318100363</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="array" ref="M20:N20">LOGEST(C17:C20,J17:J20,1,1)</f>
-        <v>1.4668011465010524</v>
-      </c>
-      <c r="N20">
-        <v>28.208428085271915</v>
+        <v>42</v>
+      </c>
+      <c r="M20" s="34">
+        <f t="array" ref="M20:N20">LOGEST($C$3:C20,$J$3:J20,1,1)</f>
+        <v>1.3339336827330828</v>
+      </c>
+      <c r="N20" s="35">
+        <v>120.47436339693239</v>
+      </c>
+      <c r="O20" s="13">
+        <f>INDEX(LOGEST($C$3:C20,$J$3:J20,1,1),3,1)</f>
+        <v>0.99688017087495062</v>
       </c>
       <c r="P20" s="4">
+        <f t="shared" si="11"/>
+        <v>35182.693715196125</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="7"/>
-        <v>18997.216776967372</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>16081.693715196125</v>
+      </c>
+      <c r="R20" s="9">
         <f t="shared" si="8"/>
-        <v>-103.78322303262757</v>
-      </c>
-      <c r="R20" s="9">
-        <f t="shared" si="9"/>
-        <v>35.637299647037565</v>
+        <v>49.81687440837068</v>
       </c>
       <c r="S20" s="9"/>
       <c r="V20" s="8"/>
@@ -5462,11 +5762,11 @@
         <v>1710</v>
       </c>
       <c r="H21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6392</v>
       </c>
       <c r="I21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63</v>
       </c>
       <c r="J21">
@@ -5478,26 +5778,30 @@
         <v>22698.719109566147</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="array" ref="M21:N21">LOGEST(C18:C21,J18:J21,1,1)</f>
-        <v>1.4758049568589158</v>
-      </c>
-      <c r="N21">
-        <v>24.532480895857049</v>
+        <v>42</v>
+      </c>
+      <c r="M21" s="34">
+        <f t="array" ref="M21:N21">LOGEST($C$3:C21,$J$3:J21,1,1)</f>
+        <v>1.3374840371478596</v>
+      </c>
+      <c r="N21" s="35">
+        <v>118.67335449656478</v>
+      </c>
+      <c r="O21" s="13">
+        <f>INDEX(LOGEST($C$3:C21,$J$3:J21,1,1),3,1)</f>
+        <v>0.99692427902372649</v>
       </c>
       <c r="P21" s="4">
+        <f t="shared" si="11"/>
+        <v>51590.223546958077</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="7"/>
-        <v>27055.952878764441</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>26097.223546958077</v>
+      </c>
+      <c r="R21" s="9">
         <f t="shared" si="8"/>
-        <v>1562.9528787644413</v>
-      </c>
-      <c r="R21" s="9">
-        <f t="shared" si="9"/>
-        <v>34.962923554349189</v>
+        <v>49.29279759134289</v>
       </c>
       <c r="S21" s="9"/>
       <c r="V21" s="8"/>
@@ -5527,11 +5831,11 @@
         <v>1780</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="21">C22-C21</f>
+        <f t="shared" ref="H22" si="22">C22-C21</f>
         <v>7783</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="22">D22-D21</f>
+        <f t="shared" ref="I22" si="23">D22-D21</f>
         <v>110</v>
       </c>
       <c r="J22">
@@ -5543,26 +5847,30 @@
         <v>30408.084057467331</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="array" ref="M22:N22">LOGEST(C19:C22,J19:J22,1,1)</f>
-        <v>1.3438475058649393</v>
-      </c>
-      <c r="N22">
-        <v>123.11153539760852</v>
+        <v>42</v>
+      </c>
+      <c r="M22" s="34">
+        <f t="array" ref="M22:N22">LOGEST($C$3:C22,$J$3:J22,1,1)</f>
+        <v>1.3396104502529953</v>
+      </c>
+      <c r="N22" s="35">
+        <v>117.54758265341202</v>
+      </c>
+      <c r="O22" s="13">
+        <f>INDEX(LOGEST($C$3:C22,$J$3:J22,1,1),3,1)</f>
+        <v>0.99721484337461697</v>
       </c>
       <c r="P22" s="4">
+        <f t="shared" si="11"/>
+        <v>74566.137719437771</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="7"/>
-        <v>33802.478895283573</v>
-      </c>
-      <c r="Q22" s="4">
+        <v>41290.137719437771</v>
+      </c>
+      <c r="R22" s="9">
         <f t="shared" si="8"/>
-        <v>526.47889528357337</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" si="9"/>
-        <v>48.380552569641139</v>
+        <v>48.984159118324904</v>
       </c>
       <c r="S22" s="9"/>
     </row>
@@ -5580,16 +5888,16 @@
         <v>552</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F33" si="23">D23*$W$7</f>
+        <f t="shared" ref="F23:F33" si="24">D23*$W$7</f>
         <v>5520</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23">
-        <f t="shared" ref="H23:H24" si="24">C23-C22</f>
+        <f t="shared" ref="H23:H24" si="25">C23-C22</f>
         <v>10391</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I24" si="25">D23-D22</f>
+        <f t="shared" ref="I23:I24" si="26">D23-D22</f>
         <v>135</v>
       </c>
       <c r="J23">
@@ -5601,26 +5909,30 @@
         <v>40735.848202831541</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="array" ref="M23:N23">LOGEST(C20:C23,J20:J23,1,1)</f>
-        <v>1.3161342543607504</v>
-      </c>
-      <c r="N23">
-        <v>180.04738602122725</v>
+        <v>42</v>
+      </c>
+      <c r="M23" s="34">
+        <f t="array" ref="M23:N23">LOGEST($C$3:C23,$J$3:J23,1,1)</f>
+        <v>1.3408275688107487</v>
+      </c>
+      <c r="N23" s="35">
+        <v>116.87343528848896</v>
+      </c>
+      <c r="O23" s="13">
+        <f>INDEX(LOGEST($C$3:C23,$J$3:J23,1,1),3,1)</f>
+        <v>0.9975481364205171</v>
       </c>
       <c r="P23" s="4">
+        <f t="shared" ref="P23:P25" si="27">N23*EXP((J23*LN(M23)))</f>
+        <v>41226.306529532769</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>43791.585487099568</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>-2440.6934704672312</v>
+      </c>
+      <c r="R23" s="9">
         <f t="shared" si="8"/>
-        <v>124.58548709956813</v>
-      </c>
-      <c r="R23" s="9">
-        <f t="shared" si="9"/>
-        <v>52.621733026296404</v>
+        <v>48.809233336038893</v>
       </c>
       <c r="S23" s="9"/>
     </row>
@@ -5641,19 +5953,19 @@
         <v>348</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7060</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G33" si="26">E24*$W$7</f>
+        <f t="shared" ref="G24:G33" si="28">E24*$W$7</f>
         <v>3480</v>
       </c>
       <c r="H24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10073</v>
       </c>
       <c r="I24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>154</v>
       </c>
       <c r="J24">
@@ -5665,26 +5977,30 @@
         <v>54571.321417951411</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="10">
-        <f t="array" ref="M24:N24">LOGEST(C21:C24,J21:J24,1,1)</f>
-        <v>1.2851837891818108</v>
-      </c>
-      <c r="N24">
-        <v>281.79196897287</v>
+        <v>42</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="array" ref="M24:N24">LOGEST($C$3:C24,$J$3:J24,1,1)</f>
+        <v>1.3403791931080375</v>
+      </c>
+      <c r="N24" s="35">
+        <v>117.13432117326171</v>
+      </c>
+      <c r="O24" s="13">
+        <f>INDEX(LOGEST($C$3:C24,$J$3:J24,1,1),3,1)</f>
+        <v>0.99785374810086358</v>
       </c>
       <c r="P24" s="4">
+        <f t="shared" si="27"/>
+        <v>55013.008346283204</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="7"/>
-        <v>54726.620254249363</v>
-      </c>
-      <c r="Q24" s="4">
+        <v>1273.0083462832044</v>
+      </c>
+      <c r="R24" s="9">
         <f t="shared" si="8"/>
-        <v>986.62025424936292</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="9"/>
-        <v>58.332671647171288</v>
+        <v>48.873528906211696</v>
       </c>
       <c r="S24" s="9"/>
     </row>
@@ -5705,19 +6021,19 @@
         <v>361</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9420</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3610</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="27">C25-C24</f>
+        <f t="shared" ref="H25" si="29">C25-C24</f>
         <v>12038</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="28">D25-D24</f>
+        <f t="shared" ref="I25" si="30">D25-D24</f>
         <v>236</v>
       </c>
       <c r="J25">
@@ -5729,26 +6045,30 @@
         <v>73105.857682726797</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="array" ref="M25:N25">LOGEST(C22:C25,J22:J25,1,1)</f>
-        <v>1.2525621823848867</v>
-      </c>
-      <c r="N25">
-        <v>470.73896362456867</v>
+        <v>42</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="array" ref="M25:N25">LOGEST($C$3:C25,$J$3:J25,1,1)</f>
+        <v>1.3387158714637086</v>
+      </c>
+      <c r="N25" s="35">
+        <v>118.15688203636181</v>
+      </c>
+      <c r="O25" s="13">
+        <f>INDEX(LOGEST($C$3:C25,$J$3:J25,1,1),3,1)</f>
+        <v>0.9979791940141719</v>
       </c>
       <c r="P25" s="4">
+        <f t="shared" si="27"/>
+        <v>72377.585783446164</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="7"/>
-        <v>66736.686883114759</v>
-      </c>
-      <c r="Q25" s="4">
+        <v>6599.585783446164</v>
+      </c>
+      <c r="R25" s="9">
         <f t="shared" si="8"/>
-        <v>958.68688311475853</v>
-      </c>
-      <c r="R25" s="9">
-        <f t="shared" si="9"/>
-        <v>65.867075491481643</v>
+        <v>49.113530646056788</v>
       </c>
       <c r="W25" t="s">
         <v>40</v>
@@ -5771,19 +6091,19 @@
         <v>681</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12090</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6810</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="29">C26-C25</f>
+        <f t="shared" ref="H26" si="31">C26-C25</f>
         <v>18058</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="30">D26-D25</f>
+        <f t="shared" ref="I26" si="32">D26-D25</f>
         <v>267</v>
       </c>
       <c r="J26">
@@ -5795,38 +6115,37 @@
         <v>97935.440972646495</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="4">
-        <f>SLOPE($C$25:C26,$J$25:J26)</f>
-        <v>18058</v>
-      </c>
-      <c r="N26" s="4">
-        <f>INTERCEPT($C$25:C26,$J$25:J26)</f>
-        <v>-331498</v>
-      </c>
-      <c r="O26" s="14">
-        <f>INDEX(LINEST($C$25:C26,$J$25:J26,1,1),3,1)</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="M26" s="34">
+        <f t="array" ref="M26:N26">LOGEST($C$3:C26,$J$3:J26,1,1)</f>
+        <v>1.3367795488393988</v>
+      </c>
+      <c r="N26" s="35">
+        <v>119.41775404907648</v>
+      </c>
+      <c r="O26" s="13">
+        <f>INDEX(LOGEST($C$3:C26,$J$3:J26,1,1),3,1)</f>
+        <v>0.99802183712005255</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26:P31" si="31">M26*J26+N26</f>
-        <v>83836</v>
+        <f t="shared" ref="P26:P28" si="33">N26*EXP(J26*(M26-1))</f>
+        <v>276110.79825325351</v>
       </c>
       <c r="Q26" s="4">
+        <f t="shared" si="7"/>
+        <v>192274.79825325351</v>
+      </c>
+      <c r="R26" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <f t="shared" ref="R26:R31" si="32">24*((2*J26+N26/M26)-J26)</f>
-        <v>111.42230590320082</v>
+        <v>49.395910145873287</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26:T31" si="33">2*J26+N26/M26</f>
-        <v>27.642596079300034</v>
+        <f t="shared" ref="T26:T31" si="34">2*J26+N26/M26</f>
+        <v>135.33242145479844</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -5846,19 +6165,19 @@
         <v>869</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15810</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8690</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="34">C27-C26</f>
+        <f t="shared" ref="H27" si="35">C27-C26</f>
         <v>17821</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="35">D27-D26</f>
+        <f t="shared" ref="I27" si="36">D27-D26</f>
         <v>372</v>
       </c>
       <c r="J27">
@@ -5870,35 +6189,34 @@
         <v>131198.11329117254</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="4">
-        <f>SLOPE($C$25:C27,$J$25:J27)</f>
-        <v>17939.5</v>
-      </c>
-      <c r="N27" s="4">
-        <f>INTERCEPT($C$25:C27,$J$25:J27)</f>
-        <v>-328851.5</v>
-      </c>
-      <c r="O27" s="14">
-        <f>INDEX(LINEST($C$25:C27,$J$25:J27,1,1),3,1)</f>
-        <v>0.99998545584612852</v>
+        <v>51</v>
+      </c>
+      <c r="M27" s="34">
+        <f t="array" ref="M27:N27">LOGEST($C$3:C27,$J$3:J27,1,1)</f>
+        <v>1.3340726641393956</v>
+      </c>
+      <c r="N27" s="35">
+        <v>121.28802447248103</v>
+      </c>
+      <c r="O27" s="13">
+        <f>INDEX(LOGEST($C$3:C27,$J$3:J27,1,1),3,1)</f>
+        <v>0.99784736632126259</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="31"/>
-        <v>101696.5</v>
+        <f t="shared" si="33"/>
+        <v>368027.16188464034</v>
       </c>
       <c r="Q27" s="4">
+        <f t="shared" si="7"/>
+        <v>266370.16188464034</v>
+      </c>
+      <c r="R27" s="9">
         <f t="shared" si="8"/>
-        <v>39.5</v>
-      </c>
-      <c r="R27" s="9">
-        <f t="shared" si="32"/>
-        <v>136.05262131051592</v>
+        <v>49.796149518229726</v>
       </c>
       <c r="T27">
-        <f t="shared" si="33"/>
-        <v>29.668859221271497</v>
+        <f t="shared" si="34"/>
+        <v>138.91560582325806</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -5918,19 +6236,19 @@
         <v>1072</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20260</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10720</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="36">C28-C27</f>
+        <f t="shared" ref="H28" si="37">C28-C27</f>
         <v>19821</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="37">D28-D27</f>
+        <f t="shared" ref="I28" si="38">D28-D27</f>
         <v>445</v>
       </c>
       <c r="J28">
@@ -5942,35 +6260,34 @@
         <v>175758.07858945508</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="4">
-        <f>SLOPE($C$25:C28,$J$25:J28)</f>
-        <v>18492.099999999999</v>
-      </c>
-      <c r="N28" s="4">
-        <f>INTERCEPT($C$25:C28,$J$25:J28)</f>
-        <v>-341377.1</v>
-      </c>
-      <c r="O28" s="14">
-        <f>INDEX(LINEST($C$25:C28,$J$25:J28,1,1),3,1)</f>
-        <v>0.99939955514659551</v>
+        <v>51</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="array" ref="M28:N28">LOGEST($C$3:C28,$J$3:J28,1,1)</f>
+        <v>1.3306951291274511</v>
+      </c>
+      <c r="N28" s="35">
+        <v>123.77281476156359</v>
+      </c>
+      <c r="O28" s="13">
+        <f>INDEX(LOGEST($C$3:C28,$J$3:J28,1,1),3,1)</f>
+        <v>0.99742508235088789</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="31"/>
-        <v>120925.39999999997</v>
+        <f t="shared" si="33"/>
+        <v>482061.01605762233</v>
       </c>
       <c r="Q28" s="4">
+        <f t="shared" si="7"/>
+        <v>360583.01605762233</v>
+      </c>
+      <c r="R28" s="9">
         <f t="shared" si="8"/>
-        <v>-552.60000000003492</v>
-      </c>
-      <c r="R28" s="9">
-        <f t="shared" si="32"/>
-        <v>156.94321358850536</v>
+        <v>50.304739526499922</v>
       </c>
       <c r="T28">
-        <f t="shared" si="33"/>
-        <v>31.539300566187723</v>
+        <f t="shared" si="34"/>
+        <v>143.01365282874565</v>
       </c>
       <c r="W28" t="s">
         <v>34</v>
@@ -5997,19 +6314,19 @@
         <v>2665</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24670</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>26650</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="38">C29-C28</f>
+        <f t="shared" ref="H29" si="39">C29-C28</f>
         <v>19408</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="39">D29-D28</f>
+        <f t="shared" ref="I29" si="40">D29-D28</f>
         <v>441</v>
       </c>
       <c r="J29">
@@ -6021,35 +6338,35 @@
         <v>235452.33551415344</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="4">
-        <f>SLOPE($C$25:C29,$J$25:J29)</f>
-        <v>18785.8</v>
-      </c>
-      <c r="N29" s="4">
-        <f>INTERCEPT($C$25:C29,$J$25:J29)</f>
-        <v>-348132.19999999995</v>
-      </c>
-      <c r="O29" s="14">
-        <f>INDEX(LINEST($C$25:C29,$J$25:J29,1,1),3,1)</f>
-        <v>0.99946477685207513</v>
+        <v>51</v>
+      </c>
+      <c r="M29" s="34">
+        <f>INDEX(LINEST(LN($C$28:C29),$J$28:J29),1)</f>
+        <v>0.14821787629225369</v>
+      </c>
+      <c r="N29" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C29),$J$28:J29),1,2))</f>
+        <v>2987.0499725883842</v>
+      </c>
+      <c r="O29" s="13">
+        <f>INDEX(LINEST(LN($C$28:C29),$J$28:J29,1,1),3)</f>
+        <v>1</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="31"/>
-        <v>140298.60000000003</v>
+        <f>N29*EXP(J29*(M29))</f>
+        <v>140885.99999999991</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="8"/>
-        <v>-587.39999999996508</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="32"/>
-        <v>179.23997913317498</v>
+        <f>24*LN(2)/(M29)</f>
+        <v>112.23701721806486</v>
       </c>
       <c r="T29">
-        <f t="shared" si="33"/>
-        <v>33.468332463882291</v>
+        <f>2*J29+M29/N29</f>
+        <v>52.000049620152879</v>
       </c>
       <c r="W29">
         <f t="array" ref="W29:X33">LINEST(C25:C29,LN(J25:J29),TRUE,FALSE)</f>
@@ -6076,19 +6393,19 @@
         <v>5644</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>29780</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>56440</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30" si="40">C30-C29</f>
+        <f t="shared" ref="H30" si="41">C30-C29</f>
         <v>20921</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="41">D30-D29</f>
+        <f t="shared" ref="I30" si="42">D30-D29</f>
         <v>511</v>
       </c>
       <c r="J30">
@@ -6100,35 +6417,35 @@
         <v>315421.0761973795</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="4">
-        <f>SLOPE($C$25:C30,$J$25:J30)</f>
-        <v>19174.742857142857</v>
-      </c>
-      <c r="N30" s="4">
-        <f>INTERCEPT($C$25:C30,$J$25:J30)</f>
-        <v>-357207.53333333333</v>
-      </c>
-      <c r="O30" s="14">
-        <f>INDEX(LINEST($C$25:C30,$J$25:J30,1,1),3,1)</f>
-        <v>0.99915839728158939</v>
+        <v>51</v>
+      </c>
+      <c r="M30" s="34">
+        <f>INDEX(LINEST(LN($C$28:C30),$J$28:J30),1)</f>
+        <v>0.1433355452749803</v>
+      </c>
+      <c r="N30" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C30),$J$28:J30),1,2))</f>
+        <v>3380.3254377721728</v>
+      </c>
+      <c r="O30" s="13">
+        <f>INDEX(LINEST(LN($C$28:C30),$J$28:J30,1,1),3)</f>
+        <v>0.99961340391462572</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="31"/>
-        <v>160510.52380952385</v>
+        <f t="shared" ref="P30:P33" si="43">N30*EXP(J30*(M30))</f>
+        <v>162070.54617341195</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="8"/>
-        <v>-1296.4761904761544</v>
+        <f t="shared" ref="Q30:Q33" si="44">P30-C30</f>
+        <v>263.54617341194535</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="32"/>
-        <v>200.90243713456397</v>
+        <f t="shared" ref="R30:R34" si="45">24*LN(2)/(M30)</f>
+        <v>116.06006243269564</v>
       </c>
       <c r="T30">
-        <f t="shared" si="33"/>
-        <v>35.370934880606832</v>
+        <f t="shared" si="34"/>
+        <v>23637.30190384548</v>
       </c>
       <c r="W30">
         <v>449460.73754286527</v>
@@ -6154,19 +6471,19 @@
         <v>7024</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38730</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>70240</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="42">C31-C30</f>
+        <f t="shared" ref="H31" si="46">C31-C30</f>
         <v>26365</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31" si="43">D31-D30</f>
+        <f t="shared" ref="I31" si="47">D31-D30</f>
         <v>895</v>
       </c>
       <c r="J31">
@@ -6178,35 +6495,35 @@
         <v>422550.30128394108</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="4">
-        <f>SLOPE($C$25:C31,$J$25:J31)</f>
-        <v>20084.035714285714</v>
-      </c>
-      <c r="N31" s="4">
-        <f>INTERCEPT($C$25:C31,$J$25:J31)</f>
-        <v>-378727.46428571426</v>
-      </c>
-      <c r="O31" s="14">
-        <f>INDEX(LINEST($C$25:C31,$J$25:J31,1,1),3,1)</f>
-        <v>0.99611897918583714</v>
+        <v>51</v>
+      </c>
+      <c r="M31" s="34">
+        <f>INDEX(LINEST(LN($C$28:C31),$J$28:J31),1)</f>
+        <v>0.14513229995385557</v>
+      </c>
+      <c r="N31" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C31),$J$28:J31),1,2))</f>
+        <v>3227.9759011084971</v>
+      </c>
+      <c r="O31" s="13">
+        <f>INDEX(LINEST(LN($C$28:C31),$J$28:J31,1,1),3)</f>
+        <v>0.9997469942642393</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="31"/>
-        <v>183625.53571428574</v>
+        <f t="shared" si="43"/>
+        <v>187834.20463714213</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="8"/>
-        <v>-4546.4642857142608</v>
+        <f t="shared" si="44"/>
+        <v>-337.79536285786889</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="32"/>
-        <v>219.42865068737962</v>
+        <f t="shared" si="45"/>
+        <v>114.62322542072239</v>
       </c>
       <c r="T31">
-        <f t="shared" si="33"/>
-        <v>37.142860445307484</v>
+        <f t="shared" si="34"/>
+        <v>22297.609222308358</v>
       </c>
       <c r="W31">
         <v>449460.73754286527</v>
@@ -6232,19 +6549,19 @@
         <v>8566</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>51160</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>85660</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="44">C32-C31</f>
+        <f t="shared" ref="H32" si="48">C32-C31</f>
         <v>27245</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32" si="45">D32-D31</f>
+        <f t="shared" ref="I32" si="49">D32-D31</f>
         <v>1243</v>
       </c>
       <c r="J32">
@@ -6256,35 +6573,35 @@
         <v>566064.76418024604</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="4">
-        <f>SLOPE($C$25:C32,$J$25:J32)</f>
-        <v>21059.654761904763</v>
-      </c>
-      <c r="N32" s="4">
-        <f>INTERCEPT($C$25:C32,$J$25:J32)</f>
-        <v>-402142.32142857148</v>
-      </c>
-      <c r="O32" s="14">
-        <f>INDEX(LINEST($C$25:C32,$J$25:J32,1,1),3,1)</f>
-        <v>0.99338936818800627</v>
+        <v>51</v>
+      </c>
+      <c r="M32" s="34">
+        <f>INDEX(LINEST(LN($C$28:C32),$J$28:J32),1)</f>
+        <v>0.14350904016990321</v>
+      </c>
+      <c r="N32" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C32),$J$28:J32),1,2))</f>
+        <v>3367.127608364191</v>
+      </c>
+      <c r="O32" s="13">
+        <f>INDEX(LINEST(LN($C$28:C32),$J$28:J32,1,1),3)</f>
+        <v>0.99974270932374609</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" ref="P32" si="46">M32*J32+N32</f>
-        <v>208587.66666666663</v>
+        <f t="shared" si="43"/>
+        <v>216117.49197094602</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" ref="Q32" si="47">P32-C32</f>
-        <v>-6829.3333333333721</v>
+        <f t="shared" si="44"/>
+        <v>700.49197094602278</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" ref="R32" si="48">24*((2*J32+N32/M32)-J32)</f>
-        <v>237.71063944769134</v>
+        <f t="shared" si="45"/>
+        <v>115.91975191070576</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T32:T33" si="49">2*J32+N32/M32</f>
-        <v>38.904609976987139</v>
+        <f t="shared" ref="T32:T33" si="50">2*J32+N32/M32</f>
+        <v>23520.825786987229</v>
       </c>
       <c r="W32">
         <v>449460.73754286527</v>
@@ -6310,19 +6627,19 @@
         <v>9001</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>59260</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>90010</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="50">C33-C32</f>
+        <f t="shared" ref="H33" si="51">C33-C32</f>
         <v>28036</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33" si="51">D33-D32</f>
+        <f t="shared" ref="I33" si="52">D33-D32</f>
         <v>810</v>
       </c>
       <c r="J33">
@@ -6333,34 +6650,36 @@
         <f t="shared" si="2"/>
         <v>758322.30215620936</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
-        <f>SLOPE($C$25:C33,$J$25:J33)</f>
-        <v>21980.033333333333</v>
-      </c>
-      <c r="N33" s="4">
-        <f>INTERCEPT($C$25:C33,$J$25:J33)</f>
-        <v>-424538.20000000007</v>
-      </c>
-      <c r="O33" s="14">
-        <f>INDEX(LINEST($C$25:C33,$J$25:J33,1,1),3,1)</f>
-        <v>0.99170192037883331</v>
+      <c r="L33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="34">
+        <f>INDEX(LINEST(LN($C$28:C33),$J$28:J33),1)</f>
+        <v>0.14002227747444118</v>
+      </c>
+      <c r="N33" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C33),$J$28:J33),1,2))</f>
+        <v>3690.9287623529658</v>
+      </c>
+      <c r="O33" s="13">
+        <f>INDEX(LINEST(LN($C$28:C33),$J$28:J33,1,1),3)</f>
+        <v>0.99901970693529629</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" ref="P33" si="52">M33*J33+N33</f>
-        <v>234862.79999999993</v>
+        <f t="shared" si="43"/>
+        <v>246299.04992504959</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" ref="Q33" si="53">P33-C33</f>
-        <v>-8590.2000000000698</v>
+        <f t="shared" si="44"/>
+        <v>2846.0499250495923</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" ref="R33" si="54">24*((2*J33+N33/M33)-J33)</f>
-        <v>256.44670845206463</v>
+        <f t="shared" si="45"/>
+        <v>118.80632591821137</v>
       </c>
       <c r="T33">
-        <f t="shared" si="49"/>
-        <v>40.685279518836026</v>
+        <f t="shared" si="50"/>
+        <v>26419.582410211016</v>
       </c>
       <c r="W33">
         <v>449460.73754286527</v>
@@ -6376,6 +6695,31 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
+      <c r="C34">
+        <v>275586</v>
+      </c>
+      <c r="D34">
+        <v>7087</v>
+      </c>
+      <c r="E34">
+        <v>9707</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="53">D34*$W$7</f>
+        <v>70870</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34" si="54">E34*$W$7</f>
+        <v>97070</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34" si="55">C34-C33</f>
+        <v>32133</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34" si="56">D34-D33</f>
+        <v>1161</v>
+      </c>
       <c r="J34">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -6384,13 +6728,33 @@
         <f t="shared" si="2"/>
         <v>1015877.9530823868</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="9"/>
+      <c r="L34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="34">
+        <f>INDEX(LINEST(LN($C$28:C34),$J$28:J34),1)</f>
+        <v>0.13705774330157142</v>
+      </c>
+      <c r="N34" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C34),$J$28:J34),1,2))</f>
+        <v>3994.5557363126672</v>
+      </c>
+      <c r="O34" s="13">
+        <f>INDEX(LINEST(LN($C$28:C34),$J$28:J34,1,1),3)</f>
+        <v>0.99858216292225888</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" ref="P34" si="57">N34*EXP(J34*(M34))</f>
+        <v>279701.34542941069</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34" si="58">P34-C34</f>
+        <v>4115.3454294106923</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="45"/>
+        <v>121.37608523755661</v>
+      </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
@@ -6399,23 +6763,66 @@
       <c r="B35" t="s">
         <v>13</v>
       </c>
+      <c r="C35">
+        <v>308850</v>
+      </c>
+      <c r="D35">
+        <v>8407</v>
+      </c>
+      <c r="E35">
+        <v>14652</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ref="F35" si="59">D35*$W$7</f>
+        <v>84070</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35" si="60">E35*$W$7</f>
+        <v>146520</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35" si="61">C35-C34</f>
+        <v>33264</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35" si="62">D35-D34</f>
+        <v>1320</v>
+      </c>
       <c r="J35">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" ref="K35:K66" si="55">W$4*EXP(X$4*J35)</f>
+        <f t="shared" ref="K35:K66" si="63">W$4*EXP(X$4*J35)</f>
         <v>1360909.4874625946</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="M35" s="34">
+        <f>INDEX(LINEST(LN($C$28:C35),$J$28:J35),1)</f>
+        <v>0.13389737400033005</v>
+      </c>
+      <c r="N35" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C35),$J$28:J35),1,2))</f>
+        <v>4350.3762657787311</v>
+      </c>
+      <c r="O35" s="13">
+        <f>INDEX(LINEST(LN($C$28:C35),$J$28:J35,1,1),3)</f>
+        <v>0.99789845231969543</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" ref="P35:P36" si="64">N35*EXP(J35*(M35))</f>
+        <v>315758.69777560775</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" ref="Q35:Q36" si="65">P35-C35</f>
+        <v>6908.697775607754</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" ref="R35:R36" si="66">24*LN(2)/(M35)</f>
+        <v>124.24091553429329</v>
+      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -6424,16 +6831,66 @@
       <c r="B36" t="s">
         <v>14</v>
       </c>
+      <c r="C36">
+        <v>337072</v>
+      </c>
+      <c r="D36">
+        <v>9619</v>
+      </c>
+      <c r="E36">
+        <v>17448</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36" si="67">D36*$W$7</f>
+        <v>96190</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36" si="68">E36*$W$7</f>
+        <v>174480</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36" si="69">C36-C35</f>
+        <v>28222</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36" si="70">D36-D35</f>
+        <v>1212</v>
+      </c>
       <c r="J36">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>1823127.1064069455</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="34">
+        <f>INDEX(LINEST(LN($C$28:C36),$J$28:J36),1)</f>
+        <v>0.12932543240920924</v>
+      </c>
+      <c r="N36" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C36),$J$28:J36),1,2))</f>
+        <v>4929.4565205116187</v>
+      </c>
+      <c r="O36" s="13">
+        <f>INDEX(LINEST(LN($C$28:C36),$J$28:J36,1,1),3)</f>
+        <v>0.99552371950898078</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="64"/>
+        <v>351766.64388120692</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="65"/>
+        <v>14694.643881206925</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="66"/>
+        <v>128.63310814844854</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -6442,16 +6899,66 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
+      <c r="C37">
+        <v>366614</v>
+      </c>
+      <c r="D37">
+        <v>10783</v>
+      </c>
+      <c r="E37">
+        <v>19581</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37" si="71">D37*$W$7</f>
+        <v>107830</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37" si="72">E37*$W$7</f>
+        <v>195810</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37" si="73">C37-C36</f>
+        <v>29542</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37" si="74">D37-D36</f>
+        <v>1164</v>
+      </c>
       <c r="J37">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>2442331.7470678678</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="34">
+        <f>INDEX(LINEST(LN($C$28:C37),$J$28:J37),1)</f>
+        <v>0.1245263094343496</v>
+      </c>
+      <c r="N37" s="35">
+        <f>EXP(INDEX(LINEST(LN($C$28:C37),$J$28:J37),1,2))</f>
+        <v>5629.4090849137792</v>
+      </c>
+      <c r="O37" s="13">
+        <f>INDEX(LINEST(LN($C$28:C37),$J$28:J37,1,1),3)</f>
+        <v>0.99256793884689765</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" ref="P37" si="75">N37*EXP(J37*(M37))</f>
+        <v>388346.89487093396</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" ref="Q37" si="76">P37-C37</f>
+        <v>21732.89487093396</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" ref="R37" si="77">24*LN(2)/(M37)</f>
+        <v>133.59050315555169</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -6460,19 +6967,13 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
       <c r="K38" s="4">
-        <f t="shared" si="55"/>
-        <v>3271842.2877774565</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="35"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -6481,16 +6982,13 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
       <c r="K39" s="4">
-        <f t="shared" si="55"/>
-        <v>4383086.7649084078</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="35"/>
       <c r="V39" t="s">
         <v>37</v>
       </c>
@@ -6502,16 +7000,13 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
       <c r="K40" s="4">
-        <f t="shared" si="55"/>
-        <v>5871752.9449640783</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -6520,16 +7015,13 @@
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
       <c r="K41" s="4">
-        <f t="shared" si="55"/>
-        <v>7866027.8693832317</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -6538,16 +7030,13 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
       <c r="K42" s="4">
-        <f t="shared" si="55"/>
-        <v>10537635.868174648</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="35"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -6556,16 +7045,13 @@
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
       <c r="K43" s="4">
-        <f t="shared" si="55"/>
-        <v>14116625.510881616</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="35"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -6574,16 +7060,13 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
       <c r="K44" s="4">
-        <f t="shared" si="55"/>
-        <v>18911178.779324546</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="35"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -6592,16 +7075,13 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
       <c r="K45" s="4">
-        <f t="shared" si="55"/>
-        <v>25334148.203329325</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -6610,16 +7090,13 @@
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
       <c r="K46" s="4">
-        <f t="shared" si="55"/>
-        <v>33938607.036487415</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="35"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
@@ -6628,16 +7105,13 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
       <c r="K47" s="4">
-        <f t="shared" si="55"/>
-        <v>45465473.649741426</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="35"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -6646,16 +7120,12 @@
       <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
       <c r="K48" s="4">
-        <f t="shared" si="55"/>
-        <v>60907311.015239298</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -6664,13 +7134,9 @@
       <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="J49">
-        <f>J48+1</f>
-        <v>46</v>
-      </c>
       <c r="K49" s="4">
-        <f t="shared" si="55"/>
-        <v>81593794.968155891</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -6682,13 +7148,9 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
       <c r="K50" s="4">
-        <f t="shared" si="55"/>
-        <v>109306210.80348961</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -6700,13 +7162,9 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
       <c r="K51" s="4">
-        <f t="shared" si="55"/>
-        <v>146430837.35570687</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -6718,13 +7176,9 @@
       <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
       <c r="K52" s="4">
-        <f t="shared" si="55"/>
-        <v>196164426.25791708</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -6736,13 +7190,9 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
       <c r="K53" s="4">
-        <f t="shared" si="55"/>
-        <v>262789469.92307162</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -6754,13 +7204,9 @@
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
       <c r="K54" s="4">
-        <f t="shared" si="55"/>
-        <v>352042961.20261478</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -6772,13 +7218,9 @@
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
       <c r="K55" s="4">
-        <f t="shared" si="55"/>
-        <v>471610398.12054008</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -6790,13 +7232,9 @@
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
       <c r="K56" s="4">
-        <f t="shared" si="55"/>
-        <v>631787571.76572323</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6808,13 +7246,9 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
       <c r="K57" s="4">
-        <f t="shared" si="55"/>
-        <v>846367123.00734258</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6826,13 +7260,9 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
       <c r="K58" s="4">
-        <f t="shared" si="55"/>
-        <v>1133826208.2391124</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6844,13 +7274,9 @@
       <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
       <c r="K59" s="4">
-        <f t="shared" si="55"/>
-        <v>1518917542.4512918</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -6862,13 +7288,9 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
       <c r="K60" s="4">
-        <f t="shared" si="55"/>
-        <v>2034800822.2082989</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6880,13 +7302,9 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
       <c r="K61" s="4">
-        <f t="shared" si="55"/>
-        <v>2725898062.4962783</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -6898,13 +7316,9 @@
       <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
       <c r="K62" s="4">
-        <f t="shared" si="55"/>
-        <v>3651718716.6539841</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6916,13 +7330,9 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
       <c r="K63" s="4">
-        <f t="shared" si="55"/>
-        <v>4891983955.3168287</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -6934,13 +7344,9 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
       <c r="K64" s="4">
-        <f t="shared" si="55"/>
-        <v>6553491349.1380224</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -6952,13 +7358,9 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
       <c r="K65" s="4">
-        <f t="shared" si="55"/>
-        <v>8779311063.8780098</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -6970,13 +7372,9 @@
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
       <c r="K66" s="4">
-        <f t="shared" si="55"/>
-        <v>11761105439.846031</v>
+        <f t="shared" si="63"/>
+        <v>117.55</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -6984,9 +7382,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="N26:N27 N28:N31 O26:O30" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6995,7 +7390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7023,10 +7418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7034,14 +7429,15 @@
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7052,7 +7448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7063,27 +7459,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>3873</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>"probable cases " &amp; B3 &amp; " days ago."</f>
         <v>probable cases 18 days ago.</v>
@@ -7092,12 +7488,12 @@
         <f>B6/B4</f>
         <v>387300</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f ca="1">TODAY()-18</f>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>"number of doubles in " &amp; B3 &amp; " days"</f>
         <v>number of doubles in 18 days</v>
@@ -7107,7 +7503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -7118,45 +7514,849 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>$B$8 * (2^$B$9)</f>
         <v>1549200</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f>B8*2^(INT(B9))</f>
         <v>1549200</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f>B8*2^(1+INT(B9))</f>
         <v>3098400</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>"number of deaths in " &amp; B3 &amp; " days."</f>
         <v>number of deaths in 18 days.</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>B11*$B$4</f>
         <v>15492</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>C11*$B$4</f>
         <v>15492</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>D11*$B$4</f>
         <v>30984</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="33">
+        <f>18+DATE(2020,3,28)</f>
+        <v>43936</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="37">
+        <v>5.7</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I6" s="38">
+        <v>43855</v>
+      </c>
+      <c r="J6" s="38">
+        <v>43858</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="37">
+        <v>5</v>
+      </c>
+      <c r="D7" s="37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5.8</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="38">
+        <v>43855</v>
+      </c>
+      <c r="J7" s="38">
+        <v>43858</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="D8" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="37">
+        <v>6.7</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="38">
+        <v>43809</v>
+      </c>
+      <c r="I8" s="38">
+        <v>43855</v>
+      </c>
+      <c r="J8" s="38">
+        <v>43856</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="D9" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="37">
+        <v>6</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38">
+        <v>43800</v>
+      </c>
+      <c r="I9" s="38">
+        <v>43500</v>
+      </c>
+      <c r="J9" s="38">
+        <v>43865</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I10" s="38">
+        <v>43871</v>
+      </c>
+      <c r="J10" s="38">
+        <v>43872</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="37">
+        <v>6.6</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="37">
+        <v>11.4</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="38">
+        <v>43849</v>
+      </c>
+      <c r="I11" s="38">
+        <v>43887</v>
+      </c>
+      <c r="J11" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="37">
+        <v>9.9</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="38">
+        <v>43851</v>
+      </c>
+      <c r="I12" s="38">
+        <v>43883</v>
+      </c>
+      <c r="J12" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
+        <v>9.4</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="38">
+        <v>43851</v>
+      </c>
+      <c r="I13" s="38">
+        <v>43883</v>
+      </c>
+      <c r="J13" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="37">
+        <v>7.1</v>
+      </c>
+      <c r="D14" s="37">
+        <v>6.1</v>
+      </c>
+      <c r="E14" s="37">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="38">
+        <v>43849</v>
+      </c>
+      <c r="I14" s="38">
+        <v>43887</v>
+      </c>
+      <c r="J14" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="37">
+        <v>5.46</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1.34</v>
+      </c>
+      <c r="E15" s="37">
+        <v>11.1</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="38">
+        <v>43849</v>
+      </c>
+      <c r="I15" s="38">
+        <v>43861</v>
+      </c>
+      <c r="J15" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="37">
+        <v>7.27</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1.31</v>
+      </c>
+      <c r="E16" s="37">
+        <v>17.3</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="38">
+        <v>43862</v>
+      </c>
+      <c r="I16" s="38">
+        <v>43887</v>
+      </c>
+      <c r="J16" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="37">
+        <v>9</v>
+      </c>
+      <c r="D17" s="37">
+        <v>7.92</v>
+      </c>
+      <c r="E17" s="37">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="38">
+        <v>43851</v>
+      </c>
+      <c r="I17" s="38">
+        <v>43883</v>
+      </c>
+      <c r="J17" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="37">
+        <v>6.9</v>
+      </c>
+      <c r="D18" s="37">
+        <v>2</v>
+      </c>
+      <c r="E18" s="37">
+        <v>12.7</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="38">
+        <v>43851</v>
+      </c>
+      <c r="I18" s="38">
+        <v>43861</v>
+      </c>
+      <c r="J18" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="37">
+        <v>12.4</v>
+      </c>
+      <c r="D19" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="E19" s="37">
+        <v>19</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="38">
+        <v>43862</v>
+      </c>
+      <c r="I19" s="38">
+        <v>43883</v>
+      </c>
+      <c r="J19" s="38">
+        <v>43896</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="37">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D20" s="37">
+        <v>7.37</v>
+      </c>
+      <c r="E20" s="37">
+        <v>8.91</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="38">
+        <v>43842</v>
+      </c>
+      <c r="I20" s="38">
+        <v>43853</v>
+      </c>
+      <c r="J20" s="38">
+        <v>43900</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="37">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D21" s="37">
+        <v>8.02</v>
+      </c>
+      <c r="E21" s="37">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="38">
+        <v>43842</v>
+      </c>
+      <c r="I21" s="38">
+        <v>43853</v>
+      </c>
+      <c r="J21" s="38">
+        <v>43900</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="37">
+        <v>4.8</v>
+      </c>
+      <c r="D22" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="E22" s="37">
+        <v>5.4</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="38">
+        <v>43844</v>
+      </c>
+      <c r="I22" s="38">
+        <v>43873</v>
+      </c>
+      <c r="J22" s="38">
+        <v>43894</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>AVERAGE(C6:C22)</f>
+        <v>6.5458823529411774</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1" display="https://www.medrxiv.org/content/medrxiv/early/2020/01/28/2020.01.26.20018754.full.pdf"/>
+    <hyperlink ref="K7" r:id="rId2" display="https://www.medrxiv.org/content/medrxiv/early/2020/01/28/2020.01.26.20018754.full.pdf"/>
+    <hyperlink ref="K8" r:id="rId3" display="https://institutefordiseasemodeling.github.io/nCoV-public/analyses/individual_dynamics_estimates/nCoV_incubation_period.html"/>
+    <hyperlink ref="K9" r:id="rId4" display="https://annals.org/aim/fullarticle/2762808/incubation-period-coronavirus-disease-2019-covid-19-from-publicly-reported"/>
+    <hyperlink ref="K10" r:id="rId5" display="https://www.medrxiv.org/content/10.1101/2020.02.07.20021154v1"/>
+    <hyperlink ref="K11" r:id="rId6" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K12" r:id="rId7" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K13" r:id="rId8" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K14" r:id="rId9" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K15" r:id="rId10" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K16" r:id="rId11" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K17" r:id="rId12" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K18" r:id="rId13" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K19" r:id="rId14" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20029983v1"/>
+    <hyperlink ref="K20" r:id="rId15" display="https://www.medrxiv.org/content/10.1101/2020.03.06.20032417v1"/>
+    <hyperlink ref="K21" r:id="rId16" display="https://www.medrxiv.org/content/10.1101/2020.03.06.20032417v1"/>
+    <hyperlink ref="K22" r:id="rId17" display="https://www.medrxiv.org/content/10.1101/2020.03.03.20028423v1.article-info"/>
+    <hyperlink ref="D1" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId19" location="incubation-period"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="37">
+        <v>22.3</v>
+      </c>
+      <c r="D7" s="37">
+        <v>18</v>
+      </c>
+      <c r="E7" s="37">
+        <v>82</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="38">
+        <v>43851</v>
+      </c>
+      <c r="J7" s="38">
+        <v>43871</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="37">
+        <v>11.8</v>
+      </c>
+      <c r="E8" s="37">
+        <v>16</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I8" s="38">
+        <v>43855</v>
+      </c>
+      <c r="J8" s="38">
+        <v>43858</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="37">
+        <v>15.2</v>
+      </c>
+      <c r="D9" s="37">
+        <v>13.1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>17.7</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="38">
+        <v>43830</v>
+      </c>
+      <c r="I9" s="38">
+        <v>43854</v>
+      </c>
+      <c r="J9" s="38">
+        <v>43878</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>AVERAGE(C7:C9)</f>
+        <v>17.099999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" location="time-from-symptom-onset-to-death" display="https://github.com/midas-network/COVID-19/tree/master/parameter_estimates/2019_novel_coronavirus - time-from-symptom-onset-to-death"/>
+    <hyperlink ref="K7" r:id="rId2" display="https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/news--wuhan-coronavirus/"/>
+    <hyperlink ref="K8" r:id="rId3" display="https://www.medrxiv.org/content/medrxiv/early/2020/01/28/2020.01.26.20018754.full.pdf"/>
+    <hyperlink ref="K9" r:id="rId4" display="http://medrxiv.org/content/early/2020/02/02/2020.01.29.20019547.abstract"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -194,9 +194,6 @@
     <t>poor forecast, for exponential</t>
   </si>
   <si>
-    <t>prediction was 24000, on Friday, 3/28</t>
-  </si>
-  <si>
     <t>exp2</t>
   </si>
   <si>
@@ -300,6 +297,24 @@
   </si>
   <si>
     <t>Jung S. et al.</t>
+  </si>
+  <si>
+    <t>prediction was 24000, for 18 days after Friday, 3/28</t>
+  </si>
+  <si>
+    <t>is 18 days after 3/28</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup deaths on &lt;&lt;-- </t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
 </sst>
 </file>
@@ -314,7 +329,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +398,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +422,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -516,14 +543,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -584,11 +612,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -755,7 +788,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="log"/>
             <c:forward val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
@@ -802,78 +835,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$28:$J$99</c:f>
+              <c:f>Summary!$J$34:$J$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$28:$C$99</c:f>
+              <c:f>Summary!$C$34:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>121478</c:v>
+                  <c:v>275586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140886</c:v>
+                  <c:v>308850</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161807</c:v>
+                  <c:v>337072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188172</c:v>
+                  <c:v>366667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215417</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>243453</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>275586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>308850</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>337072</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>366614</c:v>
+                  <c:v>396223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,6 +1032,9 @@
                 <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1142,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>107830</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,6 +1306,9 @@
                 <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1407,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>195810</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>217630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,10 +1460,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$3:$J$28</c:f>
+              <c:f>Summary!$J$3:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1526,16 +1541,34 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$3:$C$28</c:f>
+              <c:f>Summary!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -1613,6 +1646,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>121478</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>161807</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188172</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>215417</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>243453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>275586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,11 +1678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="484147176"/>
-        <c:axId val="484147960"/>
+        <c:axId val="383509592"/>
+        <c:axId val="383513120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="484147176"/>
+        <c:axId val="383509592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,12 +1820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484147960"/>
+        <c:crossAx val="383513120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484147960"/>
+        <c:axId val="383513120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484147176"/>
+        <c:crossAx val="383509592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2158,7 +2209,10 @@
                   <c:v>337072</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>366614</c:v>
+                  <c:v>366667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>396223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2323,10 @@
                   <c:v>28222</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29542</c:v>
+                  <c:v>29595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,11 +2341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="484150312"/>
-        <c:axId val="484147568"/>
+        <c:axId val="383512728"/>
+        <c:axId val="383510768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="484150312"/>
+        <c:axId val="383512728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2417,12 +2474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484147568"/>
+        <c:crossAx val="383510768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484147568"/>
+        <c:axId val="383510768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2551,7 +2608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484150312"/>
+        <c:crossAx val="383512728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3742,15 +3799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>573037</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146603</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>321577</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3767,7 +3824,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15011400" y="5105400"/>
+          <a:off x="15369540" y="5913120"/>
           <a:ext cx="2942857" cy="657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4000,7 +4057,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>exponential fit by Richard Pellessier</a:t>
+            <a:t>logarithm fit by Richard Pellessier</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900">
             <a:effectLst/>
@@ -4323,11 +4380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4412,7 +4469,9 @@
       <c r="K2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4607,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J66" si="5">J4+1</f>
+        <f t="shared" ref="J5:J38" si="5">J4+1</f>
         <v>2</v>
       </c>
       <c r="K5" s="4">
@@ -6115,7 +6174,7 @@
         <v>97935.440972646495</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="34">
         <f t="array" ref="M26:N26">LOGEST($C$3:C26,$J$3:J26,1,1)</f>
@@ -6189,7 +6248,7 @@
         <v>131198.11329117254</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="34">
         <f t="array" ref="M27:N27">LOGEST($C$3:C27,$J$3:J27,1,1)</f>
@@ -6260,7 +6319,7 @@
         <v>175758.07858945508</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="34">
         <f t="array" ref="M28:N28">LOGEST($C$3:C28,$J$3:J28,1,1)</f>
@@ -6338,7 +6397,7 @@
         <v>235452.33551415344</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M29" s="34">
         <f>INDEX(LINEST(LN($C$28:C29),$J$28:J29),1)</f>
@@ -6417,7 +6476,7 @@
         <v>315421.0761973795</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="34">
         <f>INDEX(LINEST(LN($C$28:C30),$J$28:J30),1)</f>
@@ -6495,7 +6554,7 @@
         <v>422550.30128394108</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="34">
         <f>INDEX(LINEST(LN($C$28:C31),$J$28:J31),1)</f>
@@ -6573,7 +6632,7 @@
         <v>566064.76418024604</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" s="34">
         <f>INDEX(LINEST(LN($C$28:C32),$J$28:J32),1)</f>
@@ -6651,7 +6710,7 @@
         <v>758322.30215620936</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="34">
         <f>INDEX(LINEST(LN($C$28:C33),$J$28:J33),1)</f>
@@ -6729,7 +6788,7 @@
         <v>1015877.9530823868</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="34">
         <f>INDEX(LINEST(LN($C$28:C34),$J$28:J34),1)</f>
@@ -6797,7 +6856,7 @@
         <v>1360909.4874625946</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M35" s="34">
         <f>INDEX(LINEST(LN($C$28:C35),$J$28:J35),1)</f>
@@ -6865,7 +6924,7 @@
         <v>1823127.1064069455</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M36" s="34">
         <f>INDEX(LINEST(LN($C$28:C36),$J$28:J36),1)</f>
@@ -6900,7 +6959,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>366614</v>
+        <v>366667</v>
       </c>
       <c r="D37">
         <v>10783</v>
@@ -6918,7 +6977,7 @@
       </c>
       <c r="H37">
         <f t="shared" ref="H37" si="73">C37-C36</f>
-        <v>29542</v>
+        <v>29595</v>
       </c>
       <c r="I37">
         <f t="shared" ref="I37" si="74">D37-D36</f>
@@ -6933,31 +6992,31 @@
         <v>2442331.7470678678</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="34">
         <f>INDEX(LINEST(LN($C$28:C37),$J$28:J37),1)</f>
-        <v>0.1245263094343496</v>
+        <v>0.12453419429457632</v>
       </c>
       <c r="N37" s="35">
         <f>EXP(INDEX(LINEST(LN($C$28:C37),$J$28:J37),1,2))</f>
-        <v>5629.4090849137792</v>
+        <v>5628.1811756465368</v>
       </c>
       <c r="O37" s="13">
         <f>INDEX(LINEST(LN($C$28:C37),$J$28:J37,1,1),3)</f>
-        <v>0.99256793884689765</v>
+        <v>0.99258168289102722</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" ref="P37" si="75">N37*EXP(J37*(M37))</f>
-        <v>388346.89487093396</v>
+        <v>388366.2884080697</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" ref="Q37" si="76">P37-C37</f>
-        <v>21732.89487093396</v>
+        <f t="shared" ref="Q37:Q38" si="76">P37-C37</f>
+        <v>21699.288408069697</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" ref="R37" si="77">24*LN(2)/(M37)</f>
-        <v>133.59050315555169</v>
+        <f t="shared" ref="R37:R38" si="77">24*LN(2)/(M37)</f>
+        <v>133.58204489675003</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -6967,13 +7026,66 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
+      <c r="C38">
+        <v>396223</v>
+      </c>
+      <c r="D38">
+        <v>12722</v>
+      </c>
+      <c r="E38">
+        <v>21763</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ref="F38" si="78">D38*$W$7</f>
+        <v>127220</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38" si="79">E38*$W$7</f>
+        <v>217630</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="80">C38-C37</f>
+        <v>29556</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="81">D38-D37</f>
+        <v>1939</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="K38" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="35"/>
+        <f t="shared" ref="K38" si="82">W$4*EXP(X$4*J38)</f>
+        <v>3271842.2877774565</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="34">
+        <f>SLOPE(C34:C38,LN(J34:J38))</f>
+        <v>985962.63871797128</v>
+      </c>
+      <c r="N38" s="35">
+        <f>INTERCEPT($C$34:C38, LN($J$34:J38))</f>
+        <v>-3109639.4214142296</v>
+      </c>
+      <c r="O38" s="13">
+        <f>INDEX(LINEST($C$28:C38,LN($J$28:J38),1,1),3)</f>
+        <v>0.98850529048555091</v>
+      </c>
+      <c r="P38" s="4">
+        <f>M38*LN(J38)+N38</f>
+        <v>395800.93485269649</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="76"/>
+        <v>-422.06514730351046</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="77"/>
+        <v>1.6872375970624564E-5</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -7390,7 +7502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7418,149 +7530,172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="B3">
+      <c r="D3" s="45">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="D4" s="45">
         <v>0.01</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10">
+      <c r="D5" s="42">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="44">
+        <v>43928</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>"probable cases " &amp; B3 &amp; " days ago."</f>
+      <c r="D6" s="10">
+        <f>VLOOKUP(B6,Summary!A3:E66,4)</f>
+        <v>12722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" t="str">
+        <f>"probable cases " &amp; D3 &amp; " days ago."</f>
         <v>probable cases 18 days ago.</v>
       </c>
-      <c r="B8">
-        <f>B6/B4</f>
-        <v>387300</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="D8">
+        <f>D6/D4</f>
+        <v>1272200</v>
+      </c>
+      <c r="F8" s="33">
         <f ca="1">TODAY()-18</f>
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>"number of doubles in " &amp; B3 &amp; " days"</f>
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f>"number of doubles in " &amp; D3 &amp; " days"</f>
         <v>number of doubles in 18 days</v>
       </c>
-      <c r="B9">
-        <f>B3/B5</f>
+      <c r="D9">
+        <f>D3/D5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11">
-        <f>$B$8 * (2^$B$9)</f>
-        <v>1549200</v>
-      </c>
-      <c r="C11" s="11">
-        <f>B8*2^(INT(B9))</f>
-        <v>1549200</v>
-      </c>
       <c r="D11" s="11">
-        <f>B8*2^(1+INT(B9))</f>
-        <v>3098400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>"number of deaths in " &amp; B3 &amp; " days."</f>
+        <f>$D$8 * (2^$D$9)</f>
+        <v>5088800</v>
+      </c>
+      <c r="E11" s="11">
+        <f>D8*2^(INT(D9))</f>
+        <v>5088800</v>
+      </c>
+      <c r="F11" s="11">
+        <f>D8*2^(1+INT(D9))</f>
+        <v>10177600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f>"number of deaths in " &amp; D3 &amp; " days."</f>
         <v>number of deaths in 18 days.</v>
       </c>
-      <c r="B12" s="12">
-        <f>B11*$B$4</f>
-        <v>15492</v>
-      </c>
-      <c r="C12" s="12">
-        <f>C11*$B$4</f>
-        <v>15492</v>
-      </c>
       <c r="D12" s="12">
-        <f>D11*$B$4</f>
-        <v>30984</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="33">
+        <f>D11*$D$4</f>
+        <v>50888</v>
+      </c>
+      <c r="E12" s="12">
+        <f>E11*$D$4</f>
+        <v>50888</v>
+      </c>
+      <c r="F12" s="12">
+        <f>F11*$D$4</f>
+        <v>101776</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="33">
+        <f>B6+D3</f>
+        <v>43946</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="43">
+        <f>VLOOKUP(B13,Summary!A3:E66,4)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="33">
         <f>18+DATE(2020,3,28)</f>
         <v>43936</v>
       </c>
-    </row>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7582,52 +7717,52 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="F5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="H5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="I5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="J5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="K5" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="37">
         <v>4.5999999999999996</v>
@@ -7639,10 +7774,10 @@
         <v>5.7</v>
       </c>
       <c r="F6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="38">
         <v>43830</v>
@@ -7654,12 +7789,12 @@
         <v>43858</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="37">
         <v>5</v>
@@ -7671,10 +7806,10 @@
         <v>5.8</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38">
         <v>43830</v>
@@ -7686,12 +7821,12 @@
         <v>43858</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="37">
         <v>5.4</v>
@@ -7703,10 +7838,10 @@
         <v>6.7</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="38">
         <v>43809</v>
@@ -7718,12 +7853,12 @@
         <v>43856</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="37">
         <v>5.2</v>
@@ -7735,10 +7870,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>66</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>67</v>
       </c>
       <c r="H9" s="38">
         <v>43800</v>
@@ -7750,12 +7885,12 @@
         <v>43865</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="37">
         <v>4.2</v>
@@ -7767,10 +7902,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="38">
         <v>43830</v>
@@ -7782,12 +7917,12 @@
         <v>43872</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="37">
         <v>6.6</v>
@@ -7799,10 +7934,10 @@
         <v>11.4</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="38">
         <v>43849</v>
@@ -7814,12 +7949,12 @@
         <v>43896</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="37">
         <v>5.4</v>
@@ -7831,10 +7966,10 @@
         <v>9.9</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="38">
         <v>43851</v>
@@ -7846,12 +7981,12 @@
         <v>43896</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="37">
         <v>5.2</v>
@@ -7863,10 +7998,10 @@
         <v>9.4</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="38">
         <v>43851</v>
@@ -7878,12 +8013,12 @@
         <v>43896</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="37">
         <v>7.1</v>
@@ -7895,10 +8030,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="38">
         <v>43849</v>
@@ -7910,12 +8045,12 @@
         <v>43896</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="37">
         <v>5.46</v>
@@ -7927,10 +8062,10 @@
         <v>11.1</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="38">
         <v>43849</v>
@@ -7942,12 +8077,12 @@
         <v>43896</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="37">
         <v>7.27</v>
@@ -7959,10 +8094,10 @@
         <v>17.3</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="38">
         <v>43862</v>
@@ -7974,12 +8109,12 @@
         <v>43896</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="37">
         <v>9</v>
@@ -7991,10 +8126,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="38">
         <v>43851</v>
@@ -8006,12 +8141,12 @@
         <v>43896</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="37">
         <v>6.9</v>
@@ -8023,10 +8158,10 @@
         <v>12.7</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="38">
         <v>43851</v>
@@ -8038,12 +8173,12 @@
         <v>43896</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="37">
         <v>12.4</v>
@@ -8055,10 +8190,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="38">
         <v>43862</v>
@@ -8070,12 +8205,12 @@
         <v>43896</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="37">
         <v>8.1300000000000008</v>
@@ -8087,10 +8222,10 @@
         <v>8.91</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="38">
         <v>43842</v>
@@ -8102,12 +8237,12 @@
         <v>43900</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="37">
         <v>8.6199999999999992</v>
@@ -8119,10 +8254,10 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="38">
         <v>43842</v>
@@ -8134,12 +8269,12 @@
         <v>43900</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="37">
         <v>4.8</v>
@@ -8151,10 +8286,10 @@
         <v>5.4</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="38">
         <v>43844</v>
@@ -8166,7 +8301,7 @@
         <v>43894</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -8213,44 +8348,44 @@
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="F6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="G6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="I6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="J6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="K6" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="37">
         <v>22.3</v>
@@ -8262,10 +8397,10 @@
         <v>82</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="38">
         <v>43830</v>
@@ -8277,12 +8412,12 @@
         <v>43871</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="37">
         <v>13.8</v>
@@ -8294,10 +8429,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="38">
         <v>43830</v>
@@ -8309,12 +8444,12 @@
         <v>43858</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="37">
         <v>15.2</v>
@@ -8326,10 +8461,10 @@
         <v>17.7</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="38">
         <v>43830</v>
@@ -8341,7 +8476,7 @@
         <v>43878</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="91">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -854,6 +854,9 @@
                 <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -877,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>396223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>429052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,6 +1041,9 @@
                 <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1151,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>127220</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,6 +1321,9 @@
                 <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1422,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>217630</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>235590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383509592"/>
-        <c:axId val="383513120"/>
+        <c:axId val="487251960"/>
+        <c:axId val="487253136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383509592"/>
+        <c:axId val="487251960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383513120"/>
+        <c:crossAx val="487253136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383513120"/>
+        <c:axId val="487253136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383509592"/>
+        <c:crossAx val="487251960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,6 +2232,9 @@
                 <c:pt idx="34">
                   <c:v>396223</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>429052</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2327,6 +2348,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>29556</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,11 +2365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383512728"/>
-        <c:axId val="383510768"/>
+        <c:axId val="487255880"/>
+        <c:axId val="487253528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383512728"/>
+        <c:axId val="487255880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2474,12 +2498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383510768"/>
+        <c:crossAx val="487253528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383510768"/>
+        <c:axId val="487253528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2608,7 +2632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383512728"/>
+        <c:crossAx val="487255880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4380,16 +4404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
@@ -4666,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J38" si="5">J4+1</f>
+        <f t="shared" ref="J5:J39" si="5">J4+1</f>
         <v>2</v>
       </c>
       <c r="K5" s="4">
@@ -7063,7 +7088,7 @@
         <v>89</v>
       </c>
       <c r="M38" s="34">
-        <f>SLOPE(C34:C38,LN(J34:J38))</f>
+        <f>SLOPE($C$34:C38,LN($J$34:J38))</f>
         <v>985962.63871797128</v>
       </c>
       <c r="N38" s="35">
@@ -7083,8 +7108,12 @@
         <v>-422.06514730351046</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="77"/>
-        <v>1.6872375970624564E-5</v>
+        <f>24*(T38-J38)</f>
+        <v>414.93358441500959</v>
+      </c>
+      <c r="T38">
+        <f>EXP((2*M38*LN(J38)+N38)/M38)</f>
+        <v>52.2888993506254</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -7094,13 +7123,70 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
+      <c r="C39">
+        <v>429052</v>
+      </c>
+      <c r="D39">
+        <v>14695</v>
+      </c>
+      <c r="E39">
+        <v>23559</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39" si="83">D39*$W$7</f>
+        <v>146950</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ref="G39" si="84">E39*$W$7</f>
+        <v>235590</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39" si="85">C39-C38</f>
+        <v>32829</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39" si="86">D39-D38</f>
+        <v>1973</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
       <c r="K39" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="35"/>
+        <f t="shared" ref="K39" si="87">W$4*EXP(X$4*J39)</f>
+        <v>4383086.7649084078</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="34">
+        <f>SLOPE($C$34:C39,LN($J$34:J39))</f>
+        <v>1011603.5858229749</v>
+      </c>
+      <c r="N39" s="35">
+        <f>INTERCEPT($C$34:C39, LN($J$34:J39))</f>
+        <v>-3198732.7718360242</v>
+      </c>
+      <c r="O39" s="13">
+        <f>INDEX(LINEST($C$28:C39,LN($J$28:J39),1,1),3)</f>
+        <v>0.98856629423447806</v>
+      </c>
+      <c r="P39" s="4">
+        <f>M39*LN(J39)+N39</f>
+        <v>426367.83617071714</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" ref="Q39" si="88">P39-C39</f>
+        <v>-2684.1638292828575</v>
+      </c>
+      <c r="R39" s="9">
+        <f>24*(T39-J39)</f>
+        <v>452.91868630963603</v>
+      </c>
+      <c r="T39">
+        <f>EXP((2*M39*LN(J39)+N39)/M39)</f>
+        <v>54.871611929568168</v>
+      </c>
       <c r="V39" t="s">
         <v>37</v>
       </c>
@@ -7502,7 +7588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7610,7 +7696,7 @@
       </c>
       <c r="F8" s="33">
         <f ca="1">TODAY()-18</f>
-        <v>43910</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.pellessier\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.pellessier\Documents\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1696,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487251960"/>
-        <c:axId val="487253136"/>
+        <c:axId val="381200216"/>
+        <c:axId val="381195120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="487251960"/>
+        <c:axId val="381200216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487253136"/>
+        <c:crossAx val="381195120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487253136"/>
+        <c:axId val="381195120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487251960"/>
+        <c:crossAx val="381200216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2365,11 +2365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487255880"/>
-        <c:axId val="487253528"/>
+        <c:axId val="381196688"/>
+        <c:axId val="381201392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="487255880"/>
+        <c:axId val="381196688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2498,12 +2498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487253528"/>
+        <c:crossAx val="381201392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487253528"/>
+        <c:axId val="381201392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2632,7 +2632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487255880"/>
+        <c:crossAx val="381196688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,15 +3942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3973,16 +3973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4008,12 +4008,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11861</cdr:x>
-      <cdr:y>0.60037</cdr:y>
+      <cdr:x>0.11102</cdr:x>
+      <cdr:y>0.57696</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.50685</cdr:x>
-      <cdr:y>0.72273</cdr:y>
+      <cdr:x>0.58118</cdr:x>
+      <cdr:y>0.69932</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4022,8 +4022,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="725770" y="3019361"/>
-          <a:ext cx="2375570" cy="615379"/>
+          <a:off x="557510" y="2629062"/>
+          <a:ext cx="2360950" cy="557565"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4404,11 +4404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7040,7 +7040,7 @@
         <v>21699.288408069697</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" ref="R37:R38" si="77">24*LN(2)/(M37)</f>
+        <f t="shared" ref="R37" si="77">24*LN(2)/(M37)</f>
         <v>133.58204489675003</v>
       </c>
     </row>
@@ -7588,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="91">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -687,8 +687,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27461460631788026"/>
-          <c:y val="6.8897637795275593E-2"/>
+          <c:x val="0.17911251158300223"/>
+          <c:y val="3.6660371515456119E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -795,8 +795,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3854149302321019E-2"/>
-                  <c:y val="7.0124274238447484E-2"/>
+                  <c:x val="-9.0866529853823721E-2"/>
+                  <c:y val="0.10479522989993756"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
@@ -857,6 +857,24 @@
                 <c:pt idx="5">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -883,6 +901,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>429052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>461437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>496535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>555313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>580619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>607670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,6 +1080,24 @@
                 <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1163,6 +1217,24 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>146950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>164780</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>185860</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>204630</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>220200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>235290</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>258320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,6 +1396,24 @@
                 <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1440,6 +1530,24 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>235590</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>254100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>287900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>312700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>329880</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>434820</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>477630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,11 +1804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381200216"/>
-        <c:axId val="381195120"/>
+        <c:axId val="368296784"/>
+        <c:axId val="368298744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381200216"/>
+        <c:axId val="368296784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381195120"/>
+        <c:crossAx val="368298744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381195120"/>
+        <c:axId val="368298744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +2016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381200216"/>
+        <c:crossAx val="368296784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1930,9 +2038,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10549383381871788"/>
-          <c:y val="0.1907722898274079"/>
-          <c:w val="0.285295790392328"/>
+          <c:x val="0.12397814875728334"/>
+          <c:y val="0.53893474872700875"/>
+          <c:w val="0.41468579135556299"/>
           <c:h val="0.17045573848723458"/>
         </c:manualLayout>
       </c:layout>
@@ -2235,6 +2343,24 @@
                 <c:pt idx="35">
                   <c:v>429052</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>461437</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>496535</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>526396</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>580619</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>607670</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2351,6 +2477,24 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>32829</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32385</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29861</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28917</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25306</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,11 +2509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381196688"/>
-        <c:axId val="381201392"/>
+        <c:axId val="368299528"/>
+        <c:axId val="368294432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381196688"/>
+        <c:axId val="368299528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2498,12 +2642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381201392"/>
+        <c:crossAx val="368294432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381201392"/>
+        <c:axId val="368294432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2632,7 +2776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381196688"/>
+        <c:crossAx val="368299528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3947,10 +4091,10 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3973,16 +4117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4008,12 +4152,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11102</cdr:x>
-      <cdr:y>0.57696</cdr:y>
+      <cdr:x>0.12026</cdr:x>
+      <cdr:y>0.33131</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.58118</cdr:x>
-      <cdr:y>0.69932</cdr:y>
+      <cdr:x>0.64325</cdr:x>
+      <cdr:y>0.45648</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4022,8 +4166,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="557510" y="2629062"/>
-          <a:ext cx="2360950" cy="557565"/>
+          <a:off x="495771" y="1305217"/>
+          <a:ext cx="2155989" cy="493103"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4043,7 +4187,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4051,14 +4195,14 @@
             </a:rPr>
             <a:t>data from JHU viaGitHub,</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
+          <a:endParaRPr lang="en-US" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4066,16 +4210,11 @@
             </a:rPr>
             <a:t>https://github.com/CSSEGISandData/COVID-19,</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4083,7 +4222,7 @@
             </a:rPr>
             <a:t>logarithm fit by Richard Pellessier</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
+          <a:endParaRPr lang="en-US" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4405,10 +4544,10 @@
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4428,9 +4567,9 @@
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" customWidth="1"/>
     <col min="20" max="21" width="7.33203125" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
@@ -4691,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J39" si="5">J4+1</f>
+        <f t="shared" ref="J5:J45" si="5">J4+1</f>
         <v>2</v>
       </c>
       <c r="K5" s="4">
@@ -7100,7 +7239,7 @@
         <v>0.98850529048555091</v>
       </c>
       <c r="P38" s="4">
-        <f>M38*LN(J38)+N38</f>
+        <f t="shared" ref="P38:P43" si="83">M38*LN(J38)+N38</f>
         <v>395800.93485269649</v>
       </c>
       <c r="Q38" s="4">
@@ -7108,11 +7247,11 @@
         <v>-422.06514730351046</v>
       </c>
       <c r="R38" s="9">
-        <f>24*(T38-J38)</f>
+        <f t="shared" ref="R38:R43" si="84">24*(T38-J38)</f>
         <v>414.93358441500959</v>
       </c>
       <c r="T38">
-        <f>EXP((2*M38*LN(J38)+N38)/M38)</f>
+        <f t="shared" ref="T38:T43" si="85">EXP((2*M38*LN(J38)+N38)/M38)</f>
         <v>52.2888993506254</v>
       </c>
     </row>
@@ -7133,19 +7272,19 @@
         <v>23559</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39" si="83">D39*$W$7</f>
+        <f t="shared" ref="F39" si="86">D39*$W$7</f>
         <v>146950</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39" si="84">E39*$W$7</f>
+        <f t="shared" ref="G39" si="87">E39*$W$7</f>
         <v>235590</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="85">C39-C38</f>
+        <f t="shared" ref="H39" si="88">C39-C38</f>
         <v>32829</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="86">D39-D38</f>
+        <f t="shared" ref="I39" si="89">D39-D38</f>
         <v>1973</v>
       </c>
       <c r="J39">
@@ -7153,7 +7292,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" ref="K39" si="87">W$4*EXP(X$4*J39)</f>
+        <f t="shared" ref="K39" si="90">W$4*EXP(X$4*J39)</f>
         <v>4383086.7649084078</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -7172,19 +7311,19 @@
         <v>0.98856629423447806</v>
       </c>
       <c r="P39" s="4">
-        <f>M39*LN(J39)+N39</f>
+        <f t="shared" si="83"/>
         <v>426367.83617071714</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" ref="Q39" si="88">P39-C39</f>
+        <f t="shared" ref="Q39" si="91">P39-C39</f>
         <v>-2684.1638292828575</v>
       </c>
       <c r="R39" s="9">
-        <f>24*(T39-J39)</f>
+        <f t="shared" si="84"/>
         <v>452.91868630963603</v>
       </c>
       <c r="T39">
-        <f>EXP((2*M39*LN(J39)+N39)/M39)</f>
+        <f t="shared" si="85"/>
         <v>54.871611929568168</v>
       </c>
       <c r="V39" t="s">
@@ -7198,13 +7337,70 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
+      <c r="C40">
+        <v>461437</v>
+      </c>
+      <c r="D40">
+        <v>16478</v>
+      </c>
+      <c r="E40">
+        <v>25410</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40" si="92">D40*$W$7</f>
+        <v>164780</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40" si="93">E40*$W$7</f>
+        <v>254100</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="94">C40-C39</f>
+        <v>32385</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="95">D40-D39</f>
+        <v>1783</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
       <c r="K40" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="35"/>
+        <f t="shared" ref="K40" si="96">W$4*EXP(X$4*J40)</f>
+        <v>5871752.9449640783</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="34">
+        <f>SLOPE($C$34:C40,LN($J$34:J40))</f>
+        <v>1037674.3159196723</v>
+      </c>
+      <c r="N40" s="35">
+        <f>INTERCEPT($C$34:C40, LN($J$34:J40))</f>
+        <v>-3289571.9996945816</v>
+      </c>
+      <c r="O40" s="13">
+        <f>INDEX(LINEST($C$28:C40,LN($J$28:J40),1,1),3)</f>
+        <v>0.98833897765216183</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="83"/>
+        <v>457384.77515060455</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" ref="Q40" si="97">P40-C40</f>
+        <v>-4052.2248493954539</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="84"/>
+        <v>491.87815493348859</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="85"/>
+        <v>57.494923122228691</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -7213,13 +7409,70 @@
       <c r="B41" t="s">
         <v>12</v>
       </c>
+      <c r="C41">
+        <v>496535</v>
+      </c>
+      <c r="D41">
+        <v>18586</v>
+      </c>
+      <c r="E41">
+        <v>28790</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ref="F41" si="98">D41*$W$7</f>
+        <v>185860</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ref="G41" si="99">E41*$W$7</f>
+        <v>287900</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41" si="100">C41-C40</f>
+        <v>35098</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41" si="101">D41-D40</f>
+        <v>2108</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
       <c r="K41" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="35"/>
+        <f t="shared" ref="K41" si="102">W$4*EXP(X$4*J41)</f>
+        <v>7866027.8693832317</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="34">
+        <f>SLOPE($C$34:C41,LN($J$34:J41))</f>
+        <v>1069629.2101014</v>
+      </c>
+      <c r="N41" s="35">
+        <f>INTERCEPT($C$34:C41, LN($J$34:J41))</f>
+        <v>-3401217.5720304553</v>
+      </c>
+      <c r="O41" s="13">
+        <f>INDEX(LINEST($C$28:C41,LN($J$28:J41),1,1),3)</f>
+        <v>0.98747999854046786</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="83"/>
+        <v>489650.83867346356</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" ref="Q41" si="103">P41-C41</f>
+        <v>-6884.1613265364431</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="84"/>
+        <v>529.46643308954435</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="85"/>
+        <v>60.061101378731017</v>
+      </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -7228,13 +7481,70 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
+      <c r="C42">
+        <v>526396</v>
+      </c>
+      <c r="D42">
+        <v>20463</v>
+      </c>
+      <c r="E42">
+        <v>31270</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42" si="104">D42*$W$7</f>
+        <v>204630</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42" si="105">E42*$W$7</f>
+        <v>312700</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="106">C42-C41</f>
+        <v>29861</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="107">D42-D41</f>
+        <v>1877</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
       <c r="K42" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="35"/>
+        <f t="shared" ref="K42" si="108">W$4*EXP(X$4*J42)</f>
+        <v>10537635.868174648</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="34">
+        <f>SLOPE($C$34:C42,LN($J$34:J42))</f>
+        <v>1089775.6929262762</v>
+      </c>
+      <c r="N42" s="35">
+        <f>INTERCEPT($C$34:C42, LN($J$34:J42))</f>
+        <v>-3471794.5751434662</v>
+      </c>
+      <c r="O42" s="13">
+        <f>INDEX(LINEST($C$28:C42,LN($J$28:J42),1,1),3)</f>
+        <v>0.98733980357498752</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="83"/>
+        <v>520665.85634559812</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" ref="Q42" si="109">P42-C42</f>
+        <v>-5730.1436544018798</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="84"/>
+        <v>573.28135588862619</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="85"/>
+        <v>62.886723162026094</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -7243,13 +7553,70 @@
       <c r="B43" t="s">
         <v>14</v>
       </c>
+      <c r="C43">
+        <v>555313</v>
+      </c>
+      <c r="D43">
+        <v>22020</v>
+      </c>
+      <c r="E43">
+        <v>32988</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43" si="110">D43*$W$7</f>
+        <v>220200</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ref="G43" si="111">E43*$W$7</f>
+        <v>329880</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43" si="112">C43-C42</f>
+        <v>28917</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43" si="113">D43-D42</f>
+        <v>1557</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
       <c r="K43" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="35"/>
+        <f t="shared" ref="K43" si="114">W$4*EXP(X$4*J43)</f>
+        <v>14116625.510881616</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="34">
+        <f>SLOPE($C$34:C43,LN($J$34:J43))</f>
+        <v>1102875.7091866063</v>
+      </c>
+      <c r="N43" s="35">
+        <f>INTERCEPT($C$34:C43, LN($J$34:J43))</f>
+        <v>-3517806.740349581</v>
+      </c>
+      <c r="O43" s="13">
+        <f>INDEX(LINEST($C$28:C43,LN($J$28:J43),1,1),3)</f>
+        <v>0.98761991044893838</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="83"/>
+        <v>550568.80371022783</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" ref="Q43" si="115">P43-C43</f>
+        <v>-4744.1962897721678</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="84"/>
+        <v>621.52570824480449</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="85"/>
+        <v>65.896904510200187</v>
+      </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -7258,13 +7625,70 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
+      <c r="C44">
+        <v>580619</v>
+      </c>
+      <c r="D44">
+        <v>23529</v>
+      </c>
+      <c r="E44">
+        <v>43482</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ref="F44" si="116">D44*$W$7</f>
+        <v>235290</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44" si="117">E44*$W$7</f>
+        <v>434820</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="118">C44-C43</f>
+        <v>25306</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44" si="119">D44-D43</f>
+        <v>1509</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
       <c r="K44" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="35"/>
+        <f t="shared" ref="K44" si="120">W$4*EXP(X$4*J44)</f>
+        <v>18911178.779324546</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="34">
+        <f>SLOPE($C$34:C44,LN($J$34:J44))</f>
+        <v>1107273.9949117335</v>
+      </c>
+      <c r="N44" s="35">
+        <f>INTERCEPT($C$34:C44, LN($J$34:J44))</f>
+        <v>-3533294.8746214728</v>
+      </c>
+      <c r="O44" s="13">
+        <f>INDEX(LINEST($C$28:C44,LN($J$28:J44),1,1),3)</f>
+        <v>0.98840063543847934</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" ref="P44" si="121">M44*LN(J44)+N44</f>
+        <v>578646.90307082888</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" ref="Q44" si="122">P44-C44</f>
+        <v>-1972.0969291711226</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" ref="R44" si="123">24*(T44-J44)</f>
+        <v>675.40239557379789</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ref="T44" si="124">EXP((2*M44*LN(J44)+N44)/M44)</f>
+        <v>69.141766482241579</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -7273,13 +7697,70 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
+      <c r="C45">
+        <v>607670</v>
+      </c>
+      <c r="D45">
+        <v>25832</v>
+      </c>
+      <c r="E45">
+        <v>47763</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ref="F45" si="125">D45*$W$7</f>
+        <v>258320</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45" si="126">E45*$W$7</f>
+        <v>477630</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45" si="127">C45-C44</f>
+        <v>27051</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45" si="128">D45-D44</f>
+        <v>2303</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
       <c r="K45" s="4">
-        <f t="shared" si="63"/>
-        <v>117.55</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="35"/>
+        <f t="shared" ref="K45" si="129">W$4*EXP(X$4*J45)</f>
+        <v>25334148.203329325</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M45" s="34">
+        <f>SLOPE($C$34:C45,LN($J$34:J45))</f>
+        <v>1110393.5698230423</v>
+      </c>
+      <c r="N45" s="35">
+        <f>INTERCEPT($C$34:C45, LN($J$34:J45))</f>
+        <v>-3544307.8530140789</v>
+      </c>
+      <c r="O45" s="13">
+        <f>INDEX(LINEST($C$28:C45,LN($J$28:J45),1,1),3)</f>
+        <v>0.98917392557214445</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" ref="P45" si="130">M45*LN(J45)+N45</f>
+        <v>605976.45725071803</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" ref="Q45" si="131">P45-C45</f>
+        <v>-1693.5427492819726</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" ref="R45" si="132">24*(T45-J45)</f>
+        <v>731.67690186452387</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45" si="133">EXP((2*M45*LN(J45)+N45)/M45)</f>
+        <v>72.486537577688495</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -7589,7 +8070,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7619,7 +8100,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7663,7 +8144,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -7674,14 +8155,14 @@
         <v>87</v>
       </c>
       <c r="B6" s="44">
-        <v>43928</v>
+        <v>43918</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="10">
         <f>VLOOKUP(B6,Summary!A3:E66,4)</f>
-        <v>12722</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -7692,11 +8173,11 @@
       </c>
       <c r="D8">
         <f>D6/D4</f>
-        <v>1272200</v>
+        <v>202600</v>
       </c>
       <c r="F8" s="33">
         <f ca="1">TODAY()-18</f>
-        <v>43911</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -7706,7 +8187,7 @@
       </c>
       <c r="D9">
         <f>D3/D5</f>
-        <v>2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -7726,15 +8207,15 @@
       </c>
       <c r="D11" s="11">
         <f>$D$8 * (2^$D$9)</f>
-        <v>5088800</v>
+        <v>2456673.4110000529</v>
       </c>
       <c r="E11" s="11">
         <f>D8*2^(INT(D9))</f>
-        <v>5088800</v>
+        <v>1620800</v>
       </c>
       <c r="F11" s="11">
         <f>D8*2^(1+INT(D9))</f>
-        <v>10177600</v>
+        <v>3241600</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -7744,15 +8225,15 @@
       </c>
       <c r="D12" s="12">
         <f>D11*$D$4</f>
-        <v>50888</v>
+        <v>24566.734110000529</v>
       </c>
       <c r="E12" s="12">
         <f>E11*$D$4</f>
-        <v>50888</v>
+        <v>16208</v>
       </c>
       <c r="F12" s="12">
         <f>F11*$D$4</f>
-        <v>101776</v>
+        <v>32416</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -7761,7 +8242,7 @@
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="33">
         <f>B6+D3</f>
-        <v>43946</v>
+        <v>43936</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>

--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13116" windowHeight="8328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="77">
   <si>
     <t>US CoronaVirus</t>
   </si>
@@ -137,13 +137,7 @@
     <t>Factor</t>
   </si>
   <si>
-    <t>excel</t>
-  </si>
-  <si>
     <t>History of exponential components from MS Trendline</t>
-  </si>
-  <si>
-    <t>Generally</t>
   </si>
   <si>
     <t>Day of Week</t>
@@ -273,6 +267,12 @@
   </si>
   <si>
     <t>d:</t>
+  </si>
+  <si>
+    <t>New Recoveries</t>
+  </si>
+  <si>
+    <t>smoothed new deaths(t)/new cases(t-d)</t>
   </si>
 </sst>
 </file>
@@ -531,18 +531,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
@@ -570,6 +565,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="5"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -790,7 +788,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$36:$J$101</c:f>
+              <c:f>Summary!$K$36:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
@@ -859,6 +857,39 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,6 +965,39 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>905333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>938154</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>965783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>988197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1012582</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1039909</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1069424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1103461</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1132539</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1158040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1180375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1204351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,7 +1013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Deaths x </c:v>
+                  <c:v>Total Deaths x 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -980,7 +1044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$5:$J$101</c:f>
+              <c:f>Summary!$K$5:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1142,6 +1206,39 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,6 +1407,39 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>51949</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53755</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54881</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56259</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58355</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60967</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64943</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66369</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Recovered x </c:v>
+                  <c:v>Total Recovered x 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1356,7 +1486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$5:$J$101</c:f>
+              <c:f>Summary!$K$5:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1518,6 +1648,39 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,6 +1849,39 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>99079</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100372</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106988</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111424</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>115936</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>120720</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>153947</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>164015</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>175382</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>180152</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>187180</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>189791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,7 +1920,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$5:$J$36</c:f>
+              <c:f>Summary!$K$5:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1942,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461914712"/>
-        <c:axId val="392211704"/>
+        <c:axId val="365643144"/>
+        <c:axId val="365849248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461914712"/>
+        <c:axId val="365643144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,12 +2280,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392211704"/>
+        <c:crossAx val="365849248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392211704"/>
+        <c:axId val="365849248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461914712"/>
+        <c:crossAx val="365643144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2288,11 +2484,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New Cases per Cases</a:t>
+              <a:t>US New Cases per Cases</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2528,6 +2725,39 @@
                 <c:pt idx="51">
                   <c:v>905333</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>938154</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>965783</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>988197</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1012582</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1039909</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1069424</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1103461</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1132539</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1158040</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1180375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1204351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2692,6 +2922,39 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>36163</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32821</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27629</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22414</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24385</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27327</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29515</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34037</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29078</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22335</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,11 +2969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388779504"/>
-        <c:axId val="388782248"/>
+        <c:axId val="427935152"/>
+        <c:axId val="427932016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388779504"/>
+        <c:axId val="427935152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2772,6 +3035,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2838,12 +3102,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388782248"/>
+        <c:crossAx val="427932016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388782248"/>
+        <c:axId val="427932016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2905,6 +3169,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2971,7 +3236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388779504"/>
+        <c:crossAx val="427935152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3055,7 +3320,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deaths Present/Cases</a:t>
+              <a:t>US Deaths Present/Cases</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3068,8 +3333,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13598250542157275"/>
-          <c:y val="0.49765316043747893"/>
+          <c:x val="0.28077609753494304"/>
+          <c:y val="6.2592379887255009E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3113,7 +3378,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11335235128880609"/>
-          <c:y val="3.5869287406489911E-2"/>
+          <c:y val="3.2670364381035863E-2"/>
           <c:w val="0.89019685039370078"/>
           <c:h val="0.78509801186269035"/>
         </c:manualLayout>
@@ -3126,7 +3391,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary!$K$2</c:f>
+              <c:f>Summary!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3161,7 +3426,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$J$36:$J$101</c:f>
+              <c:f>Summary!$K$36:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
@@ -3231,80 +3496,402 @@
                 <c:pt idx="21">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$K$36:$K$101</c:f>
+              <c:f>Summary!$L$36:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>0.16229647101930519</c:v>
+                  <c:v>0.27799788177146667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15643840714551543</c:v>
+                  <c:v>0.25264454862363267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14623430326248898</c:v>
+                  <c:v>0.22028076121556325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12862016317572403</c:v>
+                  <c:v>0.20065128395980647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1251463253883156</c:v>
+                  <c:v>0.19340813037793791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1209684058018736</c:v>
+                  <c:v>0.17528269478505654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11695981147878426</c:v>
+                  <c:v>0.16209410075056316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11486524068798012</c:v>
+                  <c:v>0.15299889691960683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10874625342771507</c:v>
+                  <c:v>0.1452450917763298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1022203447267393</c:v>
+                  <c:v>0.13608805552293782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6646991411073191E-2</c:v>
+                  <c:v>0.12503985715196736</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3734805106210045E-2</c:v>
+                  <c:v>0.11991625544873431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1714424477901887E-2</c:v>
+                  <c:v>0.1163509999876773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7655693739023122E-2</c:v>
+                  <c:v>0.11944365824098467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10028990882735561</c:v>
+                  <c:v>0.11906427068156063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7581412487412394E-2</c:v>
+                  <c:v>0.11470546352114681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4769398581057776E-2</c:v>
+                  <c:v>0.11089353555133132</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1223720681263096E-2</c:v>
+                  <c:v>0.10623815376694437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.9508292466794884E-2</c:v>
+                  <c:v>0.10358651165826054</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8568302190746129E-2</c:v>
+                  <c:v>0.10103654453370665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.9956474996983685E-2</c:v>
+                  <c:v>0.10060519399438106</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9471753421779168E-2</c:v>
+                  <c:v>9.8688059939665201E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6801263431614243E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4521536498116662E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2581499827208841E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1702679343128785E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.1295161283076839E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0032099195948012E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.8696074963431973E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7432781002416068E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6293199511427651E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4893424399376749E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4577848658684632E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smoothed new deaths(t)/new cases(t-d)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$K$36:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$M$36:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.18649181849831728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16001361404191181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14227376044997495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11978609625668449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13407283122048222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12047277732947263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10558614680089734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10572814308638191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7679932260795937E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2773323066106431E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2470567537056316E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7133479212253835E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6412282189855324E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10643387563063318</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11218086742540757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10910817941952507</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0005695091760707E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9957631893268429E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2866403454389222E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0799853125669351E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8703889133656432E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5007245869854189E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0472478254492941E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9261486649025738E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5496182223195085E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5567635476311272E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8527547263289454E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1060153786112842E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8410504563815533E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8799838904550948E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.930294363309626E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1000397339109702E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6272697853367373E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,11 +3906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118732064"/>
-        <c:axId val="156694520"/>
+        <c:axId val="427930840"/>
+        <c:axId val="427929664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118732064"/>
+        <c:axId val="427930840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,12 +4048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156694520"/>
+        <c:crossAx val="427929664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156694520"/>
+        <c:axId val="427929664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +4118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118732064"/>
+        <c:crossAx val="427930840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3543,6 +4130,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13247073321010475"/>
+          <c:y val="0.32525478461065688"/>
+          <c:w val="0.35797905113986445"/>
+          <c:h val="0.18634263807235224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5227,16 +5859,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>17391</xdr:rowOff>
+      <xdr:rowOff>93591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>293325</xdr:rowOff>
+      <xdr:rowOff>369525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5253,122 +5885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12847320" y="466971"/>
+          <a:off x="8747760" y="543171"/>
           <a:ext cx="1234440" cy="275934"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1537</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>39923</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15369540" y="5913120"/>
-          <a:ext cx="2942857" cy="657143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>519554</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>157911</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13571220" y="7071360"/>
-          <a:ext cx="4085714" cy="1628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>69984</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>173066</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12489180" y="3657600"/>
-          <a:ext cx="4009524" cy="2314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5570,12 +6088,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14983</cdr:x>
-      <cdr:y>0.63886</cdr:y>
+      <cdr:x>0.11841</cdr:x>
+      <cdr:y>0.65259</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.67282</cdr:x>
-      <cdr:y>0.76403</cdr:y>
+      <cdr:x>0.6414</cdr:x>
+      <cdr:y>0.80998</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5584,8 +6102,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="617665" y="2516805"/>
-          <a:ext cx="2155984" cy="493112"/>
+          <a:off x="488122" y="2590800"/>
+          <a:ext cx="2155985" cy="624840"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5638,8 +6156,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>graph by Richard Pellessier</a:t>
+            <a:t>graph by Richard Pellessier, </a:t>
           </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>smoothed data is average of 3 days</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr rtl="0"/>
           <a:endParaRPr lang="en-US" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5959,13 +6492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5978,23 +6511,22 @@
     <col min="6" max="6" width="7.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="17" width="9.5546875" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1">
         <v>1</v>
@@ -6002,19 +6534,22 @@
       <c r="G1" s="1">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="22">
+        <v>13</v>
+      </c>
+      <c r="M1" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -6026,12 +6561,12 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>"Total Deaths x "&amp;O7</f>
-        <v xml:space="preserve">Total Deaths x </v>
+        <f>"Total Deaths x "&amp;F1</f>
+        <v>Total Deaths x 1</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>"Total Recovered x "&amp;P7</f>
-        <v xml:space="preserve">Total Recovered x </v>
+        <f>"Total Recovered x "&amp;G1</f>
+        <v>Total Recovered x 1</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -6040,26 +6575,31 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.4">
+      <c r="V2" s="12"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>43891</v>
       </c>
@@ -6083,36 +6623,39 @@
         <f t="shared" ref="G3:G4" si="1">E3*$G$1</f>
         <v>7</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="41" t="str">
-        <f t="shared" ref="K3:K34" ca="1" si="2">IFERROR(D3/OFFSET(C3,-$K$1,0), "insufficient data")</f>
+      <c r="L3" s="38" t="str">
+        <f t="shared" ref="L3:L34" ca="1" si="2">IFERROR(D3/OFFSET(C3,-$L$1,0), "insufficient data")</f>
         <v>insufficient data</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="38" t="str">
+        <f ca="1">IFERROR(I3/OFFSET(H3,-$M$1,0), "insufficient data")</f>
+        <v>insufficient data</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>43892</v>
       </c>
@@ -6141,46 +6684,53 @@
         <v>25</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I5" si="4">D4-D3</f>
+        <f t="shared" ref="I4:J19" si="4">D4-D3</f>
         <v>5</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J5" si="5">J3+1</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K5" si="5">K3+1</f>
         <v>1</v>
       </c>
-      <c r="K4" s="41" t="str">
+      <c r="L4" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18">
-        <f>S6</f>
+      <c r="M4" s="38" t="str">
+        <f t="shared" ref="M4" ca="1" si="6">IFERROR(I4/OFFSET(H4,-$M$1,0), "insufficient data")</f>
+        <v>insufficient data</v>
+      </c>
+      <c r="P4" s="15">
+        <f>T6</f>
         <v>117.55</v>
       </c>
-      <c r="P4" s="18">
-        <f>T6</f>
+      <c r="Q4" s="17">
+        <f>U6</f>
         <v>0.29239999999999999</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="20">
+      <c r="R4" s="17"/>
+      <c r="S4" s="19">
         <v>43541</v>
       </c>
-      <c r="S4" s="18">
+      <c r="T4" s="17">
         <v>91.9</v>
       </c>
-      <c r="T4" s="18">
+      <c r="U4" s="17">
         <v>0.28599999999999998</v>
       </c>
-      <c r="U4" s="21">
-        <f>LN(2)/T4</f>
+      <c r="V4" s="20">
+        <f>LN(2)/U4</f>
         <v>2.4235915404193893</v>
       </c>
-      <c r="V4" s="22">
-        <f>U4*24</f>
+      <c r="W4" s="21">
+        <f>V4*24</f>
         <v>58.166196970065343</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>43893</v>
       </c>
@@ -6213,36 +6763,43 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K5" s="41" t="str">
+      <c r="L5" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="20">
+      <c r="M5" s="38" t="str">
+        <f ca="1">IFERROR((I5+I4+I3)/(OFFSET(H5,-$M$1,0)+OFFSET(H4,-$M$1,0)+OFFSET(H4,-$M$1,0)), "insufficient data")</f>
+        <v>insufficient data</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="19">
         <v>43909</v>
       </c>
-      <c r="S5" s="18">
+      <c r="T5" s="17">
         <v>92.456999999999994</v>
       </c>
-      <c r="T5" s="18">
+      <c r="U5" s="17">
         <v>0.28439999999999999</v>
       </c>
-      <c r="U5" s="21">
-        <f t="shared" ref="U5:U6" si="6">LN(2)/T5</f>
+      <c r="V5" s="20">
+        <f t="shared" ref="V5:V6" si="7">LN(2)/U5</f>
         <v>2.4372263732768822</v>
       </c>
-      <c r="V5" s="22">
-        <f>U5*24</f>
+      <c r="W5" s="21">
+        <f>V5*24</f>
         <v>58.493432958645172</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>43894</v>
       </c>
@@ -6259,15 +6816,15 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F55" si="7">D6*$F$1</f>
+        <f t="shared" ref="F6:F55" si="8">D6*$F$1</f>
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:G55" si="8">E6*$G$1</f>
+        <f t="shared" ref="G6:G55" si="9">E6*$G$1</f>
         <v>8</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="9">C6-C5</f>
+        <f t="shared" ref="H6:H13" si="10">C6-C5</f>
         <v>31</v>
       </c>
       <c r="I6">
@@ -6275,36 +6832,43 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <f>J5+1</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>K5+1</f>
         <v>3</v>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="L6" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20">
+      <c r="M6" s="38" t="str">
+        <f t="shared" ref="M6:M68" ca="1" si="11">IFERROR((I6+I5+I4)/(OFFSET(H6,-$M$1,0)+OFFSET(H5,-$M$1,0)+OFFSET(H5,-$M$1,0)), "insufficient data")</f>
+        <v>insufficient data</v>
+      </c>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="19">
         <v>43912</v>
       </c>
-      <c r="S6" s="18">
+      <c r="T6" s="17">
         <v>117.55</v>
       </c>
-      <c r="T6" s="18">
+      <c r="U6" s="17">
         <v>0.29239999999999999</v>
       </c>
-      <c r="U6" s="21">
-        <f t="shared" si="6"/>
+      <c r="V6" s="20">
+        <f t="shared" si="7"/>
         <v>2.3705443931598675</v>
       </c>
-      <c r="V6" s="22">
-        <f>U6*24</f>
+      <c r="W6" s="21">
+        <f>V6*24</f>
         <v>56.893065435836817</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>43895</v>
       </c>
@@ -6321,51 +6885,59 @@
         <v>8</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I18" si="10">D7-D6</f>
+        <f t="shared" ref="I7:I18" si="12">D7-D6</f>
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J57" si="11">J6+1</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K68" si="13">K6+1</f>
         <v>4</v>
       </c>
-      <c r="K7" s="41" t="str">
+      <c r="L7" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="R7" s="20">
+      <c r="M7" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="19">
         <v>43914</v>
       </c>
-      <c r="S7" s="18">
+      <c r="T7" s="17">
         <v>116.95</v>
       </c>
-      <c r="T7" s="18">
+      <c r="U7" s="17">
         <v>0.29320000000000002</v>
       </c>
-      <c r="U7" s="21">
-        <f>LN(2)/T7</f>
+      <c r="V7" s="20">
+        <f>LN(2)/U7</f>
         <v>2.3640763320598404</v>
       </c>
-      <c r="V7" s="22">
-        <f>U7*24</f>
+      <c r="W7" s="21">
+        <f>V7*24</f>
         <v>56.737831969436172</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>43896</v>
       </c>
@@ -6382,52 +6954,59 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="I8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="L8" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27">
+      <c r="M8" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24">
         <v>43916</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="23">
         <v>119.42</v>
       </c>
-      <c r="T8" s="26">
+      <c r="U8" s="23">
         <v>0.2903</v>
       </c>
-      <c r="U8" s="28">
-        <f>LN(2)/T8</f>
+      <c r="V8" s="25">
+        <f>LN(2)/U8</f>
         <v>2.3876926646915098</v>
       </c>
-      <c r="V8" s="29">
-        <f>U8*24</f>
+      <c r="W8" s="26">
+        <f>V8*24</f>
         <v>57.304623952596231</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>43897</v>
       </c>
@@ -6444,32 +7023,39 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="I9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="K9" s="41" t="str">
+      <c r="L9" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M9" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>43898</v>
       </c>
@@ -6486,32 +7072,39 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="I10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="L10" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M10" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>43899</v>
       </c>
@@ -6528,32 +7121,39 @@
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="I11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="K11" s="41" t="str">
+      <c r="L11" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M11" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>43900</v>
       </c>
@@ -6570,32 +7170,39 @@
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>354</v>
       </c>
       <c r="I12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="L12" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M12" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>43901</v>
       </c>
@@ -6612,32 +7219,39 @@
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>322</v>
       </c>
       <c r="I13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="K13" s="41" t="str">
+      <c r="L13" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>insufficient data</v>
       </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M13" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>43902</v>
       </c>
@@ -6654,32 +7268,39 @@
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H16" si="12">C14-C13</f>
+        <f t="shared" ref="H14:H16" si="14">C14-C13</f>
         <v>382</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="K14" s="41">
+      <c r="L14" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>insufficient data</v>
+      </c>
+      <c r="M14" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>43903</v>
       </c>
@@ -6696,32 +7317,39 @@
         <v>12</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H15">
+        <f t="shared" si="14"/>
+        <v>516</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="12"/>
-        <v>516</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="J15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="K15" s="41">
+      <c r="L15" s="38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46534653465346537</v>
-      </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>insufficient data</v>
+      </c>
+      <c r="M15" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>43904</v>
       </c>
@@ -6738,32 +7366,39 @@
         <v>12</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H16">
+        <f t="shared" si="14"/>
+        <v>547</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="12"/>
-        <v>547</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="J16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="K16" s="41">
+      <c r="L16" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44262295081967212</v>
-      </c>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="M16" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>insufficient data</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>43905</v>
       </c>
@@ -6780,32 +7415,39 @@
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="13">C17-C16</f>
+        <f t="shared" ref="H17" si="15">C17-C16</f>
         <v>773</v>
       </c>
       <c r="I17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="J17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="K17" s="41">
+      <c r="L17" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.62376237623762376</v>
+      </c>
+      <c r="M17" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>43906</v>
       </c>
@@ -6822,32 +7464,39 @@
         <v>17</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="14">C18-C17</f>
+        <f t="shared" ref="H18" si="16">C18-C17</f>
         <v>1133</v>
       </c>
       <c r="I18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="K18" s="41">
+      <c r="L18" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.69672131147540983</v>
+      </c>
+      <c r="M18" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.53521126760563376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>43907</v>
       </c>
@@ -6864,32 +7513,39 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="15">C19-C18</f>
+        <f t="shared" ref="H19" si="17">C19-C18</f>
         <v>1796</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19" si="16">D19-D18</f>
+        <f t="shared" ref="I19" si="18">D19-D18</f>
         <v>23</v>
       </c>
       <c r="J19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="K19" s="41">
+      <c r="L19" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38848920863309355</v>
-      </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="M19" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.73972602739726023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>43908</v>
       </c>
@@ -6906,32 +7562,39 @@
         <v>106</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="17">C20-C19</f>
+        <f t="shared" ref="H20" si="19">C20-C19</f>
         <v>1358</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="18">D20-D19</f>
+        <f t="shared" ref="I20:J35" si="20">D20-D19</f>
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="K20" s="41">
+      <c r="L20" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28297362110311752</v>
-      </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.5339366515837104</v>
+      </c>
+      <c r="M20" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>43909</v>
       </c>
@@ -6948,32 +7611,39 @@
         <v>108</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="19">C21-C20</f>
+        <f t="shared" ref="H21" si="21">C21-C20</f>
         <v>5894</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="20">D21-D20</f>
+        <f t="shared" ref="I21" si="22">D21-D20</f>
         <v>82</v>
       </c>
       <c r="J21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="K21" s="41">
+      <c r="L21" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37243947858472998</v>
-      </c>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.71942446043165464</v>
+      </c>
+      <c r="M21" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.59585492227979275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>43910</v>
       </c>
@@ -6990,31 +7660,39 @@
         <v>147</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="21">C22-C21</f>
+        <f t="shared" ref="H22:H23" si="23">C22-C21</f>
         <v>5421</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="22">D22-D21</f>
+        <f t="shared" ref="I22:I23" si="24">D22-D21</f>
         <v>44</v>
       </c>
       <c r="J22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="K22" s="41">
+      <c r="L22" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40330578512396692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.5851318944844125</v>
+      </c>
+      <c r="M22" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.53754940711462451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>43911</v>
       </c>
@@ -7031,31 +7709,39 @@
         <v>171</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>307</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="H23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6392</v>
       </c>
       <c r="I23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="J23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="K23" s="41">
+      <c r="L23" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32012513034410844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.57169459962756053</v>
+      </c>
+      <c r="M23" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47487437185929648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>43912</v>
       </c>
@@ -7072,31 +7758,39 @@
         <v>178</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="23">C24-C23</f>
+        <f t="shared" ref="H24" si="25">C24-C23</f>
         <v>7783</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="24">D24-D23</f>
+        <f t="shared" ref="I24" si="26">D24-D23</f>
         <v>110</v>
       </c>
       <c r="J24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="K24" s="41">
+      <c r="L24" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32552693208430911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.68925619834710738</v>
+      </c>
+      <c r="M24" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.70454545454545459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>43913</v>
       </c>
@@ -7110,34 +7804,39 @@
         <v>552</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H26" si="25">C25-C24</f>
+        <f t="shared" ref="H25:H26" si="27">C25-C24</f>
         <v>10391</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I26" si="26">D25-D24</f>
+        <f t="shared" ref="I25:I26" si="28">D25-D24</f>
         <v>135</v>
       </c>
       <c r="J25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>-178</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="K25" s="41">
+      <c r="L25" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33193024654239328</v>
-      </c>
-      <c r="O25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.57559958289885294</v>
+      </c>
+      <c r="M25" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>43914</v>
       </c>
@@ -7154,31 +7853,39 @@
         <v>348</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>706</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="H26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10073</v>
       </c>
       <c r="I26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>154</v>
       </c>
       <c r="J26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>348</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
-      <c r="K26" s="41">
+      <c r="L26" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32400183570445157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.55113192818110845</v>
+      </c>
+      <c r="M26" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.38737864077669903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>43915</v>
       </c>
@@ -7195,31 +7902,39 @@
         <v>361</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>942</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>361</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27" si="27">C27-C26</f>
+        <f t="shared" ref="H27" si="29">C27-C26</f>
         <v>12038</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="28">D27-D26</f>
+        <f t="shared" ref="I27" si="30">D27-D26</f>
         <v>236</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="K27" s="41">
+      <c r="L27" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34556126192223036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.56644618159951898</v>
+      </c>
+      <c r="M27" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.51169590643274854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>43916</v>
       </c>
@@ -7236,38 +7951,39 @@
         <v>681</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1209</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>681</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="29">C28-C27</f>
+        <f t="shared" ref="H28" si="31">C28-C27</f>
         <v>18058</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="30">D28-D27</f>
+        <f t="shared" ref="I28" si="32">D28-D27</f>
         <v>267</v>
       </c>
       <c r="J28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="K28" s="41">
+      <c r="L28" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34552729351243211</v>
-      </c>
-      <c r="O28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" t="str">
-        <f>" y = b*m^x "</f>
-        <v xml:space="preserve"> y = b*m^x </v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.55484167049105093</v>
+      </c>
+      <c r="M28" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.51328125000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>43917</v>
       </c>
@@ -7284,38 +8000,39 @@
         <v>869</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1581</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>869</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="31">C29-C28</f>
+        <f t="shared" ref="H29" si="33">C29-C28</f>
         <v>17821</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="32">D29-D28</f>
+        <f t="shared" ref="I29" si="34">D29-D28</f>
         <v>372</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>188</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="K29" s="41">
+      <c r="L29" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34132124352331605</v>
-      </c>
-      <c r="O29">
-        <f t="array" ref="O29:P33">LINEST(C27:C31,LN(J27:J31),TRUE,FALSE)</f>
-        <v>487122.13795374928</v>
-      </c>
-      <c r="P29">
-        <v>-1483641.5373719693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.57997065297138661</v>
+      </c>
+      <c r="M29" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.55414819506016466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>43918</v>
       </c>
@@ -7332,37 +8049,39 @@
         <v>1072</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2026</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1072</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30" si="33">C30-C29</f>
+        <f t="shared" ref="H30" si="35">C30-C29</f>
         <v>19821</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="34">D30-D29</f>
+        <f t="shared" ref="I30" si="36">D30-D29</f>
         <v>445</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>203</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="K30" s="41">
+      <c r="L30" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3151835718730554</v>
-      </c>
-      <c r="O30">
-        <v>487122.13795374928</v>
-      </c>
-      <c r="P30">
-        <v>-1483641.5373719693</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.57902257787939415</v>
+      </c>
+      <c r="M30" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.58061060524906272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>43919</v>
       </c>
@@ -7379,37 +8098,39 @@
         <v>2665</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2467</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2665</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="35">C31-C30</f>
+        <f t="shared" ref="H31" si="37">C31-C30</f>
         <v>19408</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31" si="36">D31-D30</f>
+        <f t="shared" ref="I31" si="38">D31-D30</f>
         <v>441</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>1593</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="K31" s="41">
+      <c r="L31" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31685075777035704</v>
-      </c>
-      <c r="O31">
-        <v>487122.13795374928</v>
-      </c>
-      <c r="P31">
-        <v>-1483641.5373719693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.53259930915371334</v>
+      </c>
+      <c r="M31" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.46957820082120194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>43920</v>
       </c>
@@ -7426,37 +8147,39 @@
         <v>5644</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2978</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5644</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="37">C32-C31</f>
+        <f t="shared" ref="H32" si="39">C32-C31</f>
         <v>20921</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32" si="38">D32-D31</f>
+        <f t="shared" ref="I32" si="40">D32-D31</f>
         <v>511</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>2979</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="K32" s="41">
+      <c r="L32" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21769005847953216</v>
-      </c>
-      <c r="O32">
-        <v>487122.13795374928</v>
-      </c>
-      <c r="P32">
-        <v>-1483641.5373719693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.46328562538892348</v>
+      </c>
+      <c r="M32" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.34391925160019693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>43921</v>
       </c>
@@ -7473,37 +8196,39 @@
         <v>7024</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3873</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7024</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="39">C33-C32</f>
+        <f t="shared" ref="H33" si="41">C33-C32</f>
         <v>26365</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33" si="40">D33-D32</f>
+        <f t="shared" ref="I33" si="42">D33-D32</f>
         <v>895</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>1380</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="K33" s="41">
+      <c r="L33" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20276425318046176</v>
-      </c>
-      <c r="O33">
-        <v>487122.13795374928</v>
-      </c>
-      <c r="P33">
-        <v>-1483641.5373719693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.49743128692525046</v>
+      </c>
+      <c r="M33" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.37313131313131315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>43922</v>
       </c>
@@ -7520,31 +8245,39 @@
         <v>8566</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5116</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8566</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34" si="41">C34-C33</f>
+        <f t="shared" ref="H34" si="43">C34-C33</f>
         <v>27245</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="42">D34-D33</f>
+        <f t="shared" ref="I34" si="44">D34-D33</f>
         <v>1243</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>1542</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="K34" s="41">
+      <c r="L34" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20068254030518182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.37397660818713452</v>
+      </c>
+      <c r="M34" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.30766550522648084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>43923</v>
       </c>
@@ -7561,31 +8294,39 @@
         <v>9001</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5926</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9001</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="43">C35-C34</f>
+        <f t="shared" ref="H35" si="45">C35-C34</f>
         <v>28036</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35" si="44">D35-D34</f>
+        <f t="shared" ref="I35" si="46">D35-D34</f>
         <v>810</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
+        <v>435</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="K35" s="41">
-        <f t="shared" ref="K35:K56" ca="1" si="45">IFERROR(D35/OFFSET(C35,-$K$1,0), "insufficient data")</f>
-        <v>0.17808630845053491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L35" s="38">
+        <f t="shared" ref="L35:L56" ca="1" si="47">IFERROR(D35/OFFSET(C35,-$L$1,0), "insufficient data")</f>
+        <v>0.3102455368828857</v>
+      </c>
+      <c r="M35" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.17130571212737522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>43924</v>
       </c>
@@ -7602,31 +8343,39 @@
         <v>9707</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7087</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9707</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36" si="46">C36-C35</f>
+        <f t="shared" ref="H36" si="48">C36-C35</f>
         <v>32133</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36" si="47">D36-D35</f>
+        <f t="shared" ref="I36:J51" si="49">D36-D35</f>
         <v>1161</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>706</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="K36" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.16229647101930519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L36" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.27799788177146667</v>
+      </c>
+      <c r="M36" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18649181849831728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>43925</v>
       </c>
@@ -7643,31 +8392,39 @@
         <v>14652</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8407</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14652</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37" si="48">C37-C36</f>
+        <f t="shared" ref="H37" si="50">C37-C36</f>
         <v>33264</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37" si="49">D37-D36</f>
+        <f t="shared" ref="I37" si="51">D37-D36</f>
         <v>1320</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>4945</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
-      <c r="K37" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.15643840714551543</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L37" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.25264454862363267</v>
+      </c>
+      <c r="M37" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.16001361404191181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>43926</v>
       </c>
@@ -7684,31 +8441,39 @@
         <v>17448</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9619</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17448</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38" si="50">C38-C37</f>
+        <f t="shared" ref="H38" si="52">C38-C37</f>
         <v>28222</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38" si="51">D38-D37</f>
+        <f t="shared" ref="I38" si="53">D38-D37</f>
         <v>1212</v>
       </c>
       <c r="J38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>2796</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="K38" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.14623430326248898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L38" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.22028076121556325</v>
+      </c>
+      <c r="M38" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14227376044997495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>43927</v>
       </c>
@@ -7725,31 +8490,39 @@
         <v>19581</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10783</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19581</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="52">C39-C38</f>
+        <f t="shared" ref="H39" si="54">C39-C38</f>
         <v>29595</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="53">D39-D38</f>
+        <f t="shared" ref="I39" si="55">D39-D38</f>
         <v>1164</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>2133</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="K39" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.12862016317572403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L39" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.20065128395980647</v>
+      </c>
+      <c r="M39" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11978609625668449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>43928</v>
       </c>
@@ -7766,31 +8539,39 @@
         <v>21763</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12722</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21763</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40" si="54">C40-C39</f>
+        <f t="shared" ref="H40" si="56">C40-C39</f>
         <v>29556</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40" si="55">D40-D39</f>
+        <f t="shared" ref="I40" si="57">D40-D39</f>
         <v>1939</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>2182</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="K40" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.1251463253883156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L40" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.19340813037793791</v>
+      </c>
+      <c r="M40" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.13407283122048222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>43929</v>
       </c>
@@ -7807,31 +8588,39 @@
         <v>23559</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14695</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23559</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41" si="56">C41-C40</f>
+        <f t="shared" ref="H41" si="58">C41-C40</f>
         <v>32829</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41" si="57">D41-D40</f>
+        <f t="shared" ref="I41" si="59">D41-D40</f>
         <v>1973</v>
       </c>
       <c r="J41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>1796</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="K41" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.1209684058018736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L41" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.17528269478505654</v>
+      </c>
+      <c r="M41" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12047277732947263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>43930</v>
       </c>
@@ -7848,31 +8637,39 @@
         <v>25410</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16478</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25410</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="58">C42-C41</f>
+        <f t="shared" ref="H42" si="60">C42-C41</f>
         <v>32385</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42" si="59">D42-D41</f>
+        <f t="shared" ref="I42" si="61">D42-D41</f>
         <v>1783</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>1851</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="K42" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.11695981147878426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L42" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.16209410075056316</v>
+      </c>
+      <c r="M42" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10558614680089734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>43931</v>
       </c>
@@ -7889,31 +8686,39 @@
         <v>28790</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18586</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28790</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="60">C43-C42</f>
+        <f t="shared" ref="H43" si="62">C43-C42</f>
         <v>35098</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43" si="61">D43-D42</f>
+        <f t="shared" ref="I43" si="63">D43-D42</f>
         <v>2108</v>
       </c>
       <c r="J43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>3380</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="K43" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.11486524068798012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.15299889691960683</v>
+      </c>
+      <c r="M43" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10572814308638191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43932</v>
       </c>
@@ -7930,31 +8735,39 @@
         <v>31270</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20463</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31270</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="62">C44-C43</f>
+        <f t="shared" ref="H44" si="64">C44-C43</f>
         <v>29861</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44" si="63">D44-D43</f>
+        <f t="shared" ref="I44" si="65">D44-D43</f>
         <v>1877</v>
       </c>
       <c r="J44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>2480</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="K44" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.10874625342771507</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.1452450917763298</v>
+      </c>
+      <c r="M44" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.7679932260795937E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>43933</v>
       </c>
@@ -7971,31 +8784,39 @@
         <v>32988</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22020</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32988</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45" si="64">C45-C44</f>
+        <f t="shared" ref="H45" si="66">C45-C44</f>
         <v>28917</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45" si="65">D45-D44</f>
+        <f t="shared" ref="I45" si="67">D45-D44</f>
         <v>1557</v>
       </c>
       <c r="J45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>1718</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="K45" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.1022203447267393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.13608805552293782</v>
+      </c>
+      <c r="M45" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.2773323066106431E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>43934</v>
       </c>
@@ -8012,31 +8833,39 @@
         <v>43482</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23529</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43482</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46" si="66">C46-C45</f>
+        <f t="shared" ref="H46" si="68">C46-C45</f>
         <v>25306</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46" si="67">D46-D45</f>
+        <f t="shared" ref="I46" si="69">D46-D45</f>
         <v>1509</v>
       </c>
       <c r="J46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>10494</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="K46" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.6646991411073191E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.12503985715196736</v>
+      </c>
+      <c r="M46" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.2470567537056316E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>43935</v>
       </c>
@@ -8053,31 +8882,39 @@
         <v>47763</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25832</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47763</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47" si="68">C47-C46</f>
+        <f t="shared" ref="H47" si="70">C47-C46</f>
         <v>27051</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47" si="69">D47-D46</f>
+        <f t="shared" ref="I47" si="71">D47-D46</f>
         <v>2303</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>4281</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="K47" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.3734805106210045E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.11991625544873431</v>
+      </c>
+      <c r="M47" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.7133479212253835E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>43936</v>
       </c>
@@ -8094,31 +8931,39 @@
         <v>52096</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28326</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52096</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48" si="70">C48-C47</f>
+        <f t="shared" ref="H48" si="72">C48-C47</f>
         <v>28680</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48" si="71">D48-D47</f>
+        <f t="shared" ref="I48" si="73">D48-D47</f>
         <v>2494</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>4333</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="K48" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.1714424477901887E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.1163509999876773</v>
+      </c>
+      <c r="M48" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.6412282189855324E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>43937</v>
       </c>
@@ -8135,31 +8980,39 @@
         <v>54703</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32917</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54703</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49" si="72">C49-C48</f>
+        <f t="shared" ref="H49" si="74">C49-C48</f>
         <v>31451</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49" si="73">D49-D48</f>
+        <f t="shared" ref="I49" si="75">D49-D48</f>
         <v>4591</v>
       </c>
       <c r="J49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>2607</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="K49" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.7655693739023122E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.11944365824098467</v>
+      </c>
+      <c r="M49" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10643387563063318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>43938</v>
       </c>
@@ -8176,31 +9029,39 @@
         <v>58545</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36773</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58545</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="74">C50-C49</f>
+        <f t="shared" ref="H50" si="76">C50-C49</f>
         <v>31905</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50" si="75">D50-D49</f>
+        <f t="shared" ref="I50" si="77">D50-D49</f>
         <v>3856</v>
       </c>
       <c r="J50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>3842</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="K50" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>0.10028990882735561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.11906427068156063</v>
+      </c>
+      <c r="M50" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11218086742540757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>43939</v>
       </c>
@@ -8217,31 +9078,39 @@
         <v>64840</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38664</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64840</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51" si="76">C51-C50</f>
+        <f t="shared" ref="H51" si="78">C51-C50</f>
         <v>32491</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51" si="77">D51-D50</f>
+        <f t="shared" ref="I51" si="79">D51-D50</f>
         <v>1891</v>
       </c>
       <c r="J51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="49"/>
+        <v>6295</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
-      <c r="K51" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.7581412487412394E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.11470546352114681</v>
+      </c>
+      <c r="M51" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10910817941952507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>43940</v>
       </c>
@@ -8258,31 +9127,39 @@
         <v>70337</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40661</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70337</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52" si="78">C52-C51</f>
+        <f t="shared" ref="H52" si="80">C52-C51</f>
         <v>26889</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52" si="79">D52-D51</f>
+        <f t="shared" ref="I52:J66" si="81">D52-D51</f>
         <v>1997</v>
       </c>
       <c r="J52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>5497</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="K52" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.4769398581057776E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.11089353555133132</v>
+      </c>
+      <c r="M52" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.0005695091760707E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>43941</v>
       </c>
@@ -8299,31 +9176,39 @@
         <v>72329</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42094</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72329</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53" si="80">C53-C52</f>
+        <f t="shared" ref="H53" si="82">C53-C52</f>
         <v>25240</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53" si="81">D53-D52</f>
+        <f t="shared" ref="I53" si="83">D53-D52</f>
         <v>1433</v>
       </c>
       <c r="J53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>1992</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="K53" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>9.1223720681263096E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.10623815376694437</v>
+      </c>
+      <c r="M53" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.9957631893268429E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>43942</v>
       </c>
@@ -8340,31 +9225,39 @@
         <v>75204</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44444</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75204</v>
       </c>
       <c r="H54">
-        <f t="shared" ref="H54:H55" si="82">C54-C53</f>
+        <f t="shared" ref="H54:H55" si="84">C54-C53</f>
         <v>27539</v>
       </c>
       <c r="I54">
-        <f t="shared" ref="I54:I55" si="83">D54-D53</f>
+        <f t="shared" ref="I54:I55" si="85">D54-D53</f>
         <v>2350</v>
       </c>
       <c r="J54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>2875</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="K54" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>8.9508292466794884E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.10358651165826054</v>
+      </c>
+      <c r="M54" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.2866403454389222E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>43943</v>
       </c>
@@ -8381,31 +9274,39 @@
         <v>77366</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46622</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77366</v>
       </c>
       <c r="H55">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>28355</v>
       </c>
       <c r="I55">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2178</v>
       </c>
       <c r="J55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>2162</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="K55" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>8.8568302190746129E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.10103654453370665</v>
+      </c>
+      <c r="M55" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.0799853125669351E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>43944</v>
       </c>
@@ -8422,31 +9323,39 @@
         <v>80203</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" ref="F56" si="84">D56*$F$1</f>
+        <f t="shared" ref="F56" si="86">D56*$F$1</f>
         <v>49954</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" ref="G56" si="85">E56*$G$1</f>
+        <f t="shared" ref="G56" si="87">E56*$G$1</f>
         <v>80203</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56" si="86">C56-C55</f>
+        <f t="shared" ref="H56" si="88">C56-C55</f>
         <v>28950</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56" si="87">D56-D55</f>
+        <f t="shared" ref="I56" si="89">D56-D55</f>
         <v>3332</v>
       </c>
       <c r="J56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>2837</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="K56" s="41">
-        <f t="shared" ca="1" si="45"/>
-        <v>8.9956474996983685E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="38">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.10060519399438106</v>
+      </c>
+      <c r="M56" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8703889133656432E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>43945</v>
       </c>
@@ -8463,115 +9372,630 @@
         <v>99079</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" ref="F57" si="88">D57*$F$1</f>
+        <f t="shared" ref="F57" si="90">D57*$F$1</f>
         <v>51949</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" ref="G57" si="89">E57*$G$1</f>
+        <f t="shared" ref="G57" si="91">E57*$G$1</f>
         <v>99079</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57" si="90">C57-C56</f>
+        <f t="shared" ref="H57" si="92">C57-C56</f>
         <v>36163</v>
       </c>
       <c r="I57">
-        <f t="shared" ref="I57" si="91">D57-D56</f>
+        <f t="shared" ref="I57" si="93">D57-D56</f>
         <v>1995</v>
       </c>
       <c r="J57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="81"/>
+        <v>18876</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="K57" s="41">
-        <f t="shared" ref="K57" ca="1" si="92">IFERROR(D57/OFFSET(C57,-$K$1,0), "insufficient data")</f>
-        <v>8.9471753421779168E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="38">
+        <f t="shared" ref="L57" ca="1" si="94">IFERROR(D57/OFFSET(C57,-$L$1,0), "insufficient data")</f>
+        <v>9.8688059939665201E-2</v>
+      </c>
+      <c r="M57" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.5007245869854189E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>43946</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>938154</v>
+      </c>
+      <c r="D58">
+        <v>53755</v>
+      </c>
+      <c r="E58">
+        <v>100372</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" ref="F58" si="95">D58*$F$1</f>
+        <v>53755</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" ref="G58" si="96">E58*$G$1</f>
+        <v>100372</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58" si="97">C58-C57</f>
+        <v>32821</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58" si="98">D58-D57</f>
+        <v>1806</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="81"/>
+        <v>1293</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="L58" s="38">
+        <f t="shared" ref="L58" ca="1" si="99">IFERROR(D58/OFFSET(C58,-$L$1,0), "insufficient data")</f>
+        <v>9.6801263431614243E-2</v>
+      </c>
+      <c r="M58" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.0472478254492941E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>43947</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>965783</v>
+      </c>
+      <c r="D59">
+        <v>54881</v>
+      </c>
+      <c r="E59">
+        <v>106988</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ref="F59:F63" si="100">D59*$F$1</f>
+        <v>54881</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" ref="G59:G63" si="101">E59*$G$1</f>
+        <v>106988</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H63" si="102">C59-C58</f>
+        <v>27629</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:I63" si="103">D59-D58</f>
+        <v>1126</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="81"/>
+        <v>6616</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="L59" s="38">
+        <f t="shared" ref="L59:L63" ca="1" si="104">IFERROR(D59/OFFSET(C59,-$L$1,0), "insufficient data")</f>
+        <v>9.4521536498116662E-2</v>
+      </c>
+      <c r="M59" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.9261486649025738E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>43948</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>988197</v>
+      </c>
+      <c r="D60">
+        <v>56259</v>
+      </c>
+      <c r="E60">
+        <v>111424</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="100"/>
+        <v>56259</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="101"/>
+        <v>111424</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="102"/>
+        <v>22414</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="103"/>
+        <v>1378</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="81"/>
+        <v>4436</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="13"/>
+        <v>57</v>
+      </c>
+      <c r="L60" s="38">
+        <f t="shared" ca="1" si="104"/>
+        <v>9.2581499827208841E-2</v>
+      </c>
+      <c r="M60" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5496182223195085E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>43949</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1012582</v>
+      </c>
+      <c r="D61">
+        <v>58355</v>
+      </c>
+      <c r="E61">
+        <v>115936</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="100"/>
+        <v>58355</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="101"/>
+        <v>115936</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="102"/>
+        <v>24385</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="103"/>
+        <v>2096</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="81"/>
+        <v>4512</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="L61" s="38">
+        <f t="shared" ca="1" si="104"/>
+        <v>9.1702679343128785E-2</v>
+      </c>
+      <c r="M61" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5567635476311272E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>43950</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>1039909</v>
+      </c>
+      <c r="D62">
+        <v>60967</v>
+      </c>
+      <c r="E62">
+        <v>120720</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="100"/>
+        <v>60967</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="101"/>
+        <v>120720</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="102"/>
+        <v>27327</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="103"/>
+        <v>2612</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="81"/>
+        <v>4784</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="13"/>
+        <v>59</v>
+      </c>
+      <c r="L62" s="38">
+        <f t="shared" ca="1" si="104"/>
+        <v>9.1295161283076839E-2</v>
+      </c>
+      <c r="M62" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.8527547263289454E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>43951</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>1069424</v>
+      </c>
+      <c r="D63">
+        <v>62996</v>
+      </c>
+      <c r="E63">
+        <v>153947</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="100"/>
+        <v>62996</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="101"/>
+        <v>153947</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="102"/>
+        <v>29515</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="103"/>
+        <v>2029</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="81"/>
+        <v>33227</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L63" s="38">
+        <f t="shared" ca="1" si="104"/>
+        <v>9.0032099195948012E-2</v>
+      </c>
+      <c r="M63" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.1060153786112842E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>43952</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1103461</v>
+      </c>
+      <c r="D64">
+        <v>64943</v>
+      </c>
+      <c r="E64">
+        <v>164015</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" ref="F64:F66" si="105">D64*$F$1</f>
+        <v>64943</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" ref="G64:G66" si="106">E64*$G$1</f>
+        <v>164015</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64:H66" si="107">C64-C63</f>
+        <v>34037</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64:I66" si="108">D64-D63</f>
+        <v>1947</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="81"/>
+        <v>10068</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="L64" s="38">
+        <f t="shared" ref="L64:L66" ca="1" si="109">IFERROR(D64/OFFSET(C64,-$L$1,0), "insufficient data")</f>
+        <v>8.8696074963431973E-2</v>
+      </c>
+      <c r="M64" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.8410504563815533E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>43953</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>1132539</v>
+      </c>
+      <c r="D65">
+        <v>66369</v>
+      </c>
+      <c r="E65">
+        <v>175382</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="105"/>
+        <v>66369</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="106"/>
+        <v>175382</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="107"/>
+        <v>29078</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="108"/>
+        <v>1426</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="81"/>
+        <v>11367</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="13"/>
+        <v>62</v>
+      </c>
+      <c r="L65" s="38">
+        <f t="shared" ca="1" si="109"/>
+        <v>8.7432781002416068E-2</v>
+      </c>
+      <c r="M65" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.8799838904550948E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>43954</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>1158040</v>
+      </c>
+      <c r="D66">
+        <v>67682</v>
+      </c>
+      <c r="E66">
+        <v>180152</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="105"/>
+        <v>67682</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="106"/>
+        <v>180152</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="107"/>
+        <v>25501</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="108"/>
+        <v>1313</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="81"/>
+        <v>4770</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="L66" s="38">
+        <f t="shared" ca="1" si="109"/>
+        <v>8.6293199511427651E-2</v>
+      </c>
+      <c r="M66" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.930294363309626E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>43955</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1180375</v>
+      </c>
+      <c r="D67">
+        <v>68922</v>
+      </c>
+      <c r="E67">
+        <v>187180</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F68" si="110">D67*$F$1</f>
+        <v>68922</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G68" si="111">E67*$G$1</f>
+        <v>187180</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H68" si="112">C67-C66</f>
+        <v>22335</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I68" si="113">D67-D66</f>
+        <v>1240</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J68" si="114">E67-E66</f>
+        <v>7028</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="L67" s="38">
+        <f t="shared" ref="L67:L68" ca="1" si="115">IFERROR(D67/OFFSET(C67,-$L$1,0), "insufficient data")</f>
+        <v>8.4893424399376749E-2</v>
+      </c>
+      <c r="M67" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.1000397339109702E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>43956</v>
       </c>
       <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>1204351</v>
+      </c>
+      <c r="D68">
+        <v>71064</v>
+      </c>
+      <c r="E68">
+        <v>189791</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="110"/>
+        <v>71064</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="111"/>
+        <v>189791</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="112"/>
+        <v>23976</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="113"/>
+        <v>2142</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="114"/>
+        <v>2611</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="L68" s="38">
+        <f t="shared" ca="1" si="115"/>
+        <v>8.4577848658684632E-2</v>
+      </c>
+      <c r="M68" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.6272697853367373E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>43957</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>43958</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>43959</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>43960</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>43961</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>43962</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>43963</v>
+      </c>
+      <c r="B75" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8586,8 +10010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8638,7 +10062,7 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <v>18</v>
       </c>
       <c r="E3" t="s">
@@ -8649,7 +10073,7 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
@@ -8660,7 +10084,7 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="34">
         <v>5</v>
       </c>
       <c r="E5" t="s">
@@ -8669,9 +10093,9 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="39">
+        <v>68</v>
+      </c>
+      <c r="B6" s="36">
         <v>43918</v>
       </c>
       <c r="C6" t="s">
@@ -8692,7 +10116,7 @@
         <f>D6/D4</f>
         <v>202600</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f>B6-18</f>
         <v>43900</v>
       </c>
@@ -8753,30 +10177,30 @@
         <v>32416</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <f>B6+D3</f>
         <v>43936</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="38">
+        <v>69</v>
+      </c>
+      <c r="D13" s="35">
         <f>VLOOKUP(B13,Summary!A5:E68,4)</f>
         <v>28326</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="30">
+        <v>70</v>
+      </c>
+      <c r="K13" s="27">
         <f>18+DATE(2020,3,28)</f>
         <v>43936</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -8801,591 +10225,591 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="C5" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="F5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="G5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="H5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="J5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="K5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+    </row>
+    <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="C6" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="32">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D6" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="E6" s="32">
-        <v>5.7</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="H6" s="30">
+        <v>43830</v>
+      </c>
+      <c r="I6" s="30">
+        <v>43855</v>
+      </c>
+      <c r="J6" s="30">
+        <v>43858</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="32" t="s">
+    </row>
+    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="29">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H7" s="30">
         <v>43830</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I7" s="30">
         <v>43855</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J7" s="30">
         <v>43858</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K7" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="H8" s="30">
+        <v>43809</v>
+      </c>
+      <c r="I8" s="30">
+        <v>43855</v>
+      </c>
+      <c r="J8" s="30">
+        <v>43856</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="D9" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="29">
+        <v>6</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="32">
-        <v>5</v>
-      </c>
-      <c r="D7" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E7" s="32">
-        <v>5.8</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="H9" s="30">
+        <v>43800</v>
+      </c>
+      <c r="I9" s="30">
+        <v>43500</v>
+      </c>
+      <c r="J9" s="30">
+        <v>43865</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="30">
         <v>43830</v>
       </c>
-      <c r="I7" s="33">
-        <v>43855</v>
-      </c>
-      <c r="J7" s="33">
-        <v>43858</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="I10" s="30">
+        <v>43871</v>
+      </c>
+      <c r="J10" s="30">
+        <v>43872</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="29">
+        <v>11.4</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="30">
+        <v>43849</v>
+      </c>
+      <c r="I11" s="30">
+        <v>43887</v>
+      </c>
+      <c r="J11" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29">
         <v>5.4</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D12" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="29">
+        <v>9.9</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="30">
+        <v>43851</v>
+      </c>
+      <c r="I12" s="30">
+        <v>43883</v>
+      </c>
+      <c r="J12" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="30">
+        <v>43851</v>
+      </c>
+      <c r="I13" s="30">
+        <v>43883</v>
+      </c>
+      <c r="J13" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="E14" s="29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="30">
+        <v>43849</v>
+      </c>
+      <c r="I14" s="30">
+        <v>43887</v>
+      </c>
+      <c r="J14" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="29">
+        <v>5.46</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="E15" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="30">
+        <v>43849</v>
+      </c>
+      <c r="I15" s="30">
+        <v>43861</v>
+      </c>
+      <c r="J15" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="29">
+        <v>7.27</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1.31</v>
+      </c>
+      <c r="E16" s="29">
+        <v>17.3</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="30">
+        <v>43862</v>
+      </c>
+      <c r="I16" s="30">
+        <v>43887</v>
+      </c>
+      <c r="J16" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="29">
+        <v>9</v>
+      </c>
+      <c r="D17" s="29">
+        <v>7.92</v>
+      </c>
+      <c r="E17" s="29">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="30">
+        <v>43851</v>
+      </c>
+      <c r="I17" s="30">
+        <v>43883</v>
+      </c>
+      <c r="J17" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>12.7</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="30">
+        <v>43851</v>
+      </c>
+      <c r="I18" s="30">
+        <v>43861</v>
+      </c>
+      <c r="J18" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="29">
+        <v>12.4</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="E19" s="29">
+        <v>19</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="30">
+        <v>43862</v>
+      </c>
+      <c r="I19" s="30">
+        <v>43883</v>
+      </c>
+      <c r="J19" s="30">
+        <v>43896</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D20" s="29">
+        <v>7.37</v>
+      </c>
+      <c r="E20" s="29">
+        <v>8.91</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="30">
+        <v>43842</v>
+      </c>
+      <c r="I20" s="30">
+        <v>43853</v>
+      </c>
+      <c r="J20" s="30">
+        <v>43900</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="29">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D21" s="29">
+        <v>8.02</v>
+      </c>
+      <c r="E21" s="29">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="30">
+        <v>43842</v>
+      </c>
+      <c r="I21" s="30">
+        <v>43853</v>
+      </c>
+      <c r="J21" s="30">
+        <v>43900</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="D22" s="29">
         <v>4.2</v>
       </c>
-      <c r="E8" s="32">
-        <v>6.7</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="33">
-        <v>43809</v>
-      </c>
-      <c r="I8" s="33">
-        <v>43855</v>
-      </c>
-      <c r="J8" s="33">
-        <v>43856</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="32">
-        <v>5.2</v>
-      </c>
-      <c r="D9" s="32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E9" s="32">
-        <v>6</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="33">
-        <v>43800</v>
-      </c>
-      <c r="I9" s="33">
-        <v>43500</v>
-      </c>
-      <c r="J9" s="33">
-        <v>43865</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="D10" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="33">
-        <v>43830</v>
-      </c>
-      <c r="I10" s="33">
-        <v>43871</v>
-      </c>
-      <c r="J10" s="33">
-        <v>43872</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="D11" s="32">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="32">
-        <v>11.4</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="33">
-        <v>43849</v>
-      </c>
-      <c r="I11" s="33">
-        <v>43887</v>
-      </c>
-      <c r="J11" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="E22" s="29">
         <v>5.4</v>
       </c>
-      <c r="D12" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="32">
-        <v>9.9</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="F22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="33">
-        <v>43851</v>
-      </c>
-      <c r="I12" s="33">
-        <v>43883</v>
-      </c>
-      <c r="J12" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="32">
-        <v>5.2</v>
-      </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
-        <v>9.4</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="33">
-        <v>43851</v>
-      </c>
-      <c r="I13" s="33">
-        <v>43883</v>
-      </c>
-      <c r="J13" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="32">
-        <v>7.1</v>
-      </c>
-      <c r="D14" s="32">
-        <v>6.1</v>
-      </c>
-      <c r="E14" s="32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="33">
-        <v>43849</v>
-      </c>
-      <c r="I14" s="33">
-        <v>43887</v>
-      </c>
-      <c r="J14" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="32">
-        <v>5.46</v>
-      </c>
-      <c r="D15" s="32">
-        <v>1.34</v>
-      </c>
-      <c r="E15" s="32">
-        <v>11.1</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="33">
-        <v>43849</v>
-      </c>
-      <c r="I15" s="33">
-        <v>43861</v>
-      </c>
-      <c r="J15" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="32">
-        <v>7.27</v>
-      </c>
-      <c r="D16" s="32">
-        <v>1.31</v>
-      </c>
-      <c r="E16" s="32">
-        <v>17.3</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="33">
-        <v>43862</v>
-      </c>
-      <c r="I16" s="33">
-        <v>43887</v>
-      </c>
-      <c r="J16" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="32">
-        <v>9</v>
-      </c>
-      <c r="D17" s="32">
-        <v>7.92</v>
-      </c>
-      <c r="E17" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="33">
-        <v>43851</v>
-      </c>
-      <c r="I17" s="33">
-        <v>43883</v>
-      </c>
-      <c r="J17" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="32">
-        <v>6.9</v>
-      </c>
-      <c r="D18" s="32">
-        <v>2</v>
-      </c>
-      <c r="E18" s="32">
-        <v>12.7</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="33">
-        <v>43851</v>
-      </c>
-      <c r="I18" s="33">
-        <v>43861</v>
-      </c>
-      <c r="J18" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="32">
-        <v>12.4</v>
-      </c>
-      <c r="D19" s="32">
-        <v>5.4</v>
-      </c>
-      <c r="E19" s="32">
-        <v>19</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="33">
-        <v>43862</v>
-      </c>
-      <c r="I19" s="33">
-        <v>43883</v>
-      </c>
-      <c r="J19" s="33">
-        <v>43896</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="32">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="D20" s="32">
-        <v>7.37</v>
-      </c>
-      <c r="E20" s="32">
-        <v>8.91</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="33">
-        <v>43842</v>
-      </c>
-      <c r="I20" s="33">
-        <v>43853</v>
-      </c>
-      <c r="J20" s="33">
-        <v>43900</v>
-      </c>
-      <c r="K20" s="34" t="s">
+      <c r="H22" s="30">
+        <v>43844</v>
+      </c>
+      <c r="I22" s="30">
+        <v>43873</v>
+      </c>
+      <c r="J22" s="30">
+        <v>43894</v>
+      </c>
+      <c r="K22" s="31" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="32">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="D21" s="32">
-        <v>8.02</v>
-      </c>
-      <c r="E21" s="32">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="33">
-        <v>43842</v>
-      </c>
-      <c r="I21" s="33">
-        <v>43853</v>
-      </c>
-      <c r="J21" s="33">
-        <v>43900</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="D22" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="E22" s="32">
-        <v>5.4</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="33">
-        <v>43844</v>
-      </c>
-      <c r="I22" s="33">
-        <v>43873</v>
-      </c>
-      <c r="J22" s="33">
-        <v>43894</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -9431,136 +10855,136 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="29">
+        <v>22.3</v>
+      </c>
+      <c r="D7" s="29">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29">
+        <v>82</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="30">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="30">
+        <v>43851</v>
+      </c>
+      <c r="J7" s="30">
+        <v>43871</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="29">
+        <v>11.8</v>
+      </c>
+      <c r="E8" s="29">
+        <v>16</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="30">
+        <v>43830</v>
+      </c>
+      <c r="I8" s="30">
+        <v>43855</v>
+      </c>
+      <c r="J8" s="30">
+        <v>43858</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="29">
+        <v>15.2</v>
+      </c>
+      <c r="D9" s="29">
+        <v>13.1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>17.7</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="30">
+        <v>43830</v>
+      </c>
+      <c r="I9" s="30">
+        <v>43854</v>
+      </c>
+      <c r="J9" s="30">
+        <v>43878</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="32">
-        <v>22.3</v>
-      </c>
-      <c r="D7" s="32">
-        <v>18</v>
-      </c>
-      <c r="E7" s="32">
-        <v>82</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="33">
-        <v>43830</v>
-      </c>
-      <c r="I7" s="33">
-        <v>43851</v>
-      </c>
-      <c r="J7" s="33">
-        <v>43871</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="32">
-        <v>13.8</v>
-      </c>
-      <c r="D8" s="32">
-        <v>11.8</v>
-      </c>
-      <c r="E8" s="32">
-        <v>16</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="33">
-        <v>43830</v>
-      </c>
-      <c r="I8" s="33">
-        <v>43855</v>
-      </c>
-      <c r="J8" s="33">
-        <v>43858</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="32">
-        <v>15.2</v>
-      </c>
-      <c r="D9" s="32">
-        <v>13.1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>17.7</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="33">
-        <v>43830</v>
-      </c>
-      <c r="I9" s="33">
-        <v>43854</v>
-      </c>
-      <c r="J9" s="33">
-        <v>43878</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
